--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4352,7 +4352,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L75">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L89">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -20382,11 +20382,6 @@
       <c r="G367">
         <v>0.4222222222222222</v>
       </c>
-      <c r="I367" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J367" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20394,7 +20389,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L367">
@@ -21182,7 +21177,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -21192,7 +21187,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L381">
@@ -26303,7 +26298,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Okanogan-Mosquito Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -26354,7 +26349,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Okanogan-Mosquito Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -26405,7 +26400,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Okanogan-Mosquito Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -33906,7 +33901,7 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
@@ -34489,6 +34484,11 @@
       <c r="G625">
         <v>0.6666666666666666</v>
       </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J625" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34496,7 +34496,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L625">
@@ -35277,7 +35277,7 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
@@ -36951,6 +36951,11 @@
       <c r="G667">
         <v>0.5111111111111111</v>
       </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J667" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36958,7 +36963,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L667">

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4249,6 +4249,11 @@
       <c r="G75">
         <v>0.6222222222222222</v>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4256,7 +4261,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L75">
@@ -20234,11 +20239,6 @@
       <c r="G369">
         <v>0.4222222222222222</v>
       </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L369">
@@ -24189,11 +24189,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I439" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J439" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24201,7 +24196,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L439">
@@ -33838,6 +33833,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33845,7 +33845,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L649">
@@ -34666,11 +34666,6 @@
       <c r="G663">
         <v>0.6666666666666666</v>
       </c>
-      <c r="I663" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J663" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34678,7 +34673,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L663">
@@ -35412,6 +35407,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35419,7 +35419,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L677">

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4523,18 +4523,13 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4542,7 +4537,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L80">
@@ -4585,18 +4580,13 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4604,7 +4594,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L81">
@@ -4654,11 +4644,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4666,7 +4651,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L82">
@@ -5143,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -9358,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -9420,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="G167">
-        <v>0.9111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -9482,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -9544,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>0.9111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -9606,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>0.8444444444444444</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -10034,18 +10019,13 @@
         <v>3</v>
       </c>
       <c r="G177">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10053,7 +10033,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L177">
@@ -10096,7 +10076,7 @@
         <v>3</v>
       </c>
       <c r="G178">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -10158,18 +10138,13 @@
         <v>3</v>
       </c>
       <c r="G179">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J179" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10177,7 +10152,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L179">
@@ -10220,18 +10195,13 @@
         <v>3</v>
       </c>
       <c r="G180">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J180" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10239,7 +10209,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L180">
@@ -10282,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="G181">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -10348,19 +10318,14 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L182">
@@ -10407,19 +10372,14 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L183">
@@ -10466,19 +10426,14 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L184">
@@ -10525,19 +10480,14 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L185">
@@ -10643,19 +10593,14 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L187">
@@ -10705,14 +10650,9 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -10767,14 +10707,9 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -10822,16 +10757,11 @@
         <v>1</v>
       </c>
       <c r="G190">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
           <t>Fry,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10946,18 +10876,13 @@
         <v>1</v>
       </c>
       <c r="G192">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J192" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10965,7 +10890,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L192">
@@ -11077,11 +11002,6 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J194" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11089,7 +11009,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L194">
@@ -11139,11 +11059,6 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J195" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11151,7 +11066,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L195">
@@ -13980,14 +13895,19 @@
       <c r="F248">
         <v>3</v>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L248">
@@ -14029,14 +13949,19 @@
       <c r="F249">
         <v>3</v>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L249">
@@ -14078,14 +14003,19 @@
       <c r="F250">
         <v>3</v>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L250">
@@ -14127,14 +14057,19 @@
       <c r="F251">
         <v>3</v>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L251">
@@ -14176,14 +14111,19 @@
       <c r="F252">
         <v>3</v>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L252">
@@ -14333,14 +14273,19 @@
       <c r="F255">
         <v>3</v>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L255">
@@ -18831,7 +18776,12 @@
         <v>3</v>
       </c>
       <c r="G344">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -18840,7 +18790,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L344">
@@ -18885,6 +18835,11 @@
       <c r="G345">
         <v>0.5555555555555556</v>
       </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J345" t="inlineStr">
         <is>
           <t>yes</t>
@@ -18892,7 +18847,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L345">
@@ -18937,6 +18892,11 @@
       <c r="G346">
         <v>0.6444444444444445</v>
       </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J346" t="inlineStr">
         <is>
           <t>yes</t>
@@ -18944,7 +18904,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L346">
@@ -18989,9 +18949,14 @@
       <c r="G347">
         <v>0.8222222222222222</v>
       </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -19687,7 +19652,7 @@
         <v>3</v>
       </c>
       <c r="G360">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -19749,7 +19714,7 @@
         <v>3</v>
       </c>
       <c r="G361">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
@@ -19811,7 +19776,7 @@
         <v>3</v>
       </c>
       <c r="G362">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -19873,7 +19838,7 @@
         <v>3</v>
       </c>
       <c r="G363">
-        <v>0.3111111111111111</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -19935,7 +19900,7 @@
         <v>3</v>
       </c>
       <c r="G364">
-        <v>0.3111111111111111</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -19997,7 +19962,7 @@
         <v>3</v>
       </c>
       <c r="G365">
-        <v>0.3333333333333333</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -20059,7 +20024,7 @@
         <v>3</v>
       </c>
       <c r="G366">
-        <v>0.3333333333333333</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -20121,7 +20086,7 @@
         <v>3</v>
       </c>
       <c r="G367">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -20517,7 +20482,7 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
@@ -20574,7 +20539,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="I375" t="inlineStr">
         <is>
@@ -20631,7 +20596,7 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
@@ -20745,7 +20710,7 @@
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
@@ -20802,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="G379">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
@@ -21538,7 +21503,7 @@
         <v>1</v>
       </c>
       <c r="G392">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I392" t="inlineStr">
         <is>
@@ -21709,7 +21674,7 @@
         <v>1</v>
       </c>
       <c r="G395">
-        <v>0.8444444444444444</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="I395" t="inlineStr">
         <is>
@@ -22051,7 +22016,7 @@
         <v>1</v>
       </c>
       <c r="G401">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
@@ -22113,7 +22078,7 @@
         <v>1</v>
       </c>
       <c r="G402">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
@@ -22175,7 +22140,7 @@
         <v>1</v>
       </c>
       <c r="G403">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
@@ -22237,7 +22202,7 @@
         <v>1</v>
       </c>
       <c r="G404">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
@@ -22299,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="G405">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
@@ -22361,7 +22326,7 @@
         <v>1</v>
       </c>
       <c r="G406">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
@@ -22423,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="G407">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
@@ -22485,7 +22450,7 @@
         <v>1</v>
       </c>
       <c r="G408">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
@@ -22547,7 +22512,7 @@
         <v>1</v>
       </c>
       <c r="G409">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H409" t="inlineStr">
         <is>
@@ -22566,7 +22531,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L409">
@@ -23944,7 +23909,7 @@
         <v>1</v>
       </c>
       <c r="G435">
-        <v>0.8444444444444444</v>
+        <v>0.8</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
@@ -24013,9 +23978,14 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -24063,11 +24033,16 @@
         <v>1</v>
       </c>
       <c r="G437">
-        <v>0.8</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H437" t="inlineStr">
         <is>
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -24127,11 +24102,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I438" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J438" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24139,7 +24109,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L438">
@@ -24182,7 +24152,7 @@
         <v>1</v>
       </c>
       <c r="G439">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
@@ -24246,11 +24216,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I440" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J440" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24258,7 +24223,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L440">
@@ -24308,11 +24273,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I441" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J441" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24320,7 +24280,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L441">
@@ -24370,11 +24330,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I442" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J442" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24382,7 +24337,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L442">
@@ -24482,18 +24437,13 @@
         <v>1</v>
       </c>
       <c r="G444">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J444" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24501,7 +24451,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L444">
@@ -24551,11 +24501,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I445" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J445" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24563,7 +24508,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L445">
@@ -28067,7 +28012,7 @@
         <v>2</v>
       </c>
       <c r="G535">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I535" t="inlineStr">
         <is>
@@ -28124,7 +28069,7 @@
         <v>2</v>
       </c>
       <c r="G536">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I536" t="inlineStr">
         <is>
@@ -32211,19 +32156,14 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I618" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L618">
@@ -33647,11 +33587,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I646" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J646" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33659,7 +33594,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L646">
@@ -33709,11 +33644,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I647" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J647" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33721,7 +33651,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L647">
@@ -33771,11 +33701,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I648" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J648" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33783,7 +33708,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L648">
@@ -33833,11 +33758,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I649" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33845,7 +33765,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L649">
@@ -33895,11 +33815,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I650" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J650" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33907,7 +33822,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L650">
@@ -33957,11 +33872,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I651" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J651" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33969,7 +33879,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L651">
@@ -34019,11 +33929,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I652" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J652" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34031,7 +33936,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L652">
@@ -34081,11 +33986,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I653" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J653" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34093,7 +33993,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L653">
@@ -34143,11 +34043,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I654" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J654" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34155,7 +34050,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L654">
@@ -34205,11 +34100,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I655" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J655" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34217,7 +34107,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L655">
@@ -34267,11 +34157,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I656" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J656" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34279,7 +34164,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L656">
@@ -34666,6 +34551,11 @@
       <c r="G663">
         <v>0.6666666666666666</v>
       </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J663" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34673,7 +34563,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L663">
@@ -35345,11 +35235,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I676" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J676" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35407,11 +35292,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I677" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35419,7 +35299,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L677">
@@ -35469,11 +35349,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I678" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J678" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35481,7 +35356,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L678">
@@ -35524,18 +35399,13 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>0.3777777777777778</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H679" t="inlineStr">
         <is>
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I679" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J679" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35543,7 +35413,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L679">
@@ -35593,11 +35463,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I680" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J680" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35605,7 +35470,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L680">
@@ -35655,11 +35520,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I681" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J681" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35667,7 +35527,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L681">
@@ -35717,11 +35577,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I682" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J682" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35729,7 +35584,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L682">
@@ -35779,11 +35634,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I683" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J683" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35791,7 +35641,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L683">
@@ -35841,11 +35691,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I684" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J684" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35853,7 +35698,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L684">
@@ -35896,18 +35741,13 @@
         <v>2</v>
       </c>
       <c r="G685">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H685" t="inlineStr">
         <is>
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I685" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J685" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35915,7 +35755,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L685">
@@ -35965,11 +35805,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I686" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J686" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35977,7 +35812,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L686">
@@ -36027,11 +35862,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I687" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J687" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36039,7 +35869,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L687">
@@ -36082,18 +35912,13 @@
         <v>3</v>
       </c>
       <c r="G688">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H688" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I688" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J688" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36101,7 +35926,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L688">
@@ -36144,18 +35969,13 @@
         <v>3</v>
       </c>
       <c r="G689">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H689" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I689" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J689" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36163,7 +35983,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L689">
@@ -36206,18 +36026,13 @@
         <v>3</v>
       </c>
       <c r="G690">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H690" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I690" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J690" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36225,7 +36040,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L690">
@@ -36268,7 +36083,7 @@
         <v>3</v>
       </c>
       <c r="G691">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H691" t="inlineStr">
         <is>
@@ -36325,18 +36140,13 @@
         <v>3</v>
       </c>
       <c r="G692">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I692" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J692" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36344,7 +36154,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L692">
@@ -36394,11 +36204,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I693" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J693" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36406,7 +36211,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L693">
@@ -36449,7 +36254,7 @@
         <v>3</v>
       </c>
       <c r="G694">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H694" t="inlineStr">
         <is>
@@ -36511,7 +36316,7 @@
         <v>3</v>
       </c>
       <c r="G695">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H695" t="inlineStr">
         <is>
@@ -36573,7 +36378,7 @@
         <v>3</v>
       </c>
       <c r="G696">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H696" t="inlineStr">
         <is>
@@ -36635,7 +36440,7 @@
         <v>3</v>
       </c>
       <c r="G697">
-        <v>0.5333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H697" t="inlineStr">
         <is>
@@ -36828,11 +36633,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J700" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36840,7 +36640,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L700">
@@ -36890,11 +36690,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I701" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J701" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36902,7 +36697,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L701">
@@ -36952,11 +36747,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I702" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J702" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36964,7 +36754,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L702">
@@ -37014,11 +36804,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I703" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J703" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37026,7 +36811,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L703">
@@ -37069,7 +36854,12 @@
         <v>2</v>
       </c>
       <c r="G704">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
@@ -37078,7 +36868,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L704">
@@ -37121,7 +36911,12 @@
         <v>2</v>
       </c>
       <c r="G705">
-        <v>0.5333333333333333</v>
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
@@ -37130,7 +36925,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L705">
@@ -37172,14 +36967,19 @@
       <c r="F706">
         <v>2</v>
       </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L706">
@@ -37221,14 +37021,19 @@
       <c r="F707">
         <v>2</v>
       </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L707">
@@ -37270,14 +37075,19 @@
       <c r="F708">
         <v>2</v>
       </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L708">
@@ -37319,14 +37129,19 @@
       <c r="F709">
         <v>2</v>
       </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L709">
@@ -37368,14 +37183,19 @@
       <c r="F710">
         <v>2</v>
       </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L710">
@@ -38501,7 +38321,7 @@
         <v>2</v>
       </c>
       <c r="G732">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="I732" t="inlineStr">
         <is>

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4530,6 +4530,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4537,7 +4542,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L80">
@@ -4587,6 +4592,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4594,7 +4604,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L81">
@@ -4644,6 +4654,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4651,7 +4666,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L82">
@@ -5075,7 +5090,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5085,7 +5100,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L89">
@@ -10026,6 +10041,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10033,7 +10053,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L177">
@@ -10145,6 +10165,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10152,7 +10177,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L179">
@@ -10202,6 +10227,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10209,7 +10239,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L180">
@@ -10318,14 +10348,19 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L182">
@@ -10372,14 +10407,19 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L183">
@@ -10426,14 +10466,19 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L184">
@@ -10480,14 +10525,19 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L185">
@@ -10650,9 +10700,14 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -10707,9 +10762,14 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -10764,6 +10824,11 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J190" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10771,7 +10836,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L190">
@@ -10883,6 +10948,11 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J192" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10890,7 +10960,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L192">
@@ -11002,6 +11072,11 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11009,7 +11084,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L194">
@@ -11059,6 +11134,11 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J195" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11066,7 +11146,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L195">
@@ -13895,19 +13975,14 @@
       <c r="F248">
         <v>3</v>
       </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L248">
@@ -13949,19 +14024,14 @@
       <c r="F249">
         <v>3</v>
       </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L249">
@@ -14003,19 +14073,14 @@
       <c r="F250">
         <v>3</v>
       </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L250">
@@ -14057,19 +14122,14 @@
       <c r="F251">
         <v>3</v>
       </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L251">
@@ -14111,19 +14171,14 @@
       <c r="F252">
         <v>3</v>
       </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L252">
@@ -14273,19 +14328,14 @@
       <c r="F255">
         <v>3</v>
       </c>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L255">
@@ -18778,11 +18828,6 @@
       <c r="G344">
         <v>0.3777777777777778</v>
       </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J344" t="inlineStr">
         <is>
           <t>yes</t>
@@ -18790,7 +18835,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L344">
@@ -18835,11 +18880,6 @@
       <c r="G345">
         <v>0.5555555555555556</v>
       </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J345" t="inlineStr">
         <is>
           <t>yes</t>
@@ -18847,7 +18887,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L345">
@@ -18892,11 +18932,6 @@
       <c r="G346">
         <v>0.6444444444444445</v>
       </c>
-      <c r="I346" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J346" t="inlineStr">
         <is>
           <t>yes</t>
@@ -18904,7 +18939,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L346">
@@ -18949,14 +18984,9 @@
       <c r="G347">
         <v>0.8222222222222222</v>
       </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -20204,6 +20234,11 @@
       <c r="G369">
         <v>0.4222222222222222</v>
       </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20211,7 +20246,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L369">
@@ -20427,11 +20462,6 @@
       <c r="G373">
         <v>0.4666666666666667</v>
       </c>
-      <c r="I373" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J373" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20439,7 +20469,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L373">
@@ -20997,6 +21027,11 @@
       <c r="G383">
         <v>0.4444444444444444</v>
       </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J383" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21004,7 +21039,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L383">
@@ -21220,11 +21255,6 @@
       <c r="G387">
         <v>0.4222222222222222</v>
       </c>
-      <c r="I387" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21232,7 +21262,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L387">
@@ -23980,12 +24010,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Undercut Banks,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -24042,7 +24072,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -24102,6 +24132,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J438" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24159,6 +24194,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+        </is>
+      </c>
       <c r="J439" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24216,6 +24256,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J440" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24273,6 +24318,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J441" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24330,6 +24380,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J442" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24337,7 +24392,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L442">
@@ -24387,6 +24442,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J443" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24444,6 +24504,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J444" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24501,6 +24566,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J445" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24508,7 +24578,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L445">
@@ -24558,6 +24628,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J446" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24615,6 +24690,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J447" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24672,6 +24752,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J448" t="inlineStr">
         <is>
           <t>yes</t>
@@ -24729,6 +24814,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning</t>
+        </is>
+      </c>
       <c r="J449" t="inlineStr">
         <is>
           <t>yes</t>
@@ -32156,14 +32246,19 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L618">
@@ -33587,6 +33682,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J646" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33594,7 +33694,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L646">
@@ -33644,6 +33744,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J647" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33651,7 +33756,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L647">
@@ -33701,6 +33806,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J648" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33708,7 +33818,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L648">
@@ -33758,6 +33868,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33765,7 +33880,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L649">
@@ -33815,6 +33930,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J650" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33822,7 +33942,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L650">
@@ -33872,6 +33992,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J651" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33879,7 +34004,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L651">
@@ -33929,6 +34054,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J652" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33936,7 +34066,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L652">
@@ -34043,6 +34173,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J654" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34050,7 +34185,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L654">
@@ -34100,6 +34235,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J655" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34107,7 +34247,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L655">
@@ -34157,6 +34297,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J656" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34164,7 +34309,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L656">
@@ -34553,7 +34698,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -34563,7 +34708,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L663">
@@ -34719,6 +34864,9 @@
       <c r="F666">
         <v>2</v>
       </c>
+      <c r="G666">
+        <v>0.8222222222222222</v>
+      </c>
       <c r="I666" t="inlineStr">
         <is>
           <t>No Priority Life Stages with Limiting Factors</t>
@@ -34731,7 +34879,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L666">
@@ -34773,6 +34921,9 @@
       <c r="F667">
         <v>2</v>
       </c>
+      <c r="G667">
+        <v>0.8222222222222222</v>
+      </c>
       <c r="I667" t="inlineStr">
         <is>
           <t>No Priority Life Stages with Limiting Factors</t>
@@ -34785,7 +34936,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L667">
@@ -35235,6 +35386,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J676" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35292,6 +35448,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35299,7 +35460,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L677">
@@ -35349,6 +35510,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J678" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35356,7 +35522,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L678">
@@ -35406,6 +35572,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J679" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35413,7 +35584,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L679">
@@ -35463,6 +35634,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J680" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35470,7 +35646,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L680">
@@ -35577,6 +35753,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J682" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35584,7 +35765,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L682">
@@ -35634,6 +35815,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J683" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35641,7 +35827,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L683">
@@ -35691,6 +35877,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J684" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35698,7 +35889,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L684">
@@ -35748,6 +35939,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J685" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35755,7 +35951,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L685">
@@ -35805,6 +36001,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J686" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35812,7 +36013,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L686">
@@ -35862,6 +36063,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J687" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35869,7 +36075,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L687">
@@ -35919,6 +36125,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J688" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35926,7 +36137,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L688">
@@ -35976,6 +36187,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J689" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35983,7 +36199,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L689">
@@ -36033,6 +36249,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J690" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36040,7 +36261,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L690">
@@ -36147,6 +36368,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J692" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36154,7 +36380,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L692">
@@ -36204,6 +36430,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J693" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36211,7 +36442,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L693">
@@ -36633,6 +36864,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J700" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36640,7 +36876,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L700">
@@ -36690,6 +36926,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J701" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36697,7 +36938,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L701">
@@ -36747,6 +36988,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J702" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36754,7 +37000,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L702">
@@ -36804,6 +37050,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J703" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36811,7 +37062,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L703">
@@ -36856,11 +37107,6 @@
       <c r="G704">
         <v>0.4888888888888889</v>
       </c>
-      <c r="I704" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J704" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36868,7 +37114,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L704">
@@ -36913,11 +37159,6 @@
       <c r="G705">
         <v>0.5111111111111111</v>
       </c>
-      <c r="I705" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J705" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36925,7 +37166,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L705">
@@ -36967,19 +37208,14 @@
       <c r="F706">
         <v>2</v>
       </c>
-      <c r="I706" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L706">
@@ -37021,19 +37257,14 @@
       <c r="F707">
         <v>2</v>
       </c>
-      <c r="I707" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L707">
@@ -37075,19 +37306,14 @@
       <c r="F708">
         <v>2</v>
       </c>
-      <c r="I708" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L708">
@@ -37129,19 +37355,14 @@
       <c r="F709">
         <v>2</v>
       </c>
-      <c r="I709" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L709">
@@ -37183,19 +37404,14 @@
       <c r="F710">
         <v>2</v>
       </c>
-      <c r="I710" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L710">

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L75">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L89">
@@ -20462,6 +20462,11 @@
       <c r="G373">
         <v>0.4666666666666667</v>
       </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J373" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20469,7 +20474,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L373">
@@ -21255,6 +21260,11 @@
       <c r="G387">
         <v>0.4222222222222222</v>
       </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21262,7 +21272,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L387">
@@ -24196,7 +24206,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -33870,7 +33880,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -33880,7 +33890,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L649">
@@ -34116,6 +34126,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J653" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34123,7 +34138,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L653">
@@ -34698,7 +34713,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -35448,11 +35463,6 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I677" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35460,7 +35470,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L677">
@@ -35696,6 +35706,11 @@
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J681" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35703,7 +35718,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L681">

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L75">
@@ -10041,11 +10041,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10053,7 +10048,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L177">
@@ -20462,11 +20457,6 @@
       <c r="G373">
         <v>0.4666666666666667</v>
       </c>
-      <c r="I373" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J373" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20474,7 +20464,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L373">
@@ -21260,11 +21250,6 @@
       <c r="G387">
         <v>0.4222222222222222</v>
       </c>
-      <c r="I387" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21272,7 +21257,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L387">
@@ -33880,7 +33865,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -33890,7 +33875,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L649">
@@ -34713,7 +34698,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -34723,7 +34708,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L663">

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4249,11 +4249,6 @@
       <c r="G75">
         <v>0.6222222222222222</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4261,7 +4256,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L75">
@@ -10041,6 +10036,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L177">
@@ -10638,14 +10638,19 @@
           <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L187">
@@ -20457,6 +20462,11 @@
       <c r="G373">
         <v>0.4666666666666667</v>
       </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J373" t="inlineStr">
         <is>
           <t>yes</t>
@@ -20464,7 +20474,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L373">
@@ -21024,7 +21034,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -21034,7 +21044,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L383">
@@ -21250,6 +21260,11 @@
       <c r="G387">
         <v>0.4222222222222222</v>
       </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J387" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21257,7 +21272,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L387">
@@ -33863,11 +33878,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I649" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33875,7 +33885,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L649">
@@ -36311,6 +36321,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J691" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36318,7 +36333,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L691">

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1925,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Undercut Banks,Cover- Wood,% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8238,11 +8238,11 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8317,11 +8317,11 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8396,11 +8396,11 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8475,11 +8475,11 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8554,11 +8554,11 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8633,11 +8633,11 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10315,7 +10315,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="G149">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>3</v>
       </c>
       <c r="G177">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>3</v>
       </c>
       <c r="G178">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>3</v>
       </c>
       <c r="G179">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>3</v>
       </c>
       <c r="G180">
-        <v>0.7111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>3</v>
       </c>
       <c r="G181">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -14099,12 +14099,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Undercut Banks,Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14175,12 +14175,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -14251,12 +14251,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Undercut Banks,Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14327,12 +14327,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Coarse Substrate,Cover- Wood,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14406,12 +14406,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14485,12 +14485,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>,Cover- Boulders,Flow- Summer Base Flow,Temperature- Rearing,Cover- Boulders</t>
+          <t>Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -14643,12 +14643,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>,Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,</t>
+          <t>Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -14722,12 +14722,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -14801,12 +14801,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>,Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,</t>
+          <t>Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14880,12 +14880,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14959,12 +14959,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15704,7 +15704,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -22154,7 +22154,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Smolt Outmigration,Winter Rearing</t>
+          <t>Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -24349,7 +24349,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -24428,7 +24428,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -24507,7 +24507,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -24872,7 +24872,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Holding and Maturation</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -25772,7 +25772,7 @@
         <v>3</v>
       </c>
       <c r="G344">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>3</v>
       </c>
       <c r="G360">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>3</v>
       </c>
       <c r="G365">
-        <v>0.4</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>3</v>
       </c>
       <c r="G366">
-        <v>0.4</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>3</v>
       </c>
       <c r="G367">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>3</v>
       </c>
       <c r="G369">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>3</v>
       </c>
       <c r="G370">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>3</v>
       </c>
       <c r="G371">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>3</v>
       </c>
       <c r="G372">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>3</v>
       </c>
       <c r="G373">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
@@ -28132,7 +28132,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L375">
@@ -28922,7 +28922,7 @@
         <v>3</v>
       </c>
       <c r="G385">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>3</v>
       </c>
       <c r="G386">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>3</v>
       </c>
       <c r="G387">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>3</v>
       </c>
       <c r="G388">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>3</v>
       </c>
       <c r="G389">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>1</v>
       </c>
       <c r="G396">
-        <v>1</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>3</v>
       </c>
       <c r="G397">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>3</v>
       </c>
       <c r="G398">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>3</v>
       </c>
       <c r="G399">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>3</v>
       </c>
       <c r="G400">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -30269,7 +30269,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -30348,7 +30348,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -30427,7 +30427,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -30585,7 +30585,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -30664,7 +30664,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -30743,7 +30743,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -30822,7 +30822,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -32751,12 +32751,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature- Rearing,</t>
+          <t>Temperature- Adult Spawning,Floodplain Connectivity,Floodplain Connectivity,Temperature- Rearing,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -32830,12 +32830,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Temperature- Adult Holding,% Fines/Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature- Rearing,% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Temperature- Adult Spawning,% Fines/Embeddedness,Floodplain Connectivity,Floodplain Connectivity,Temperature- Rearing,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -32909,12 +32909,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Adult Holding,% Fines/Embeddedness,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Temperature- Adult Spawning,% Fines/Embeddedness,Floodplain Connectivity,Floodplain Connectivity,Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -32988,12 +32988,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -33067,12 +33067,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -33146,12 +33146,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Temperature- Adult Spawning,% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -33225,12 +33225,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -33299,14 +33299,17 @@
       <c r="F442">
         <v>1</v>
       </c>
+      <c r="G442">
+        <v>0.4888888888888889</v>
+      </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -33380,12 +33383,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Temperature- Adult Spawning,% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -33459,12 +33462,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Temperature- Adult Spawning,% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -33538,12 +33541,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Temperature- Adult Spawning,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -33617,12 +33620,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Temperature- Adult Spawning,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -33696,12 +33699,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Temperature- Adult Spawning,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -33772,12 +33775,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Coarse Substrate,Cover- Boulders,Cover- Wood,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Temperature- Rearing,Cover- Wood,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -33851,12 +33854,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -38278,7 +38281,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38432,7 +38435,7 @@
         <v>2</v>
       </c>
       <c r="G532">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H532" t="inlineStr">
         <is>
@@ -38511,7 +38514,7 @@
         <v>2</v>
       </c>
       <c r="G533">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H533" t="inlineStr">
         <is>
@@ -38590,7 +38593,7 @@
         <v>2</v>
       </c>
       <c r="G534">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
@@ -38669,7 +38672,7 @@
         <v>2</v>
       </c>
       <c r="G535">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
@@ -38748,7 +38751,7 @@
         <v>2</v>
       </c>
       <c r="G536">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H536" t="inlineStr">
         <is>
@@ -38827,7 +38830,7 @@
         <v>2</v>
       </c>
       <c r="G537">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H537" t="inlineStr">
         <is>
@@ -39974,7 +39977,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
@@ -40045,7 +40048,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
@@ -40116,7 +40119,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40192,7 +40195,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40268,7 +40271,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40344,7 +40347,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -40420,7 +40423,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -40863,7 +40866,7 @@
         <v>2</v>
       </c>
       <c r="G564">
-        <v>0.7777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H564" t="inlineStr">
         <is>
@@ -40882,7 +40885,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L564">
@@ -41399,7 +41402,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
@@ -41470,7 +41473,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
@@ -41541,7 +41544,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -44426,12 +44429,12 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity &amp; Quality,% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
@@ -44502,7 +44505,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44578,7 +44581,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -46350,7 +46353,7 @@
         <v>3</v>
       </c>
       <c r="G645">
-        <v>0.8888888888888888</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="H645" t="inlineStr">
         <is>
@@ -46433,12 +46436,12 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
@@ -46512,12 +46515,12 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
@@ -46591,12 +46594,12 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
@@ -46670,12 +46673,12 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -46749,12 +46752,12 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
@@ -46828,12 +46831,12 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
@@ -46907,12 +46910,12 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
@@ -46986,12 +46989,12 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -47061,16 +47064,16 @@
         <v>2</v>
       </c>
       <c r="G654">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
@@ -47140,16 +47143,16 @@
         <v>2</v>
       </c>
       <c r="G655">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
@@ -47223,12 +47226,12 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
@@ -48207,7 +48210,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
@@ -48515,7 +48518,7 @@
         <v>3</v>
       </c>
       <c r="G674">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H674" t="inlineStr">
         <is>
@@ -48529,7 +48532,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -48594,16 +48597,16 @@
         <v>2</v>
       </c>
       <c r="G675">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Boulders,Temperature- Rearing,Cover- Boulders</t>
+          <t>Temperature- Adult Spawning,,Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
@@ -48673,16 +48676,16 @@
         <v>2</v>
       </c>
       <c r="G676">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
@@ -48752,16 +48755,16 @@
         <v>2</v>
       </c>
       <c r="G677">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -48831,16 +48834,16 @@
         <v>2</v>
       </c>
       <c r="G678">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
@@ -48910,16 +48913,16 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
@@ -48989,16 +48992,16 @@
         <v>2</v>
       </c>
       <c r="G680">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
@@ -49068,16 +49071,16 @@
         <v>2</v>
       </c>
       <c r="G681">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
@@ -49147,16 +49150,16 @@
         <v>2</v>
       </c>
       <c r="G682">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
@@ -49226,16 +49229,16 @@
         <v>2</v>
       </c>
       <c r="G683">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
@@ -49305,16 +49308,16 @@
         <v>2</v>
       </c>
       <c r="G684">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
@@ -49384,16 +49387,16 @@
         <v>2</v>
       </c>
       <c r="G685">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
@@ -49463,16 +49466,16 @@
         <v>2</v>
       </c>
       <c r="G686">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
@@ -49542,16 +49545,16 @@
         <v>2</v>
       </c>
       <c r="G687">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Adult Holding,Temperature- Adult Spawning,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Temperature- Adult Spawning,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
@@ -49695,7 +49698,7 @@
         <v>3</v>
       </c>
       <c r="G689">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H689" t="inlineStr">
         <is>
@@ -49917,7 +49920,7 @@
         <v>3</v>
       </c>
       <c r="G692">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
@@ -49991,7 +49994,7 @@
         <v>2</v>
       </c>
       <c r="G693">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H693" t="inlineStr">
         <is>
@@ -50065,7 +50068,7 @@
         <v>3</v>
       </c>
       <c r="G694">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H694" t="inlineStr">
         <is>
@@ -50144,7 +50147,7 @@
         <v>3</v>
       </c>
       <c r="G695">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H695" t="inlineStr">
         <is>
@@ -50223,7 +50226,7 @@
         <v>3</v>
       </c>
       <c r="G696">
-        <v>0.5333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H696" t="inlineStr">
         <is>
@@ -50302,7 +50305,7 @@
         <v>3</v>
       </c>
       <c r="G697">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H697" t="inlineStr">
         <is>
@@ -50539,7 +50542,7 @@
         <v>3</v>
       </c>
       <c r="G700">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H700" t="inlineStr">
         <is>
@@ -50613,7 +50616,7 @@
         <v>3</v>
       </c>
       <c r="G701">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H701" t="inlineStr">
         <is>
@@ -50687,7 +50690,7 @@
         <v>3</v>
       </c>
       <c r="G702">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H702" t="inlineStr">
         <is>
@@ -50761,7 +50764,7 @@
         <v>3</v>
       </c>
       <c r="G703">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H703" t="inlineStr">
         <is>
@@ -50835,7 +50838,7 @@
         <v>2</v>
       </c>
       <c r="G704">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H704" t="inlineStr">
         <is>
@@ -50914,7 +50917,7 @@
         <v>2</v>
       </c>
       <c r="G705">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H705" t="inlineStr">
         <is>

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="933">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Entiat</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Cover- Wood,Cover- Wood,Cover- Wood</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Brevicomis Creek</t>
@@ -548,28 +548,25 @@
     <t xml:space="preserve">Chiwawa River Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chiwawa River Lower 04</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 06</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Pool Quantity &amp; Quality</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Lower 07</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Cover- Wood,Floodplain Connectivity,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Chiwawa River Middle 01</t>
@@ -845,13 +842,13 @@
     <t xml:space="preserve">Entiat River-Potato Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
+    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 02</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Pool Quantity &amp; Quality</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 03</t>
@@ -860,9 +857,6 @@
     <t xml:space="preserve">Entiat River Potato 04</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -884,9 +878,6 @@
     <t xml:space="preserve">Entiat River Preston 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Preston 02</t>
   </si>
   <si>
@@ -2387,7 +2378,7 @@
     <t xml:space="preserve">Stormy Creek 01</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Floodplain Connectivity,Floodplain Connectivity,Floodplain Connectivity,Flow- Summer Base Flow,Pool Quantity &amp; Quality</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Stormy Creek 02</t>
@@ -8591,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H107" t="s">
         <v>27</v>
@@ -8644,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.511111111111111</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -8697,13 +8688,13 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.666666666666667</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H109" t="s">
         <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
@@ -8732,7 +8723,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -8750,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.555555555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
@@ -8785,7 +8776,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -8803,13 +8794,13 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.511111111111111</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
       </c>
       <c r="I111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J111" t="s">
         <v>21</v>
@@ -8838,7 +8829,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
         <v>25</v>
@@ -8856,13 +8847,13 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.666666666666667</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H112" t="s">
         <v>27</v>
       </c>
       <c r="I112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -8891,7 +8882,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
         <v>25</v>
@@ -8909,13 +8900,13 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.688888888888889</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H113" t="s">
         <v>27</v>
       </c>
       <c r="I113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J113" t="s">
         <v>21</v>
@@ -8944,10 +8935,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" t="s">
         <v>186</v>
-      </c>
-      <c r="B114" t="s">
-        <v>187</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
@@ -8962,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.644444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H114" t="s">
         <v>36</v>
@@ -8997,10 +8988,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
         <v>26</v>
@@ -9050,10 +9041,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
@@ -9103,10 +9094,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
@@ -9156,10 +9147,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" t="s">
         <v>191</v>
-      </c>
-      <c r="B118" t="s">
-        <v>192</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
@@ -9209,10 +9200,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C119" t="s">
         <v>26</v>
@@ -9262,10 +9253,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s">
         <v>26</v>
@@ -9315,10 +9306,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
@@ -9368,10 +9359,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
@@ -9421,10 +9412,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
@@ -9474,10 +9465,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>197</v>
+      </c>
+      <c r="B124" t="s">
         <v>198</v>
-      </c>
-      <c r="B124" t="s">
-        <v>199</v>
       </c>
       <c r="C124" t="s">
         <v>26</v>
@@ -9527,10 +9518,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
@@ -9580,10 +9571,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
@@ -9633,10 +9624,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
@@ -9686,10 +9677,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
@@ -9739,10 +9730,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -9792,10 +9783,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C130" t="s">
         <v>26</v>
@@ -9845,10 +9836,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
         <v>26</v>
@@ -9898,10 +9889,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132" t="s">
         <v>26</v>
@@ -9951,7 +9942,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
@@ -9968,9 +9959,7 @@
       <c r="F133" t="n">
         <v>1</v>
       </c>
-      <c r="G133" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G133"/>
       <c r="H133" t="s">
         <v>27</v>
       </c>
@@ -10004,7 +9993,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -10057,10 +10046,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" t="s">
         <v>210</v>
-      </c>
-      <c r="B135" t="s">
-        <v>211</v>
       </c>
       <c r="C135" t="s">
         <v>98</v>
@@ -10110,7 +10099,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B136" t="s">
         <v>107</v>
@@ -10163,10 +10152,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" t="s">
         <v>213</v>
-      </c>
-      <c r="B137" t="s">
-        <v>214</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -10216,10 +10205,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -10269,10 +10258,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C139" t="s">
         <v>35</v>
@@ -10322,10 +10311,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" t="s">
         <v>217</v>
-      </c>
-      <c r="B140" t="s">
-        <v>218</v>
       </c>
       <c r="C140" t="s">
         <v>35</v>
@@ -10375,7 +10364,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B141" t="s">
         <v>52</v>
@@ -10428,10 +10417,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" t="s">
         <v>220</v>
-      </c>
-      <c r="B142" t="s">
-        <v>221</v>
       </c>
       <c r="C142" t="s">
         <v>26</v>
@@ -10449,7 +10438,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H142" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I142" t="s">
         <v>31</v>
@@ -10481,10 +10470,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C143" t="s">
         <v>26</v>
@@ -10502,7 +10491,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I143" t="s">
         <v>31</v>
@@ -10534,10 +10523,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
         <v>26</v>
@@ -10555,7 +10544,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H144" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I144" t="s">
         <v>31</v>
@@ -10587,10 +10576,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>224</v>
+      </c>
+      <c r="B145" t="s">
         <v>225</v>
-      </c>
-      <c r="B145" t="s">
-        <v>226</v>
       </c>
       <c r="C145" t="s">
         <v>35</v>
@@ -10636,7 +10625,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B146" t="s">
         <v>101</v>
@@ -10689,10 +10678,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>227</v>
+      </c>
+      <c r="B147" t="s">
         <v>228</v>
-      </c>
-      <c r="B147" t="s">
-        <v>229</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -10738,10 +10727,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" t="s">
         <v>230</v>
-      </c>
-      <c r="B148" t="s">
-        <v>231</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -10787,10 +10776,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -10836,10 +10825,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>232</v>
+      </c>
+      <c r="B150" t="s">
         <v>233</v>
-      </c>
-      <c r="B150" t="s">
-        <v>234</v>
       </c>
       <c r="C150" t="s">
         <v>26</v>
@@ -10889,10 +10878,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" t="s">
         <v>235</v>
-      </c>
-      <c r="B151" t="s">
-        <v>236</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -10942,10 +10931,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -10995,10 +10984,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -11048,10 +11037,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -11101,10 +11090,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C155" t="s">
         <v>35</v>
@@ -11154,10 +11143,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" t="s">
         <v>241</v>
-      </c>
-      <c r="B156" t="s">
-        <v>242</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -11207,10 +11196,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C157" t="s">
         <v>35</v>
@@ -11260,10 +11249,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C158" t="s">
         <v>35</v>
@@ -11313,10 +11302,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C159" t="s">
         <v>35</v>
@@ -11364,10 +11353,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B160" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C160" t="s">
         <v>35</v>
@@ -11417,10 +11406,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" t="s">
         <v>35</v>
@@ -11470,10 +11459,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B162" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" t="s">
         <v>35</v>
@@ -11523,10 +11512,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C163" t="s">
         <v>35</v>
@@ -11576,10 +11565,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B164" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" t="s">
         <v>35</v>
@@ -11629,10 +11618,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" t="s">
         <v>251</v>
-      </c>
-      <c r="B165" t="s">
-        <v>252</v>
       </c>
       <c r="C165" t="s">
         <v>98</v>
@@ -11650,7 +11639,7 @@
         <v>0.8</v>
       </c>
       <c r="H165" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I165" t="s">
         <v>31</v>
@@ -11682,10 +11671,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C166" t="s">
         <v>98</v>
@@ -11703,7 +11692,7 @@
         <v>0.6</v>
       </c>
       <c r="H166" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I166" t="s">
         <v>31</v>
@@ -11735,10 +11724,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C167" t="s">
         <v>98</v>
@@ -11756,7 +11745,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="H167" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I167" t="s">
         <v>31</v>
@@ -11788,10 +11777,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C168" t="s">
         <v>98</v>
@@ -11809,7 +11798,7 @@
         <v>0.711111111111111</v>
       </c>
       <c r="H168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I168" t="s">
         <v>31</v>
@@ -11841,10 +11830,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B169" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" t="s">
         <v>98</v>
@@ -11862,7 +11851,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="H169" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I169" t="s">
         <v>31</v>
@@ -11894,10 +11883,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
         <v>98</v>
@@ -11915,7 +11904,7 @@
         <v>0.822222222222222</v>
       </c>
       <c r="H170" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I170" t="s">
         <v>31</v>
@@ -11947,10 +11936,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
         <v>98</v>
@@ -11968,7 +11957,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="H171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I171" t="s">
         <v>31</v>
@@ -12000,10 +11989,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C172" t="s">
         <v>98</v>
@@ -12021,7 +12010,7 @@
         <v>0.822222222222222</v>
       </c>
       <c r="H172" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I172" t="s">
         <v>31</v>
@@ -12053,10 +12042,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C173" t="s">
         <v>98</v>
@@ -12074,7 +12063,7 @@
         <v>0.822222222222222</v>
       </c>
       <c r="H173" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I173" t="s">
         <v>31</v>
@@ -12106,10 +12095,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
         <v>98</v>
@@ -12127,7 +12116,7 @@
         <v>0.822222222222222</v>
       </c>
       <c r="H174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I174" t="s">
         <v>31</v>
@@ -12159,10 +12148,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C175" t="s">
         <v>98</v>
@@ -12180,7 +12169,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H175" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I175" t="s">
         <v>31</v>
@@ -12212,10 +12201,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>263</v>
+      </c>
+      <c r="B176" t="s">
         <v>264</v>
-      </c>
-      <c r="B176" t="s">
-        <v>265</v>
       </c>
       <c r="C176" t="s">
         <v>98</v>
@@ -12231,7 +12220,7 @@
       </c>
       <c r="G176"/>
       <c r="H176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I176" t="s">
         <v>28</v>
@@ -12263,10 +12252,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C177" t="s">
         <v>98</v>
@@ -12284,10 +12273,10 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J177" t="s">
         <v>21</v>
@@ -12316,10 +12305,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" t="s">
         <v>98</v>
@@ -12337,10 +12326,10 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H178" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I178" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J178" t="s">
         <v>21</v>
@@ -12369,10 +12358,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B179" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C179" t="s">
         <v>98</v>
@@ -12390,10 +12379,10 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I179" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J179" t="s">
         <v>21</v>
@@ -12422,10 +12411,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" t="s">
         <v>98</v>
@@ -12443,10 +12432,10 @@
         <v>0.622222222222222</v>
       </c>
       <c r="H180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I180" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J180" t="s">
         <v>21</v>
@@ -12475,10 +12464,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C181" t="s">
         <v>98</v>
@@ -12496,10 +12485,10 @@
         <v>0.622222222222222</v>
       </c>
       <c r="H181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I181" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J181" t="s">
         <v>21</v>
@@ -12528,10 +12517,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C182" t="s">
         <v>98</v>
@@ -12545,14 +12534,12 @@
       <c r="F182" t="n">
         <v>3</v>
       </c>
-      <c r="G182" t="n">
-        <v>0.644444444444444</v>
-      </c>
+      <c r="G182"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I182" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J182" t="s">
         <v>21</v>
@@ -12581,10 +12568,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C183" t="s">
         <v>98</v>
@@ -12598,14 +12585,12 @@
       <c r="F183" t="n">
         <v>3</v>
       </c>
-      <c r="G183" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="G183"/>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J183" t="s">
         <v>21</v>
@@ -12634,10 +12619,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>274</v>
+      </c>
+      <c r="B184" t="s">
         <v>275</v>
-      </c>
-      <c r="B184" t="s">
-        <v>276</v>
       </c>
       <c r="C184" t="s">
         <v>98</v>
@@ -12651,14 +12636,12 @@
       <c r="F184" t="n">
         <v>1</v>
       </c>
-      <c r="G184" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="G184"/>
       <c r="H184" t="s">
         <v>27</v>
       </c>
       <c r="I184" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J184" t="s">
         <v>21</v>
@@ -12687,10 +12670,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C185" t="s">
         <v>98</v>
@@ -12704,14 +12687,12 @@
       <c r="F185" t="n">
         <v>1</v>
       </c>
-      <c r="G185" t="n">
-        <v>0.622222222222222</v>
-      </c>
+      <c r="G185"/>
       <c r="H185" t="s">
         <v>27</v>
       </c>
       <c r="I185" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J185" t="s">
         <v>21</v>
@@ -12740,10 +12721,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B186" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C186" t="s">
         <v>98</v>
@@ -12757,14 +12738,12 @@
       <c r="F186" t="n">
         <v>1</v>
       </c>
-      <c r="G186" t="n">
-        <v>0.711111111111111</v>
-      </c>
+      <c r="G186"/>
       <c r="H186" t="s">
         <v>27</v>
       </c>
       <c r="I186" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="J186" t="s">
         <v>21</v>
@@ -12793,10 +12772,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B187" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C187" t="s">
         <v>98</v>
@@ -12810,14 +12789,12 @@
       <c r="F187" t="n">
         <v>1</v>
       </c>
-      <c r="G187" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="G187"/>
       <c r="H187" t="s">
         <v>27</v>
       </c>
       <c r="I187" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J187" t="s">
         <v>21</v>
@@ -12846,10 +12823,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
         <v>98</v>
@@ -12870,7 +12847,7 @@
         <v>27</v>
       </c>
       <c r="I188" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J188" t="s">
         <v>21</v>
@@ -12899,10 +12876,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B189" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C189" t="s">
         <v>98</v>
@@ -12923,7 +12900,7 @@
         <v>27</v>
       </c>
       <c r="I189" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J189" t="s">
         <v>21</v>
@@ -12952,10 +12929,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
         <v>98</v>
@@ -13005,10 +12982,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C191" t="s">
         <v>98</v>
@@ -13029,7 +13006,7 @@
         <v>27</v>
       </c>
       <c r="I191" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J191" t="s">
         <v>21</v>
@@ -13058,7 +13035,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
         <v>97</v>
@@ -13082,7 +13059,7 @@
         <v>27</v>
       </c>
       <c r="I192" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="J192" t="s">
         <v>21</v>
@@ -13111,7 +13088,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
         <v>97</v>
@@ -13135,7 +13112,7 @@
         <v>27</v>
       </c>
       <c r="I193" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J193" t="s">
         <v>21</v>
@@ -13164,7 +13141,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B194" t="s">
         <v>97</v>
@@ -13188,7 +13165,7 @@
         <v>27</v>
       </c>
       <c r="I194" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J194" t="s">
         <v>21</v>
@@ -13217,7 +13194,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B195" t="s">
         <v>97</v>
@@ -13241,7 +13218,7 @@
         <v>27</v>
       </c>
       <c r="I195" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J195" t="s">
         <v>21</v>
@@ -13270,10 +13247,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
         <v>98</v>
@@ -13294,7 +13271,7 @@
         <v>27</v>
       </c>
       <c r="I196" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J196" t="s">
         <v>21</v>
@@ -13323,10 +13300,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C197" t="s">
         <v>26</v>
@@ -13376,10 +13353,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B198" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C198" t="s">
         <v>26</v>
@@ -13429,10 +13406,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C199" t="s">
         <v>35</v>
@@ -13478,10 +13455,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C200" t="s">
         <v>35</v>
@@ -13527,10 +13504,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B201" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
         <v>35</v>
@@ -13580,10 +13557,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C202" t="s">
         <v>35</v>
@@ -13633,10 +13610,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B203" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C203" t="s">
         <v>26</v>
@@ -13682,7 +13659,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B204" t="s">
         <v>52</v>
@@ -13735,7 +13712,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B205" t="s">
         <v>52</v>
@@ -13788,10 +13765,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206" t="s">
         <v>35</v>
@@ -13841,10 +13818,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s">
         <v>35</v>
@@ -13894,10 +13871,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
         <v>35</v>
@@ -13947,10 +13924,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
         <v>35</v>
@@ -14000,7 +13977,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B210" t="s">
         <v>57</v>
@@ -14053,7 +14030,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B211" t="s">
         <v>57</v>
@@ -14106,7 +14083,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>57</v>
@@ -14159,10 +14136,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C213" t="s">
         <v>26</v>
@@ -14208,10 +14185,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B214" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C214" t="s">
         <v>26</v>
@@ -14257,10 +14234,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B215" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C215" t="s">
         <v>26</v>
@@ -14306,10 +14283,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B216" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C216" t="s">
         <v>26</v>
@@ -14355,10 +14332,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B217" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C217" t="s">
         <v>26</v>
@@ -14404,10 +14381,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B218" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C218" t="s">
         <v>26</v>
@@ -14453,10 +14430,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B219" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C219" t="s">
         <v>26</v>
@@ -14506,7 +14483,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
@@ -14559,7 +14536,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B221" t="s">
         <v>107</v>
@@ -14612,10 +14589,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B222" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -14665,10 +14642,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B223" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C223" t="s">
         <v>35</v>
@@ -14718,10 +14695,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B224" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C224" t="s">
         <v>35</v>
@@ -14771,10 +14748,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C225" t="s">
         <v>35</v>
@@ -14824,10 +14801,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B226" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -14877,10 +14854,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B227" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -14930,10 +14907,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B228" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C228" t="s">
         <v>35</v>
@@ -14983,10 +14960,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B229" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C229" t="s">
         <v>35</v>
@@ -15036,10 +15013,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B230" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C230" t="s">
         <v>35</v>
@@ -15089,10 +15066,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B231" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C231" t="s">
         <v>35</v>
@@ -15142,10 +15119,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C232" t="s">
         <v>35</v>
@@ -15195,10 +15172,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C233" t="s">
         <v>35</v>
@@ -15248,10 +15225,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C234" t="s">
         <v>35</v>
@@ -15301,10 +15278,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C235" t="s">
         <v>35</v>
@@ -15354,10 +15331,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B236" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
@@ -15407,10 +15384,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B237" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -15460,10 +15437,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B238" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C238" t="s">
         <v>35</v>
@@ -15513,10 +15490,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B239" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
@@ -15566,10 +15543,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B240" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
@@ -15619,7 +15596,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B241" t="s">
         <v>25</v>
@@ -15672,10 +15649,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C242" t="s">
         <v>35</v>
@@ -15689,7 +15666,9 @@
       <c r="F242" t="n">
         <v>1</v>
       </c>
-      <c r="G242"/>
+      <c r="G242" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H242" t="s">
         <v>36</v>
       </c>
@@ -15700,7 +15679,7 @@
         <v>20</v>
       </c>
       <c r="K242" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L242" t="n">
         <v>100</v>
@@ -15723,7 +15702,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B243" t="s">
         <v>118</v>
@@ -15776,10 +15755,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B244" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C244" t="s">
         <v>26</v>
@@ -15829,10 +15808,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B245" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C245" t="s">
         <v>98</v>
@@ -15882,10 +15861,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B246" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C246" t="s">
         <v>98</v>
@@ -15935,7 +15914,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B247" t="s">
         <v>78</v>
@@ -15988,10 +15967,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B248" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -16039,10 +16018,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B249" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C249" t="s">
         <v>26</v>
@@ -16090,10 +16069,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B250" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C250" t="s">
         <v>26</v>
@@ -16141,10 +16120,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B251" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C251" t="s">
         <v>26</v>
@@ -16192,10 +16171,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B252" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C252" t="s">
         <v>26</v>
@@ -16243,10 +16222,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B253" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C253" t="s">
         <v>26</v>
@@ -16294,10 +16273,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B254" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C254" t="s">
         <v>26</v>
@@ -16345,10 +16324,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B255" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C255" t="s">
         <v>26</v>
@@ -16396,10 +16375,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B256" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C256" t="s">
         <v>26</v>
@@ -16445,10 +16424,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B257" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -16494,10 +16473,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B258" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -16543,10 +16522,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -16592,10 +16571,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B260" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -16641,10 +16620,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B261" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -16690,10 +16669,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B262" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -16739,10 +16718,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B263" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -16788,10 +16767,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B264" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -16837,10 +16816,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B265" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -16886,10 +16865,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B266" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -16935,10 +16914,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -16984,10 +16963,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B268" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -17033,10 +17012,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B269" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -17082,10 +17061,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B270" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -17131,10 +17110,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B271" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -17180,10 +17159,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B272" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C272" t="s">
         <v>98</v>
@@ -17233,10 +17212,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B273" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -17286,10 +17265,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B274" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -17339,10 +17318,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B275" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -17392,10 +17371,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B276" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -17441,10 +17420,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B277" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C277" t="s">
         <v>19</v>
@@ -17482,10 +17461,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B278" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C278" t="s">
         <v>19</v>
@@ -17523,10 +17502,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B279" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C279" t="s">
         <v>19</v>
@@ -17564,10 +17543,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B280" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C280" t="s">
         <v>19</v>
@@ -17605,10 +17584,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B281" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C281" t="s">
         <v>19</v>
@@ -17646,10 +17625,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B282" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C282" t="s">
         <v>19</v>
@@ -17687,10 +17666,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B283" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C283" t="s">
         <v>19</v>
@@ -17728,10 +17707,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B284" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
         <v>19</v>
@@ -17769,10 +17748,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B285" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C285" t="s">
         <v>19</v>
@@ -17810,7 +17789,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B286" t="s">
         <v>107</v>
@@ -17863,10 +17842,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B287" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C287" t="s">
         <v>98</v>
@@ -17916,10 +17895,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B288" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C288" t="s">
         <v>98</v>
@@ -17937,7 +17916,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H288" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I288" t="s">
         <v>31</v>
@@ -17969,10 +17948,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B289" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C289" t="s">
         <v>35</v>
@@ -18022,10 +18001,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B290" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C290" t="s">
         <v>35</v>
@@ -18075,10 +18054,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B291" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C291" t="s">
         <v>35</v>
@@ -18128,10 +18107,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B292" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C292" t="s">
         <v>35</v>
@@ -18181,10 +18160,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B293" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C293" t="s">
         <v>35</v>
@@ -18234,10 +18213,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B294" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C294" t="s">
         <v>35</v>
@@ -18287,10 +18266,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B295" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C295" t="s">
         <v>26</v>
@@ -18304,7 +18283,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H295" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I295" t="s">
         <v>31</v>
@@ -18336,7 +18315,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B296" t="s">
         <v>118</v>
@@ -18389,10 +18368,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B297" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C297" t="s">
         <v>26</v>
@@ -18438,10 +18417,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B298" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C298" t="s">
         <v>26</v>
@@ -18487,10 +18466,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B299" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C299" t="s">
         <v>26</v>
@@ -18536,10 +18515,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B300" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C300" t="s">
         <v>26</v>
@@ -18585,7 +18564,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B301" t="s">
         <v>78</v>
@@ -18636,7 +18615,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B302" t="s">
         <v>78</v>
@@ -18689,7 +18668,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B303" t="s">
         <v>78</v>
@@ -18742,7 +18721,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B304" t="s">
         <v>78</v>
@@ -18795,7 +18774,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B305" t="s">
         <v>78</v>
@@ -18848,7 +18827,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B306" t="s">
         <v>78</v>
@@ -18901,7 +18880,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B307" t="s">
         <v>78</v>
@@ -18954,7 +18933,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B308" t="s">
         <v>78</v>
@@ -19007,7 +18986,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B309" t="s">
         <v>78</v>
@@ -19060,7 +19039,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B310" t="s">
         <v>78</v>
@@ -19113,7 +19092,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B311" t="s">
         <v>78</v>
@@ -19166,10 +19145,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B312" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C312" t="s">
         <v>35</v>
@@ -19219,10 +19198,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B313" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C313" t="s">
         <v>35</v>
@@ -19270,10 +19249,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C314" t="s">
         <v>35</v>
@@ -19323,10 +19302,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C315" t="s">
         <v>35</v>
@@ -19376,10 +19355,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B316" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C316" t="s">
         <v>35</v>
@@ -19429,10 +19408,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B317" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C317" t="s">
         <v>35</v>
@@ -19482,10 +19461,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C318" t="s">
         <v>35</v>
@@ -19535,10 +19514,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
@@ -19584,10 +19563,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B320" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
@@ -19637,7 +19616,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B321" t="s">
         <v>120</v>
@@ -19690,10 +19669,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B322" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -19709,7 +19688,7 @@
       </c>
       <c r="G322"/>
       <c r="H322" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I322" t="s">
         <v>31</v>
@@ -19741,10 +19720,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B323" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C323" t="s">
         <v>26</v>
@@ -19759,10 +19738,10 @@
         <v>1</v>
       </c>
       <c r="G323" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H323" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I323" t="s">
         <v>31</v>
@@ -19794,10 +19773,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B324" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C324" t="s">
         <v>26</v>
@@ -19812,16 +19791,16 @@
         <v>1</v>
       </c>
       <c r="G324" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H324" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I324" t="s">
         <v>31</v>
       </c>
       <c r="J324" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K324" t="s">
         <v>21</v>
@@ -19847,10 +19826,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B325" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -19865,10 +19844,10 @@
         <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>0.688888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="H325" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I325" t="s">
         <v>31</v>
@@ -19900,10 +19879,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B326" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C326" t="s">
         <v>26</v>
@@ -19918,10 +19897,10 @@
         <v>1</v>
       </c>
       <c r="G326" t="n">
-        <v>0.644444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H326" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I326" t="s">
         <v>31</v>
@@ -19953,10 +19932,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B327" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C327" t="s">
         <v>26</v>
@@ -19971,10 +19950,10 @@
         <v>1</v>
       </c>
       <c r="G327" t="n">
-        <v>0.644444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H327" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I327" t="s">
         <v>31</v>
@@ -20006,10 +19985,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B328" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C328" t="s">
         <v>26</v>
@@ -20055,10 +20034,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B329" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C329" t="s">
         <v>26</v>
@@ -20104,10 +20083,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B330" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C330" t="s">
         <v>26</v>
@@ -20153,10 +20132,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B331" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C331" t="s">
         <v>26</v>
@@ -20174,7 +20153,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H331" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I331" t="s">
         <v>31</v>
@@ -20206,10 +20185,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B332" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C332" t="s">
         <v>35</v>
@@ -20259,10 +20238,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B333" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C333" t="s">
         <v>35</v>
@@ -20312,10 +20291,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B334" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C334" t="s">
         <v>35</v>
@@ -20365,10 +20344,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B335" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C335" t="s">
         <v>35</v>
@@ -20418,10 +20397,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B336" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C336" t="s">
         <v>35</v>
@@ -20471,10 +20450,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B337" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C337" t="s">
         <v>35</v>
@@ -20524,10 +20503,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B338" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C338" t="s">
         <v>35</v>
@@ -20573,10 +20552,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B339" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C339" t="s">
         <v>35</v>
@@ -20622,10 +20601,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B340" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C340" t="s">
         <v>35</v>
@@ -20671,10 +20650,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B341" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C341" t="s">
         <v>19</v>
@@ -20712,10 +20691,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B342" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C342" t="s">
         <v>19</v>
@@ -20753,10 +20732,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B343" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C343" t="s">
         <v>19</v>
@@ -20794,10 +20773,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B344" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C344" t="s">
         <v>98</v>
@@ -20847,10 +20826,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B345" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C345" t="s">
         <v>98</v>
@@ -20900,10 +20879,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B346" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C346" t="s">
         <v>98</v>
@@ -20953,10 +20932,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B347" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C347" t="s">
         <v>98</v>
@@ -21006,10 +20985,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B348" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C348" t="s">
         <v>98</v>
@@ -21057,10 +21036,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B349" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C349" t="s">
         <v>98</v>
@@ -21108,10 +21087,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B350" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C350" t="s">
         <v>98</v>
@@ -21159,10 +21138,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B351" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C351" t="s">
         <v>98</v>
@@ -21210,10 +21189,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B352" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C352" t="s">
         <v>98</v>
@@ -21227,9 +21206,7 @@
       <c r="F352" t="n">
         <v>3</v>
       </c>
-      <c r="G352" t="n">
-        <v>0.822222222222222</v>
-      </c>
+      <c r="G352"/>
       <c r="H352" t="s">
         <v>36</v>
       </c>
@@ -21263,10 +21240,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B353" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C353" t="s">
         <v>98</v>
@@ -21314,10 +21291,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B354" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C354" t="s">
         <v>98</v>
@@ -21367,10 +21344,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B355" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C355" t="s">
         <v>98</v>
@@ -21420,10 +21397,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B356" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C356" t="s">
         <v>98</v>
@@ -21473,10 +21450,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B357" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C357" t="s">
         <v>98</v>
@@ -21526,10 +21503,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B358" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C358" t="s">
         <v>98</v>
@@ -21579,10 +21556,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B359" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C359" t="s">
         <v>26</v>
@@ -21632,10 +21609,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B360" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C360" t="s">
         <v>35</v>
@@ -21653,7 +21630,7 @@
         <v>0.466666666666667</v>
       </c>
       <c r="H360" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I360" t="s">
         <v>31</v>
@@ -21685,10 +21662,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B361" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C361" t="s">
         <v>35</v>
@@ -21706,7 +21683,7 @@
         <v>0.466666666666667</v>
       </c>
       <c r="H361" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I361" t="s">
         <v>31</v>
@@ -21738,10 +21715,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B362" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C362" t="s">
         <v>35</v>
@@ -21759,7 +21736,7 @@
         <v>0.466666666666667</v>
       </c>
       <c r="H362" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I362" t="s">
         <v>31</v>
@@ -21791,10 +21768,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B363" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C363" t="s">
         <v>35</v>
@@ -21812,7 +21789,7 @@
         <v>0.288888888888889</v>
       </c>
       <c r="H363" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I363" t="s">
         <v>31</v>
@@ -21844,10 +21821,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B364" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C364" t="s">
         <v>35</v>
@@ -21865,7 +21842,7 @@
         <v>0.288888888888889</v>
       </c>
       <c r="H364" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I364" t="s">
         <v>31</v>
@@ -21897,10 +21874,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B365" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C365" t="s">
         <v>35</v>
@@ -21918,7 +21895,7 @@
         <v>0.311111111111111</v>
       </c>
       <c r="H365" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I365" t="s">
         <v>31</v>
@@ -21950,10 +21927,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B366" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C366" t="s">
         <v>35</v>
@@ -21971,7 +21948,7 @@
         <v>0.311111111111111</v>
       </c>
       <c r="H366" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I366" t="s">
         <v>31</v>
@@ -22003,10 +21980,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B367" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C367" t="s">
         <v>35</v>
@@ -22024,7 +22001,7 @@
         <v>0.422222222222222</v>
       </c>
       <c r="H367" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I367" t="s">
         <v>31</v>
@@ -22056,10 +22033,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B368" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C368" t="s">
         <v>35</v>
@@ -22107,10 +22084,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B369" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C369" t="s">
         <v>35</v>
@@ -22160,10 +22137,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B370" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C370" t="s">
         <v>35</v>
@@ -22213,10 +22190,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B371" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C371" t="s">
         <v>35</v>
@@ -22266,10 +22243,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B372" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C372" t="s">
         <v>35</v>
@@ -22319,10 +22296,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B373" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C373" t="s">
         <v>35</v>
@@ -22372,10 +22349,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B374" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C374" t="s">
         <v>35</v>
@@ -22425,10 +22402,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B375" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C375" t="s">
         <v>35</v>
@@ -22478,10 +22455,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B376" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C376" t="s">
         <v>35</v>
@@ -22531,10 +22508,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B377" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C377" t="s">
         <v>35</v>
@@ -22584,10 +22561,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B378" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C378" t="s">
         <v>35</v>
@@ -22637,10 +22614,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B379" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C379" t="s">
         <v>35</v>
@@ -22690,10 +22667,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B380" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C380" t="s">
         <v>35</v>
@@ -22743,10 +22720,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B381" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C381" t="s">
         <v>35</v>
@@ -22796,10 +22773,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B382" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C382" t="s">
         <v>35</v>
@@ -22849,10 +22826,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B383" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C383" t="s">
         <v>35</v>
@@ -22902,10 +22879,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B384" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C384" t="s">
         <v>35</v>
@@ -22955,10 +22932,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B385" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C385" t="s">
         <v>35</v>
@@ -23008,10 +22985,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B386" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C386" t="s">
         <v>35</v>
@@ -23061,10 +23038,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B387" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C387" t="s">
         <v>35</v>
@@ -23114,10 +23091,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B388" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C388" t="s">
         <v>35</v>
@@ -23167,10 +23144,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B389" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C389" t="s">
         <v>35</v>
@@ -23220,10 +23197,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B390" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C390" t="s">
         <v>35</v>
@@ -23273,10 +23250,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B391" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C391" t="s">
         <v>35</v>
@@ -23326,10 +23303,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B392" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C392" t="s">
         <v>35</v>
@@ -23379,10 +23356,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B393" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C393" t="s">
         <v>35</v>
@@ -23432,10 +23409,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B394" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C394" t="s">
         <v>35</v>
@@ -23485,10 +23462,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B395" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C395" t="s">
         <v>35</v>
@@ -23538,10 +23515,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B396" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C396" t="s">
         <v>35</v>
@@ -23591,10 +23568,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B397" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C397" t="s">
         <v>35</v>
@@ -23644,10 +23621,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B398" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C398" t="s">
         <v>35</v>
@@ -23697,10 +23674,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B399" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C399" t="s">
         <v>35</v>
@@ -23750,10 +23727,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B400" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C400" t="s">
         <v>35</v>
@@ -23803,10 +23780,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B401" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C401" t="s">
         <v>35</v>
@@ -23856,10 +23833,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B402" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C402" t="s">
         <v>35</v>
@@ -23909,10 +23886,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B403" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C403" t="s">
         <v>35</v>
@@ -23962,10 +23939,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B404" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C404" t="s">
         <v>35</v>
@@ -24015,10 +23992,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B405" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C405" t="s">
         <v>35</v>
@@ -24068,10 +24045,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B406" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C406" t="s">
         <v>35</v>
@@ -24121,10 +24098,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B407" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C407" t="s">
         <v>35</v>
@@ -24174,10 +24151,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B408" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C408" t="s">
         <v>35</v>
@@ -24227,10 +24204,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B409" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C409" t="s">
         <v>35</v>
@@ -24280,10 +24257,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B410" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C410" t="s">
         <v>35</v>
@@ -24333,10 +24310,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B411" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C411" t="s">
         <v>35</v>
@@ -24386,10 +24363,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B412" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C412" t="s">
         <v>35</v>
@@ -24439,10 +24416,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B413" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C413" t="s">
         <v>35</v>
@@ -24492,10 +24469,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B414" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C414" t="s">
         <v>26</v>
@@ -24545,10 +24522,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B415" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C415" t="s">
         <v>26</v>
@@ -24598,7 +24575,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B416" t="s">
         <v>118</v>
@@ -24651,7 +24628,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B417" t="s">
         <v>118</v>
@@ -24704,7 +24681,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B418" t="s">
         <v>159</v>
@@ -24757,7 +24734,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B419" t="s">
         <v>159</v>
@@ -24810,7 +24787,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B420" t="s">
         <v>95</v>
@@ -24861,7 +24838,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B421" t="s">
         <v>95</v>
@@ -24912,7 +24889,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B422" t="s">
         <v>95</v>
@@ -24963,7 +24940,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B423" t="s">
         <v>95</v>
@@ -25014,7 +24991,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B424" t="s">
         <v>95</v>
@@ -25065,7 +25042,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B425" t="s">
         <v>95</v>
@@ -25116,7 +25093,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B426" t="s">
         <v>95</v>
@@ -25167,10 +25144,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B427" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C427" t="s">
         <v>26</v>
@@ -25214,10 +25191,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B428" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C428" t="s">
         <v>26</v>
@@ -25263,10 +25240,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B429" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C429" t="s">
         <v>26</v>
@@ -25312,10 +25289,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B430" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C430" t="s">
         <v>35</v>
@@ -25365,10 +25342,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B431" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C431" t="s">
         <v>98</v>
@@ -25418,10 +25395,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C432" t="s">
         <v>98</v>
@@ -25471,10 +25448,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B433" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C433" t="s">
         <v>26</v>
@@ -25524,10 +25501,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B434" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C434" t="s">
         <v>26</v>
@@ -25575,7 +25552,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B435" t="s">
         <v>107</v>
@@ -25599,7 +25576,7 @@
         <v>53</v>
       </c>
       <c r="I435" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J435" t="s">
         <v>21</v>
@@ -25628,7 +25605,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B436" t="s">
         <v>107</v>
@@ -25652,7 +25629,7 @@
         <v>53</v>
       </c>
       <c r="I436" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J436" t="s">
         <v>21</v>
@@ -25681,7 +25658,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B437" t="s">
         <v>107</v>
@@ -25705,7 +25682,7 @@
         <v>53</v>
       </c>
       <c r="I437" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J437" t="s">
         <v>21</v>
@@ -25734,7 +25711,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B438" t="s">
         <v>107</v>
@@ -25758,7 +25735,7 @@
         <v>53</v>
       </c>
       <c r="I438" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J438" t="s">
         <v>21</v>
@@ -25787,7 +25764,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B439" t="s">
         <v>107</v>
@@ -25811,7 +25788,7 @@
         <v>53</v>
       </c>
       <c r="I439" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J439" t="s">
         <v>21</v>
@@ -25840,7 +25817,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B440" t="s">
         <v>107</v>
@@ -25864,7 +25841,7 @@
         <v>53</v>
       </c>
       <c r="I440" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J440" t="s">
         <v>21</v>
@@ -25893,7 +25870,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B441" t="s">
         <v>107</v>
@@ -25917,7 +25894,7 @@
         <v>53</v>
       </c>
       <c r="I441" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J441" t="s">
         <v>21</v>
@@ -25946,7 +25923,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B442" t="s">
         <v>107</v>
@@ -25964,13 +25941,13 @@
         <v>1</v>
       </c>
       <c r="G442" t="n">
-        <v>0.533333333333333</v>
+        <v>0.488888888888889</v>
       </c>
       <c r="H442" t="s">
         <v>53</v>
       </c>
       <c r="I442" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J442" t="s">
         <v>21</v>
@@ -25999,7 +25976,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B443" t="s">
         <v>107</v>
@@ -26023,7 +26000,7 @@
         <v>53</v>
       </c>
       <c r="I443" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J443" t="s">
         <v>21</v>
@@ -26052,7 +26029,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B444" t="s">
         <v>107</v>
@@ -26076,7 +26053,7 @@
         <v>53</v>
       </c>
       <c r="I444" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J444" t="s">
         <v>21</v>
@@ -26105,7 +26082,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B445" t="s">
         <v>107</v>
@@ -26129,7 +26106,7 @@
         <v>53</v>
       </c>
       <c r="I445" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J445" t="s">
         <v>21</v>
@@ -26158,7 +26135,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B446" t="s">
         <v>107</v>
@@ -26182,7 +26159,7 @@
         <v>53</v>
       </c>
       <c r="I446" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J446" t="s">
         <v>21</v>
@@ -26211,7 +26188,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B447" t="s">
         <v>107</v>
@@ -26235,7 +26212,7 @@
         <v>53</v>
       </c>
       <c r="I447" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J447" t="s">
         <v>21</v>
@@ -26264,7 +26241,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B448" t="s">
         <v>107</v>
@@ -26286,7 +26263,7 @@
         <v>53</v>
       </c>
       <c r="I448" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J448" t="s">
         <v>21</v>
@@ -26315,7 +26292,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B449" t="s">
         <v>107</v>
@@ -26339,7 +26316,7 @@
         <v>53</v>
       </c>
       <c r="I449" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J449" t="s">
         <v>21</v>
@@ -26368,10 +26345,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B450" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C450" t="s">
         <v>26</v>
@@ -26421,10 +26398,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B451" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C451" t="s">
         <v>26</v>
@@ -26474,10 +26451,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B452" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C452" t="s">
         <v>26</v>
@@ -26527,10 +26504,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B453" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C453" t="s">
         <v>26</v>
@@ -26580,10 +26557,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B454" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C454" t="s">
         <v>26</v>
@@ -26633,10 +26610,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B455" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C455" t="s">
         <v>26</v>
@@ -26686,10 +26663,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B456" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C456" t="s">
         <v>19</v>
@@ -26727,10 +26704,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B457" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C457" t="s">
         <v>19</v>
@@ -26768,10 +26745,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B458" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C458" t="s">
         <v>19</v>
@@ -26809,10 +26786,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B459" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C459" t="s">
         <v>19</v>
@@ -26850,10 +26827,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B460" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C460" t="s">
         <v>19</v>
@@ -26891,10 +26868,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B461" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C461" t="s">
         <v>35</v>
@@ -26944,10 +26921,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B462" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C462" t="s">
         <v>26</v>
@@ -26997,10 +26974,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B463" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C463" t="s">
         <v>19</v>
@@ -27036,10 +27013,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B464" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C464" t="s">
         <v>19</v>
@@ -27075,10 +27052,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B465" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C465" t="s">
         <v>19</v>
@@ -27116,10 +27093,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B466" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C466" t="s">
         <v>19</v>
@@ -27155,10 +27132,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B467" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C467" t="s">
         <v>19</v>
@@ -27194,10 +27171,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B468" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C468" t="s">
         <v>19</v>
@@ -27233,10 +27210,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B469" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C469" t="s">
         <v>19</v>
@@ -27272,10 +27249,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B470" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C470" t="s">
         <v>19</v>
@@ -27311,10 +27288,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B471" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C471" t="s">
         <v>19</v>
@@ -27352,10 +27329,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B472" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C472" t="s">
         <v>19</v>
@@ -27393,10 +27370,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B473" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C473" t="s">
         <v>19</v>
@@ -27432,10 +27409,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B474" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C474" t="s">
         <v>19</v>
@@ -27471,10 +27448,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B475" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C475" t="s">
         <v>19</v>
@@ -27510,10 +27487,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B476" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C476" t="s">
         <v>19</v>
@@ -27551,10 +27528,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B477" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C477" t="s">
         <v>19</v>
@@ -27590,10 +27567,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B478" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C478" t="s">
         <v>19</v>
@@ -27629,10 +27606,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B479" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C479" t="s">
         <v>19</v>
@@ -27668,10 +27645,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B480" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C480" t="s">
         <v>19</v>
@@ -27707,10 +27684,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B481" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C481" t="s">
         <v>19</v>
@@ -27748,10 +27725,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B482" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C482" t="s">
         <v>19</v>
@@ -27787,10 +27764,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B483" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C483" t="s">
         <v>19</v>
@@ -27826,10 +27803,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B484" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C484" t="s">
         <v>19</v>
@@ -27865,10 +27842,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B485" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C485" t="s">
         <v>19</v>
@@ -27906,10 +27883,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B486" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C486" t="s">
         <v>19</v>
@@ -27945,10 +27922,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B487" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C487" t="s">
         <v>19</v>
@@ -27986,10 +27963,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B488" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C488" t="s">
         <v>19</v>
@@ -28027,10 +28004,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B489" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C489" t="s">
         <v>19</v>
@@ -28068,10 +28045,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B490" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C490" t="s">
         <v>19</v>
@@ -28107,10 +28084,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B491" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C491" t="s">
         <v>19</v>
@@ -28146,10 +28123,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B492" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C492" t="s">
         <v>19</v>
@@ -28185,10 +28162,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B493" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C493" t="s">
         <v>19</v>
@@ -28224,10 +28201,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B494" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C494" t="s">
         <v>19</v>
@@ -28263,10 +28240,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B495" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C495" t="s">
         <v>19</v>
@@ -28302,10 +28279,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B496" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C496" t="s">
         <v>19</v>
@@ -28343,10 +28320,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B497" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C497" t="s">
         <v>19</v>
@@ -28382,10 +28359,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B498" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C498" t="s">
         <v>19</v>
@@ -28423,10 +28400,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B499" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C499" t="s">
         <v>19</v>
@@ -28464,10 +28441,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B500" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C500" t="s">
         <v>19</v>
@@ -28503,10 +28480,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B501" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C501" t="s">
         <v>19</v>
@@ -28544,10 +28521,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B502" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C502" t="s">
         <v>19</v>
@@ -28585,10 +28562,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B503" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C503" t="s">
         <v>19</v>
@@ -28626,10 +28603,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B504" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C504" t="s">
         <v>19</v>
@@ -28665,10 +28642,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B505" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C505" t="s">
         <v>19</v>
@@ -28704,10 +28681,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B506" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C506" t="s">
         <v>19</v>
@@ -28743,10 +28720,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B507" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C507" t="s">
         <v>19</v>
@@ -28782,10 +28759,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B508" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C508" t="s">
         <v>19</v>
@@ -28821,10 +28798,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B509" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C509" t="s">
         <v>19</v>
@@ -28860,10 +28837,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B510" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C510" t="s">
         <v>19</v>
@@ -28899,10 +28876,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B511" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C511" t="s">
         <v>19</v>
@@ -28938,10 +28915,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B512" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C512" t="s">
         <v>19</v>
@@ -28979,10 +28956,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B513" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C513" t="s">
         <v>19</v>
@@ -29020,10 +28997,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B514" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C514" t="s">
         <v>19</v>
@@ -29061,10 +29038,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B515" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C515" t="s">
         <v>19</v>
@@ -29102,10 +29079,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B516" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C516" t="s">
         <v>19</v>
@@ -29143,10 +29120,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B517" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C517" t="s">
         <v>19</v>
@@ -29184,10 +29161,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B518" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C518" t="s">
         <v>19</v>
@@ -29225,10 +29202,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B519" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C519" t="s">
         <v>19</v>
@@ -29266,10 +29243,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B520" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C520" t="s">
         <v>19</v>
@@ -29307,10 +29284,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B521" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C521" t="s">
         <v>19</v>
@@ -29348,10 +29325,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B522" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C522" t="s">
         <v>19</v>
@@ -29389,10 +29366,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B523" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C523" t="s">
         <v>19</v>
@@ -29430,10 +29407,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B524" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C524" t="s">
         <v>19</v>
@@ -29471,10 +29448,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B525" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C525" t="s">
         <v>19</v>
@@ -29512,10 +29489,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B526" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C526" t="s">
         <v>19</v>
@@ -29553,10 +29530,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B527" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C527" t="s">
         <v>19</v>
@@ -29594,10 +29571,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B528" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C528" t="s">
         <v>19</v>
@@ -29635,10 +29612,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B529" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C529" t="s">
         <v>26</v>
@@ -29686,7 +29663,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B530" t="s">
         <v>140</v>
@@ -29739,7 +29716,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B531" t="s">
         <v>118</v>
@@ -29792,7 +29769,7 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B532" t="s">
         <v>118</v>
@@ -29845,7 +29822,7 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B533" t="s">
         <v>118</v>
@@ -29898,7 +29875,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B534" t="s">
         <v>118</v>
@@ -29951,7 +29928,7 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B535" t="s">
         <v>118</v>
@@ -30004,7 +29981,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B536" t="s">
         <v>118</v>
@@ -30057,7 +30034,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B537" t="s">
         <v>118</v>
@@ -30110,7 +30087,7 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B538" t="s">
         <v>118</v>
@@ -30163,10 +30140,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B539" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C539" t="s">
         <v>26</v>
@@ -30216,10 +30193,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B540" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C540" t="s">
         <v>26</v>
@@ -30269,10 +30246,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B541" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C541" t="s">
         <v>26</v>
@@ -30322,10 +30299,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B542" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C542" t="s">
         <v>26</v>
@@ -30375,10 +30352,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B543" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C543" t="s">
         <v>26</v>
@@ -30428,10 +30405,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B544" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C544" t="s">
         <v>26</v>
@@ -30481,10 +30458,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B545" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C545" t="s">
         <v>26</v>
@@ -30534,10 +30511,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B546" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C546" t="s">
         <v>26</v>
@@ -30587,10 +30564,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B547" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C547" t="s">
         <v>26</v>
@@ -30640,10 +30617,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B548" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C548" t="s">
         <v>26</v>
@@ -30693,10 +30670,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B549" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C549" t="s">
         <v>26</v>
@@ -30746,10 +30723,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B550" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C550" t="s">
         <v>35</v>
@@ -30799,7 +30776,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B551" t="s">
         <v>80</v>
@@ -30852,10 +30829,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B552" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C552" t="s">
         <v>35</v>
@@ -30905,10 +30882,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B553" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C553" t="s">
         <v>98</v>
@@ -30958,10 +30935,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B554" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C554" t="s">
         <v>98</v>
@@ -31011,10 +30988,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B555" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C555" t="s">
         <v>98</v>
@@ -31064,10 +31041,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B556" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C556" t="s">
         <v>98</v>
@@ -31117,10 +31094,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B557" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C557" t="s">
         <v>98</v>
@@ -31170,7 +31147,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B558" t="s">
         <v>97</v>
@@ -31223,10 +31200,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B559" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C559" t="s">
         <v>26</v>
@@ -31272,10 +31249,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B560" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C560" t="s">
         <v>26</v>
@@ -31325,10 +31302,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B561" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C561" t="s">
         <v>35</v>
@@ -31378,10 +31355,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B562" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C562" t="s">
         <v>35</v>
@@ -31431,10 +31408,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B563" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C563" t="s">
         <v>26</v>
@@ -31478,10 +31455,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B564" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C564" t="s">
         <v>35</v>
@@ -31531,10 +31508,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B565" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C565" t="s">
         <v>98</v>
@@ -31584,10 +31561,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B566" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C566" t="s">
         <v>98</v>
@@ -31637,10 +31614,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B567" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C567" t="s">
         <v>98</v>
@@ -31690,10 +31667,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B568" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C568" t="s">
         <v>98</v>
@@ -31743,10 +31720,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B569" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C569" t="s">
         <v>98</v>
@@ -31796,10 +31773,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B570" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C570" t="s">
         <v>98</v>
@@ -31849,7 +31826,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B571" t="s">
         <v>107</v>
@@ -31902,7 +31879,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B572" t="s">
         <v>107</v>
@@ -31955,7 +31932,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B573" t="s">
         <v>107</v>
@@ -32008,10 +31985,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B574" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C574" t="s">
         <v>35</v>
@@ -32057,10 +32034,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B575" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C575" t="s">
         <v>35</v>
@@ -32106,10 +32083,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B576" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C576" t="s">
         <v>26</v>
@@ -32159,10 +32136,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B577" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C577" t="s">
         <v>26</v>
@@ -32212,10 +32189,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B578" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C578" t="s">
         <v>26</v>
@@ -32265,10 +32242,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B579" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C579" t="s">
         <v>26</v>
@@ -32318,10 +32295,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B580" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C580" t="s">
         <v>19</v>
@@ -32359,10 +32336,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B581" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C581" t="s">
         <v>19</v>
@@ -32400,10 +32377,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B582" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C582" t="s">
         <v>19</v>
@@ -32441,10 +32418,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B583" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C583" t="s">
         <v>19</v>
@@ -32482,10 +32459,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B584" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C584" t="s">
         <v>19</v>
@@ -32523,10 +32500,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B585" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C585" t="s">
         <v>19</v>
@@ -32564,10 +32541,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B586" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C586" t="s">
         <v>19</v>
@@ -32605,10 +32582,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B587" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C587" t="s">
         <v>19</v>
@@ -32646,10 +32623,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B588" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C588" t="s">
         <v>19</v>
@@ -32687,10 +32664,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B589" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C589" t="s">
         <v>19</v>
@@ -32728,10 +32705,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B590" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C590" t="s">
         <v>19</v>
@@ -32769,10 +32746,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B591" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C591" t="s">
         <v>19</v>
@@ -32810,10 +32787,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B592" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C592" t="s">
         <v>19</v>
@@ -32851,10 +32828,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B593" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C593" t="s">
         <v>26</v>
@@ -32900,10 +32877,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B594" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C594" t="s">
         <v>26</v>
@@ -32949,7 +32926,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B595" t="s">
         <v>120</v>
@@ -33002,10 +32979,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B596" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C596" t="s">
         <v>35</v>
@@ -33055,10 +33032,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B597" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C597" t="s">
         <v>26</v>
@@ -33076,7 +33053,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H597" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I597" t="s">
         <v>31</v>
@@ -33108,10 +33085,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B598" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C598" t="s">
         <v>19</v>
@@ -33149,10 +33126,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B599" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C599" t="s">
         <v>19</v>
@@ -33190,10 +33167,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B600" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C600" t="s">
         <v>19</v>
@@ -33231,10 +33208,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B601" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C601" t="s">
         <v>19</v>
@@ -33272,10 +33249,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B602" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C602" t="s">
         <v>19</v>
@@ -33313,10 +33290,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B603" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C603" t="s">
         <v>19</v>
@@ -33354,10 +33331,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B604" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C604" t="s">
         <v>19</v>
@@ -33393,7 +33370,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B605" t="s">
         <v>166</v>
@@ -33446,7 +33423,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B606" t="s">
         <v>166</v>
@@ -33499,7 +33476,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B607" t="s">
         <v>166</v>
@@ -33552,7 +33529,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B608" t="s">
         <v>166</v>
@@ -33605,7 +33582,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B609" t="s">
         <v>78</v>
@@ -33658,7 +33635,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B610" t="s">
         <v>78</v>
@@ -33711,7 +33688,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B611" t="s">
         <v>78</v>
@@ -33764,7 +33741,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B612" t="s">
         <v>78</v>
@@ -33817,7 +33794,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B613" t="s">
         <v>78</v>
@@ -33870,10 +33847,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B614" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C614" t="s">
         <v>35</v>
@@ -33923,10 +33900,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B615" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C615" t="s">
         <v>26</v>
@@ -33976,10 +33953,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B616" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C616" t="s">
         <v>19</v>
@@ -34017,10 +33994,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B617" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C617" t="s">
         <v>19</v>
@@ -34058,10 +34035,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B618" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C618" t="s">
         <v>98</v>
@@ -34082,7 +34059,7 @@
         <v>27</v>
       </c>
       <c r="I618" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J618" t="s">
         <v>21</v>
@@ -34111,10 +34088,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B619" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C619" t="s">
         <v>98</v>
@@ -34164,10 +34141,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B620" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C620" t="s">
         <v>98</v>
@@ -34217,10 +34194,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B621" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C621" t="s">
         <v>26</v>
@@ -34270,10 +34247,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B622" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C622" t="s">
         <v>35</v>
@@ -34319,10 +34296,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B623" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C623" t="s">
         <v>35</v>
@@ -34368,10 +34345,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B624" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C624" t="s">
         <v>19</v>
@@ -34409,10 +34386,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B625" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C625" t="s">
         <v>98</v>
@@ -34462,10 +34439,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B626" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C626" t="s">
         <v>98</v>
@@ -34515,10 +34492,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B627" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C627" t="s">
         <v>98</v>
@@ -34568,10 +34545,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B628" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C628" t="s">
         <v>98</v>
@@ -34621,10 +34598,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B629" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C629" t="s">
         <v>98</v>
@@ -34674,10 +34651,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B630" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C630" t="s">
         <v>98</v>
@@ -34727,10 +34704,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B631" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C631" t="s">
         <v>98</v>
@@ -34748,7 +34725,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H631" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I631" t="s">
         <v>31</v>
@@ -34780,10 +34757,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B632" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C632" t="s">
         <v>19</v>
@@ -34821,10 +34798,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B633" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C633" t="s">
         <v>19</v>
@@ -34862,10 +34839,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B634" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C634" t="s">
         <v>19</v>
@@ -34903,10 +34880,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B635" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C635" t="s">
         <v>26</v>
@@ -34956,10 +34933,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B636" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C636" t="s">
         <v>26</v>
@@ -35009,10 +34986,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B637" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C637" t="s">
         <v>26</v>
@@ -35062,10 +35039,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B638" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C638" t="s">
         <v>35</v>
@@ -35115,10 +35092,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B639" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C639" t="s">
         <v>35</v>
@@ -35168,10 +35145,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B640" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C640" t="s">
         <v>35</v>
@@ -35221,10 +35198,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B641" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C641" t="s">
         <v>35</v>
@@ -35274,10 +35251,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B642" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C642" t="s">
         <v>19</v>
@@ -35315,10 +35292,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B643" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C643" t="s">
         <v>35</v>
@@ -35364,10 +35341,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B644" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C644" t="s">
         <v>35</v>
@@ -35417,10 +35394,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B645" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C645" t="s">
         <v>35</v>
@@ -35470,10 +35447,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B646" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C646" t="s">
         <v>35</v>
@@ -35494,7 +35471,7 @@
         <v>141</v>
       </c>
       <c r="I646" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J646" t="s">
         <v>21</v>
@@ -35523,10 +35500,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B647" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C647" t="s">
         <v>35</v>
@@ -35547,7 +35524,7 @@
         <v>141</v>
       </c>
       <c r="I647" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J647" t="s">
         <v>21</v>
@@ -35576,10 +35553,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B648" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C648" t="s">
         <v>35</v>
@@ -35600,7 +35577,7 @@
         <v>141</v>
       </c>
       <c r="I648" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J648" t="s">
         <v>21</v>
@@ -35629,10 +35606,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B649" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C649" t="s">
         <v>35</v>
@@ -35653,7 +35630,7 @@
         <v>141</v>
       </c>
       <c r="I649" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J649" t="s">
         <v>21</v>
@@ -35682,10 +35659,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B650" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C650" t="s">
         <v>35</v>
@@ -35706,7 +35683,7 @@
         <v>141</v>
       </c>
       <c r="I650" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J650" t="s">
         <v>21</v>
@@ -35735,10 +35712,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B651" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C651" t="s">
         <v>35</v>
@@ -35759,7 +35736,7 @@
         <v>141</v>
       </c>
       <c r="I651" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="J651" t="s">
         <v>21</v>
@@ -35788,10 +35765,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B652" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C652" t="s">
         <v>35</v>
@@ -35812,7 +35789,7 @@
         <v>141</v>
       </c>
       <c r="I652" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="J652" t="s">
         <v>21</v>
@@ -35841,10 +35818,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B653" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C653" t="s">
         <v>35</v>
@@ -35865,7 +35842,7 @@
         <v>141</v>
       </c>
       <c r="I653" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J653" t="s">
         <v>21</v>
@@ -35894,10 +35871,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B654" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C654" t="s">
         <v>35</v>
@@ -35918,7 +35895,7 @@
         <v>141</v>
       </c>
       <c r="I654" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J654" t="s">
         <v>21</v>
@@ -35947,10 +35924,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B655" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C655" t="s">
         <v>35</v>
@@ -35971,7 +35948,7 @@
         <v>141</v>
       </c>
       <c r="I655" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J655" t="s">
         <v>21</v>
@@ -36000,10 +35977,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B656" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C656" t="s">
         <v>35</v>
@@ -36024,7 +36001,7 @@
         <v>141</v>
       </c>
       <c r="I656" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="J656" t="s">
         <v>21</v>
@@ -36053,7 +36030,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B657" t="s">
         <v>120</v>
@@ -36106,7 +36083,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B658" t="s">
         <v>120</v>
@@ -36159,7 +36136,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B659" t="s">
         <v>120</v>
@@ -36212,7 +36189,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B660" t="s">
         <v>120</v>
@@ -36265,7 +36242,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B661" t="s">
         <v>120</v>
@@ -36318,7 +36295,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B662" t="s">
         <v>120</v>
@@ -36371,7 +36348,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B663" t="s">
         <v>120</v>
@@ -36424,7 +36401,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B664" t="s">
         <v>120</v>
@@ -36477,10 +36454,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B665" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C665" t="s">
         <v>35</v>
@@ -36530,10 +36507,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B666" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C666" t="s">
         <v>35</v>
@@ -36583,10 +36560,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B667" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C667" t="s">
         <v>35</v>
@@ -36636,10 +36613,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B668" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C668" t="s">
         <v>35</v>
@@ -36689,10 +36666,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B669" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C669" t="s">
         <v>98</v>
@@ -36742,10 +36719,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B670" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C670" t="s">
         <v>19</v>
@@ -36783,10 +36760,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B671" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C671" t="s">
         <v>19</v>
@@ -36824,10 +36801,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B672" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C672" t="s">
         <v>19</v>
@@ -36865,10 +36842,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B673" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C673" t="s">
         <v>35</v>
@@ -36918,10 +36895,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B674" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C674" t="s">
         <v>35</v>
@@ -36971,7 +36948,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B675" t="s">
         <v>52</v>
@@ -36995,7 +36972,7 @@
         <v>53</v>
       </c>
       <c r="I675" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J675" t="s">
         <v>21</v>
@@ -37024,7 +37001,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B676" t="s">
         <v>52</v>
@@ -37048,7 +37025,7 @@
         <v>53</v>
       </c>
       <c r="I676" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J676" t="s">
         <v>21</v>
@@ -37077,7 +37054,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B677" t="s">
         <v>52</v>
@@ -37101,7 +37078,7 @@
         <v>53</v>
       </c>
       <c r="I677" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J677" t="s">
         <v>21</v>
@@ -37130,7 +37107,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B678" t="s">
         <v>52</v>
@@ -37154,7 +37131,7 @@
         <v>53</v>
       </c>
       <c r="I678" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J678" t="s">
         <v>21</v>
@@ -37183,7 +37160,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B679" t="s">
         <v>52</v>
@@ -37207,7 +37184,7 @@
         <v>53</v>
       </c>
       <c r="I679" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J679" t="s">
         <v>21</v>
@@ -37236,7 +37213,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B680" t="s">
         <v>52</v>
@@ -37260,7 +37237,7 @@
         <v>53</v>
       </c>
       <c r="I680" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J680" t="s">
         <v>21</v>
@@ -37289,7 +37266,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B681" t="s">
         <v>52</v>
@@ -37313,7 +37290,7 @@
         <v>53</v>
       </c>
       <c r="I681" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J681" t="s">
         <v>21</v>
@@ -37342,7 +37319,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B682" t="s">
         <v>52</v>
@@ -37366,7 +37343,7 @@
         <v>53</v>
       </c>
       <c r="I682" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J682" t="s">
         <v>21</v>
@@ -37395,7 +37372,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B683" t="s">
         <v>52</v>
@@ -37419,7 +37396,7 @@
         <v>53</v>
       </c>
       <c r="I683" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J683" t="s">
         <v>21</v>
@@ -37448,7 +37425,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B684" t="s">
         <v>52</v>
@@ -37472,7 +37449,7 @@
         <v>53</v>
       </c>
       <c r="I684" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J684" t="s">
         <v>21</v>
@@ -37501,7 +37478,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B685" t="s">
         <v>52</v>
@@ -37525,7 +37502,7 @@
         <v>53</v>
       </c>
       <c r="I685" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J685" t="s">
         <v>21</v>
@@ -37554,7 +37531,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B686" t="s">
         <v>52</v>
@@ -37578,7 +37555,7 @@
         <v>53</v>
       </c>
       <c r="I686" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J686" t="s">
         <v>21</v>
@@ -37607,7 +37584,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B687" t="s">
         <v>52</v>
@@ -37631,7 +37608,7 @@
         <v>53</v>
       </c>
       <c r="I687" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J687" t="s">
         <v>21</v>
@@ -37660,10 +37637,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B688" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C688" t="s">
         <v>26</v>
@@ -37681,10 +37658,10 @@
         <v>0.511111111111111</v>
       </c>
       <c r="H688" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I688" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J688" t="s">
         <v>21</v>
@@ -37713,10 +37690,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B689" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C689" t="s">
         <v>26</v>
@@ -37734,10 +37711,10 @@
         <v>0.555555555555556</v>
       </c>
       <c r="H689" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I689" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J689" t="s">
         <v>21</v>
@@ -37766,10 +37743,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B690" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C690" t="s">
         <v>26</v>
@@ -37787,10 +37764,10 @@
         <v>0.511111111111111</v>
       </c>
       <c r="H690" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I690" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="J690" t="s">
         <v>21</v>
@@ -37819,10 +37796,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B691" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C691" t="s">
         <v>26</v>
@@ -37840,10 +37817,10 @@
         <v>0.577777777777778</v>
       </c>
       <c r="H691" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I691" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="J691" t="s">
         <v>21</v>
@@ -37872,10 +37849,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B692" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C692" t="s">
         <v>26</v>
@@ -37893,10 +37870,10 @@
         <v>0.622222222222222</v>
       </c>
       <c r="H692" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I692" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="J692" t="s">
         <v>21</v>
@@ -37925,10 +37902,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B693" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C693" t="s">
         <v>26</v>
@@ -37946,10 +37923,10 @@
         <v>0.555555555555556</v>
       </c>
       <c r="H693" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I693" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J693" t="s">
         <v>21</v>
@@ -37978,10 +37955,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B694" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C694" t="s">
         <v>26</v>
@@ -37999,7 +37976,7 @@
         <v>0.4</v>
       </c>
       <c r="H694" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I694" t="s">
         <v>28</v>
@@ -38031,10 +38008,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B695" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C695" t="s">
         <v>26</v>
@@ -38052,7 +38029,7 @@
         <v>0.555555555555556</v>
       </c>
       <c r="H695" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I695" t="s">
         <v>28</v>
@@ -38084,10 +38061,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B696" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C696" t="s">
         <v>26</v>
@@ -38105,7 +38082,7 @@
         <v>0.488888888888889</v>
       </c>
       <c r="H696" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I696" t="s">
         <v>28</v>
@@ -38137,10 +38114,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B697" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C697" t="s">
         <v>26</v>
@@ -38158,7 +38135,7 @@
         <v>0.533333333333333</v>
       </c>
       <c r="H697" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I697" t="s">
         <v>28</v>
@@ -38190,10 +38167,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B698" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C698" t="s">
         <v>26</v>
@@ -38211,7 +38188,7 @@
         <v>0.466666666666667</v>
       </c>
       <c r="H698" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I698" t="s">
         <v>28</v>
@@ -38243,10 +38220,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B699" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C699" t="s">
         <v>26</v>
@@ -38264,7 +38241,7 @@
         <v>0.422222222222222</v>
       </c>
       <c r="H699" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I699" t="s">
         <v>28</v>
@@ -38296,10 +38273,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B700" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C700" t="s">
         <v>26</v>
@@ -38317,7 +38294,7 @@
         <v>0.422222222222222</v>
       </c>
       <c r="H700" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I700" t="s">
         <v>28</v>
@@ -38349,10 +38326,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B701" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C701" t="s">
         <v>26</v>
@@ -38370,7 +38347,7 @@
         <v>0.422222222222222</v>
       </c>
       <c r="H701" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I701" t="s">
         <v>28</v>
@@ -38402,10 +38379,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B702" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C702" t="s">
         <v>26</v>
@@ -38423,7 +38400,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="H702" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I702" t="s">
         <v>28</v>
@@ -38455,10 +38432,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B703" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C703" t="s">
         <v>26</v>
@@ -38476,7 +38453,7 @@
         <v>0.4</v>
       </c>
       <c r="H703" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I703" t="s">
         <v>28</v>
@@ -38508,10 +38485,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B704" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C704" t="s">
         <v>26</v>
@@ -38561,10 +38538,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B705" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C705" t="s">
         <v>26</v>
@@ -38614,10 +38591,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B706" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C706" t="s">
         <v>26</v>
@@ -38665,10 +38642,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B707" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C707" t="s">
         <v>26</v>
@@ -38716,10 +38693,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B708" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C708" t="s">
         <v>26</v>
@@ -38767,10 +38744,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B709" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C709" t="s">
         <v>26</v>
@@ -38818,10 +38795,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B710" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C710" t="s">
         <v>26</v>
@@ -38869,10 +38846,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B711" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C711" t="s">
         <v>26</v>
@@ -38920,10 +38897,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B712" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C712" t="s">
         <v>35</v>
@@ -38973,10 +38950,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B713" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C713" t="s">
         <v>26</v>
@@ -38992,7 +38969,7 @@
       </c>
       <c r="G713"/>
       <c r="H713" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I713" t="s">
         <v>31</v>
@@ -39024,10 +39001,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B714" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C714" t="s">
         <v>26</v>
@@ -39043,7 +39020,7 @@
       </c>
       <c r="G714"/>
       <c r="H714" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I714" t="s">
         <v>31</v>
@@ -39075,10 +39052,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B715" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C715" t="s">
         <v>26</v>
@@ -39094,7 +39071,7 @@
       </c>
       <c r="G715"/>
       <c r="H715" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I715" t="s">
         <v>31</v>
@@ -39126,10 +39103,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B716" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C716" t="s">
         <v>26</v>
@@ -39145,7 +39122,7 @@
       </c>
       <c r="G716"/>
       <c r="H716" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I716" t="s">
         <v>31</v>
@@ -39177,10 +39154,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B717" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C717" t="s">
         <v>26</v>
@@ -39196,7 +39173,7 @@
       </c>
       <c r="G717"/>
       <c r="H717" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I717" t="s">
         <v>31</v>
@@ -39228,10 +39205,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B718" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C718" t="s">
         <v>26</v>
@@ -39247,7 +39224,7 @@
       </c>
       <c r="G718"/>
       <c r="H718" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I718" t="s">
         <v>31</v>
@@ -39279,10 +39256,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B719" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C719" t="s">
         <v>26</v>
@@ -39298,7 +39275,7 @@
       </c>
       <c r="G719"/>
       <c r="H719" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I719" t="s">
         <v>31</v>
@@ -39330,10 +39307,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B720" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C720" t="s">
         <v>26</v>
@@ -39348,16 +39325,16 @@
         <v>1</v>
       </c>
       <c r="G720" t="n">
-        <v>0.844444444444444</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H720" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I720" t="s">
         <v>31</v>
       </c>
       <c r="J720" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K720" t="s">
         <v>21</v>
@@ -39383,10 +39360,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B721" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C721" t="s">
         <v>26</v>
@@ -39402,7 +39379,7 @@
       </c>
       <c r="G721"/>
       <c r="H721" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I721" t="s">
         <v>31</v>
@@ -39434,10 +39411,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B722" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C722" t="s">
         <v>26</v>
@@ -39487,10 +39464,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B723" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C723" t="s">
         <v>26</v>
@@ -39536,10 +39513,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B724" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C724" t="s">
         <v>19</v>
@@ -39575,10 +39552,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B725" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C725" t="s">
         <v>19</v>
@@ -39614,10 +39591,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B726" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C726" t="s">
         <v>19</v>
@@ -39653,10 +39630,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B727" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C727" t="s">
         <v>19</v>
@@ -39694,10 +39671,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B728" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C728" t="s">
         <v>19</v>
@@ -39735,10 +39712,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B729" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C729" t="s">
         <v>35</v>
@@ -39788,10 +39765,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B730" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C730" t="s">
         <v>35</v>
@@ -39841,10 +39818,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B731" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C731" t="s">
         <v>35</v>
@@ -39894,10 +39871,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B732" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C732" t="s">
         <v>35</v>
@@ -39947,10 +39924,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B733" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C733" t="s">
         <v>35</v>
@@ -39965,7 +39942,7 @@
         <v>2</v>
       </c>
       <c r="G733" t="n">
-        <v>0.888888888888889</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="H733" t="s">
         <v>36</v>
@@ -40000,10 +39977,10 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B734" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C734" t="s">
         <v>35</v>
@@ -40053,10 +40030,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B735" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C735" t="s">
         <v>35</v>
@@ -40071,7 +40048,7 @@
         <v>2</v>
       </c>
       <c r="G735" t="n">
-        <v>0.822222222222222</v>
+        <v>0.911111111111111</v>
       </c>
       <c r="H735" t="s">
         <v>36</v>
@@ -40106,10 +40083,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B736" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C736" t="s">
         <v>35</v>
@@ -40159,10 +40136,10 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B737" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C737" t="s">
         <v>26</v>
@@ -40212,10 +40189,10 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B738" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C738" t="s">
         <v>26</v>

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="931">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Entiat</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Brevicomis Creek</t>
@@ -809,6 +809,9 @@
     <t xml:space="preserve">Entiat River-Mills Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover- Wood,Off-Channel/Side-Channels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Mills 02</t>
   </si>
   <si>
@@ -842,18 +845,21 @@
     <t xml:space="preserve">Entiat River-Potato Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
+    <t xml:space="preserve">Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 02</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
+    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Potato 03</t>
   </si>
   <si>
+    <t xml:space="preserve">% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 04</t>
   </si>
   <si>
@@ -893,9 +899,6 @@
     <t xml:space="preserve">Entiat River Preston 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etienne Creek 01</t>
   </si>
   <si>
@@ -1784,9 +1787,6 @@
     <t xml:space="preserve">Nason Creek Lower 14</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Coarse Substrate,Temperature- Adult Spawning,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Temperature- Rearing,Cover- Wood,Temperature- Adult Holding</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Lower 15</t>
   </si>
   <si>
@@ -2378,9 +2378,6 @@
     <t xml:space="preserve">Stormy Creek 01</t>
   </si>
   <si>
-    <t xml:space="preserve">% Fines/Embeddedness,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stormy Creek 02</t>
   </si>
   <si>
@@ -2631,9 +2628,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Derby 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover- Wood,Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Derby 02</t>
@@ -3989,7 +3983,9 @@
       <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G19"/>
+      <c r="G19" t="n">
+        <v>0.222222222222222</v>
+      </c>
       <c r="H19" t="s">
         <v>53</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.488888888888889</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -4518,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.577777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -4571,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -4624,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.844444444444444</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -5133,7 +5129,9 @@
       <c r="F41" t="n">
         <v>3</v>
       </c>
-      <c r="G41"/>
+      <c r="G41" t="n">
+        <v>0.733333333333333</v>
+      </c>
       <c r="H41" t="s">
         <v>36</v>
       </c>
@@ -5141,10 +5139,10 @@
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L41" t="n">
         <v>95.0608657364311</v>
@@ -5581,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0.422222222222222</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="H50" t="s">
         <v>36</v>
@@ -5739,8 +5737,8 @@
       <c r="F53" t="n">
         <v>1</v>
       </c>
-      <c r="G53" t="e">
-        <v>#NUM!</v>
+      <c r="G53" t="n">
+        <v>0.866666666666667</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -5752,7 +5750,7 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L53" t="n">
         <v>74.0916722412414</v>
@@ -6322,8 +6320,8 @@
       <c r="F64" t="n">
         <v>2</v>
       </c>
-      <c r="G64" t="e">
-        <v>#NUM!</v>
+      <c r="G64" t="n">
+        <v>0.288888888888889</v>
       </c>
       <c r="H64" t="s">
         <v>36</v>
@@ -6332,7 +6330,7 @@
         <v>31</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
@@ -6531,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H68" t="s">
         <v>36</v>
@@ -6584,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H69" t="s">
         <v>36</v>
@@ -6637,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H70" t="s">
         <v>36</v>
@@ -6690,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.711111111111111</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="H71" t="s">
         <v>36</v>
@@ -6702,7 +6700,7 @@
         <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L71" t="n">
         <v>95.5495880146652</v>
@@ -7379,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H84" t="s">
         <v>141</v>
@@ -7432,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H85" t="s">
         <v>141</v>
@@ -7538,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.755555555555556</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="H87" t="s">
         <v>141</v>
@@ -7856,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H93" t="s">
         <v>36</v>
@@ -7909,7 +7907,7 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
@@ -7918,7 +7916,7 @@
         <v>31</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
         <v>21</v>
@@ -8014,8 +8012,8 @@
       <c r="F96" t="n">
         <v>2</v>
       </c>
-      <c r="G96" t="e">
-        <v>#NUM!</v>
+      <c r="G96" t="n">
+        <v>0.6</v>
       </c>
       <c r="H96" t="s">
         <v>36</v>
@@ -8024,7 +8022,7 @@
         <v>31</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
         <v>20</v>
@@ -8067,8 +8065,8 @@
       <c r="F97" t="n">
         <v>2</v>
       </c>
-      <c r="G97" t="e">
-        <v>#NUM!</v>
+      <c r="G97" t="n">
+        <v>0.866666666666667</v>
       </c>
       <c r="H97" t="s">
         <v>36</v>
@@ -8080,7 +8078,7 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L97" t="n">
         <v>87.6370389553426</v>
@@ -8265,7 +8263,9 @@
       <c r="F101" t="n">
         <v>2</v>
       </c>
-      <c r="G101"/>
+      <c r="G101" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H101" t="s">
         <v>167</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>31</v>
       </c>
       <c r="J101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
         <v>20</v>
@@ -8369,8 +8369,8 @@
       <c r="F103" t="n">
         <v>2</v>
       </c>
-      <c r="G103" t="e">
-        <v>#NUM!</v>
+      <c r="G103" t="n">
+        <v>0.711111111111111</v>
       </c>
       <c r="H103" t="s">
         <v>167</v>
@@ -8379,10 +8379,10 @@
         <v>31</v>
       </c>
       <c r="J103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -8528,8 +8528,8 @@
       <c r="F106" t="n">
         <v>2</v>
       </c>
-      <c r="G106" t="e">
-        <v>#NUM!</v>
+      <c r="G106" t="n">
+        <v>0.6</v>
       </c>
       <c r="H106" t="s">
         <v>36</v>
@@ -8538,7 +8538,7 @@
         <v>31</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K106" t="s">
         <v>20</v>
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.555555555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H107" t="s">
         <v>27</v>
@@ -8635,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.466666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H113" t="s">
         <v>27</v>
@@ -8953,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.555555555555556</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H114" t="s">
         <v>36</v>
@@ -9005,8 +9005,8 @@
       <c r="F115" t="n">
         <v>1</v>
       </c>
-      <c r="G115" t="e">
-        <v>#NUM!</v>
+      <c r="G115" t="n">
+        <v>0.555555555555556</v>
       </c>
       <c r="H115" t="s">
         <v>36</v>
@@ -9015,7 +9015,7 @@
         <v>31</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
         <v>20</v>
@@ -9111,8 +9111,8 @@
       <c r="F117" t="n">
         <v>1</v>
       </c>
-      <c r="G117" t="e">
-        <v>#NUM!</v>
+      <c r="G117" t="n">
+        <v>0.755555555555556</v>
       </c>
       <c r="H117" t="s">
         <v>36</v>
@@ -9121,10 +9121,10 @@
         <v>31</v>
       </c>
       <c r="J117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L117" t="n">
         <v>98.2745398602345</v>
@@ -9270,8 +9270,8 @@
       <c r="F120" t="n">
         <v>1</v>
       </c>
-      <c r="G120" t="e">
-        <v>#NUM!</v>
+      <c r="G120" t="n">
+        <v>0.711111111111111</v>
       </c>
       <c r="H120" t="s">
         <v>36</v>
@@ -9280,10 +9280,10 @@
         <v>31</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L120" t="n">
         <v>93.3825341858876</v>
@@ -9482,8 +9482,8 @@
       <c r="F124" t="n">
         <v>3</v>
       </c>
-      <c r="G124" t="e">
-        <v>#NUM!</v>
+      <c r="G124" t="n">
+        <v>0.266666666666667</v>
       </c>
       <c r="H124" t="s">
         <v>36</v>
@@ -9535,8 +9535,8 @@
       <c r="F125" t="n">
         <v>3</v>
       </c>
-      <c r="G125" t="e">
-        <v>#NUM!</v>
+      <c r="G125" t="n">
+        <v>0.4</v>
       </c>
       <c r="H125" t="s">
         <v>36</v>
@@ -9588,8 +9588,8 @@
       <c r="F126" t="n">
         <v>3</v>
       </c>
-      <c r="G126" t="e">
-        <v>#NUM!</v>
+      <c r="G126" t="n">
+        <v>0.444444444444444</v>
       </c>
       <c r="H126" t="s">
         <v>36</v>
@@ -9694,8 +9694,8 @@
       <c r="F128" t="n">
         <v>3</v>
       </c>
-      <c r="G128" t="e">
-        <v>#NUM!</v>
+      <c r="G128" t="n">
+        <v>0.288888888888889</v>
       </c>
       <c r="H128" t="s">
         <v>36</v>
@@ -9959,7 +9959,9 @@
       <c r="F133" t="n">
         <v>1</v>
       </c>
-      <c r="G133"/>
+      <c r="G133" t="n">
+        <v>0.355555555555556</v>
+      </c>
       <c r="H133" t="s">
         <v>27</v>
       </c>
@@ -10434,8 +10436,8 @@
       <c r="F142" t="n">
         <v>3</v>
       </c>
-      <c r="G142" t="e">
-        <v>#NUM!</v>
+      <c r="G142" t="n">
+        <v>0.288888888888889</v>
       </c>
       <c r="H142" t="s">
         <v>221</v>
@@ -10444,7 +10446,7 @@
         <v>31</v>
       </c>
       <c r="J142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K142" t="s">
         <v>20</v>
@@ -10487,8 +10489,8 @@
       <c r="F143" t="n">
         <v>3</v>
       </c>
-      <c r="G143" t="e">
-        <v>#NUM!</v>
+      <c r="G143" t="n">
+        <v>0.511111111111111</v>
       </c>
       <c r="H143" t="s">
         <v>221</v>
@@ -10497,7 +10499,7 @@
         <v>31</v>
       </c>
       <c r="J143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K143" t="s">
         <v>20</v>
@@ -10540,8 +10542,8 @@
       <c r="F144" t="n">
         <v>3</v>
       </c>
-      <c r="G144" t="e">
-        <v>#NUM!</v>
+      <c r="G144" t="n">
+        <v>0.488888888888889</v>
       </c>
       <c r="H144" t="s">
         <v>221</v>
@@ -10550,7 +10552,7 @@
         <v>31</v>
       </c>
       <c r="J144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K144" t="s">
         <v>20</v>
@@ -10790,7 +10792,7 @@
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="s">
         <v>36</v>
@@ -11636,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="H165" t="s">
         <v>252</v>
@@ -11645,10 +11647,10 @@
         <v>31</v>
       </c>
       <c r="J165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>84.2941629433307</v>
@@ -11689,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H166" t="s">
         <v>252</v>
@@ -11701,7 +11703,7 @@
         <v>21</v>
       </c>
       <c r="K166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L166" t="n">
         <v>74.029215410057</v>
@@ -11742,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.888888888888889</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H167" t="s">
         <v>252</v>
@@ -11751,7 +11753,7 @@
         <v>31</v>
       </c>
       <c r="J167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K167" t="s">
         <v>21</v>
@@ -11795,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.711111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H168" t="s">
         <v>252</v>
@@ -11848,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="s">
         <v>252</v>
@@ -11857,10 +11859,10 @@
         <v>31</v>
       </c>
       <c r="J169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>57.7977891495536</v>
@@ -11901,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.822222222222222</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="H170" t="s">
         <v>252</v>
@@ -11954,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H171" t="s">
         <v>252</v>
@@ -12007,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.822222222222222</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="H172" t="s">
         <v>252</v>
@@ -12060,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.822222222222222</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H173" t="s">
         <v>252</v>
@@ -12113,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.822222222222222</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H174" t="s">
         <v>252</v>
@@ -12165,8 +12167,8 @@
       <c r="F175" t="n">
         <v>1</v>
       </c>
-      <c r="G175" t="e">
-        <v>#NUM!</v>
+      <c r="G175" t="n">
+        <v>0.711111111111111</v>
       </c>
       <c r="H175" t="s">
         <v>252</v>
@@ -12175,10 +12177,10 @@
         <v>31</v>
       </c>
       <c r="J175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L175" t="n">
         <v>66.5615916752238</v>
@@ -12218,12 +12220,14 @@
       <c r="F176" t="n">
         <v>3</v>
       </c>
-      <c r="G176"/>
+      <c r="G176" t="n">
+        <v>0.511111111111111</v>
+      </c>
       <c r="H176" t="s">
         <v>221</v>
       </c>
       <c r="I176" t="s">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="J176" t="s">
         <v>21</v>
@@ -12252,7 +12256,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B177" t="s">
         <v>264</v>
@@ -12276,7 +12280,7 @@
         <v>221</v>
       </c>
       <c r="I177" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J177" t="s">
         <v>21</v>
@@ -12305,7 +12309,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>264</v>
@@ -12329,7 +12333,7 @@
         <v>221</v>
       </c>
       <c r="I178" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J178" t="s">
         <v>21</v>
@@ -12358,7 +12362,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>264</v>
@@ -12382,7 +12386,7 @@
         <v>221</v>
       </c>
       <c r="I179" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J179" t="s">
         <v>21</v>
@@ -12411,7 +12415,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>264</v>
@@ -12435,7 +12439,7 @@
         <v>221</v>
       </c>
       <c r="I180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J180" t="s">
         <v>21</v>
@@ -12464,7 +12468,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>264</v>
@@ -12488,7 +12492,7 @@
         <v>221</v>
       </c>
       <c r="I181" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J181" t="s">
         <v>21</v>
@@ -12517,7 +12521,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>264</v>
@@ -12534,12 +12538,14 @@
       <c r="F182" t="n">
         <v>3</v>
       </c>
-      <c r="G182"/>
+      <c r="G182" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H182" t="s">
         <v>221</v>
       </c>
       <c r="I182" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J182" t="s">
         <v>21</v>
@@ -12568,7 +12574,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>264</v>
@@ -12585,12 +12591,14 @@
       <c r="F183" t="n">
         <v>3</v>
       </c>
-      <c r="G183"/>
+      <c r="G183" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H183" t="s">
         <v>221</v>
       </c>
       <c r="I183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J183" t="s">
         <v>21</v>
@@ -12619,10 +12627,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C184" t="s">
         <v>98</v>
@@ -12636,12 +12644,14 @@
       <c r="F184" t="n">
         <v>1</v>
       </c>
-      <c r="G184"/>
+      <c r="G184" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H184" t="s">
         <v>27</v>
       </c>
       <c r="I184" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J184" t="s">
         <v>21</v>
@@ -12670,10 +12680,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C185" t="s">
         <v>98</v>
@@ -12687,12 +12697,14 @@
       <c r="F185" t="n">
         <v>1</v>
       </c>
-      <c r="G185"/>
+      <c r="G185" t="n">
+        <v>0.4</v>
+      </c>
       <c r="H185" t="s">
         <v>27</v>
       </c>
       <c r="I185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J185" t="s">
         <v>21</v>
@@ -12721,10 +12733,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B186" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C186" t="s">
         <v>98</v>
@@ -12738,12 +12750,14 @@
       <c r="F186" t="n">
         <v>1</v>
       </c>
-      <c r="G186"/>
+      <c r="G186" t="n">
+        <v>0.444444444444444</v>
+      </c>
       <c r="H186" t="s">
         <v>27</v>
       </c>
       <c r="I186" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J186" t="s">
         <v>21</v>
@@ -12772,10 +12786,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C187" t="s">
         <v>98</v>
@@ -12789,12 +12803,14 @@
       <c r="F187" t="n">
         <v>1</v>
       </c>
-      <c r="G187"/>
+      <c r="G187" t="n">
+        <v>0.511111111111111</v>
+      </c>
       <c r="H187" t="s">
         <v>27</v>
       </c>
       <c r="I187" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J187" t="s">
         <v>21</v>
@@ -12823,10 +12839,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C188" t="s">
         <v>98</v>
@@ -12841,13 +12857,13 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>0.866666666666667</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="H188" t="s">
         <v>27</v>
       </c>
       <c r="I188" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J188" t="s">
         <v>21</v>
@@ -12876,10 +12892,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C189" t="s">
         <v>98</v>
@@ -12894,13 +12910,13 @@
         <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H189" t="s">
         <v>27</v>
       </c>
       <c r="I189" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J189" t="s">
         <v>21</v>
@@ -12929,10 +12945,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C190" t="s">
         <v>98</v>
@@ -12947,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>0.688888888888889</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H190" t="s">
         <v>27</v>
@@ -12982,10 +12998,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C191" t="s">
         <v>98</v>
@@ -13000,13 +13016,13 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>0.733333333333333</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="H191" t="s">
         <v>27</v>
       </c>
       <c r="I191" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J191" t="s">
         <v>21</v>
@@ -13035,7 +13051,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>97</v>
@@ -13053,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H192" t="s">
         <v>27</v>
@@ -13088,7 +13104,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>97</v>
@@ -13106,13 +13122,13 @@
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>0.733333333333333</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="H193" t="s">
         <v>27</v>
       </c>
       <c r="I193" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J193" t="s">
         <v>21</v>
@@ -13141,7 +13157,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>97</v>
@@ -13159,13 +13175,13 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0.688888888888889</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H194" t="s">
         <v>27</v>
       </c>
       <c r="I194" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J194" t="s">
         <v>21</v>
@@ -13194,7 +13210,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B195" t="s">
         <v>97</v>
@@ -13212,13 +13228,13 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>0.688888888888889</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H195" t="s">
         <v>27</v>
       </c>
       <c r="I195" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J195" t="s">
         <v>21</v>
@@ -13247,7 +13263,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B196" t="s">
         <v>251</v>
@@ -13265,13 +13281,13 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H196" t="s">
         <v>27</v>
       </c>
       <c r="I196" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J196" t="s">
         <v>21</v>
@@ -13300,10 +13316,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
         <v>26</v>
@@ -13353,10 +13369,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" t="s">
         <v>296</v>
-      </c>
-      <c r="B198" t="s">
-        <v>295</v>
       </c>
       <c r="C198" t="s">
         <v>26</v>
@@ -13406,10 +13422,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
         <v>35</v>
@@ -13455,10 +13471,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B200" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
         <v>35</v>
@@ -13504,10 +13520,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C201" t="s">
         <v>35</v>
@@ -13557,10 +13573,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B202" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C202" t="s">
         <v>35</v>
@@ -13610,10 +13626,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B203" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C203" t="s">
         <v>26</v>
@@ -13659,7 +13675,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B204" t="s">
         <v>52</v>
@@ -13712,7 +13728,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B205" t="s">
         <v>52</v>
@@ -13765,7 +13781,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
         <v>213</v>
@@ -13818,7 +13834,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B207" t="s">
         <v>213</v>
@@ -13871,7 +13887,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B208" t="s">
         <v>213</v>
@@ -13924,7 +13940,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B209" t="s">
         <v>213</v>
@@ -13977,7 +13993,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B210" t="s">
         <v>57</v>
@@ -14030,7 +14046,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B211" t="s">
         <v>57</v>
@@ -14083,7 +14099,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B212" t="s">
         <v>57</v>
@@ -14136,10 +14152,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
         <v>26</v>
@@ -14185,10 +14201,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B214" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C214" t="s">
         <v>26</v>
@@ -14234,10 +14250,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>321</v>
+      </c>
+      <c r="B215" t="s">
         <v>320</v>
-      </c>
-      <c r="B215" t="s">
-        <v>319</v>
       </c>
       <c r="C215" t="s">
         <v>26</v>
@@ -14283,10 +14299,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B216" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C216" t="s">
         <v>26</v>
@@ -14332,10 +14348,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C217" t="s">
         <v>26</v>
@@ -14381,10 +14397,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C218" t="s">
         <v>26</v>
@@ -14430,7 +14446,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B219" t="s">
         <v>198</v>
@@ -14483,7 +14499,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
@@ -14536,7 +14552,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B221" t="s">
         <v>107</v>
@@ -14589,10 +14605,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B222" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -14642,10 +14658,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>330</v>
+      </c>
+      <c r="B223" t="s">
         <v>329</v>
-      </c>
-      <c r="B223" t="s">
-        <v>328</v>
       </c>
       <c r="C223" t="s">
         <v>35</v>
@@ -14695,10 +14711,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C224" t="s">
         <v>35</v>
@@ -14748,10 +14764,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C225" t="s">
         <v>35</v>
@@ -14801,10 +14817,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -14854,10 +14870,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B227" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -14907,10 +14923,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B228" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C228" t="s">
         <v>35</v>
@@ -14960,10 +14976,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B229" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C229" t="s">
         <v>35</v>
@@ -15013,10 +15029,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B230" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C230" t="s">
         <v>35</v>
@@ -15066,7 +15082,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B231" t="s">
         <v>213</v>
@@ -15119,7 +15135,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B232" t="s">
         <v>213</v>
@@ -15172,7 +15188,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
         <v>213</v>
@@ -15225,7 +15241,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B234" t="s">
         <v>213</v>
@@ -15278,7 +15294,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B235" t="s">
         <v>213</v>
@@ -15331,7 +15347,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B236" t="s">
         <v>213</v>
@@ -15384,10 +15400,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B237" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -15437,10 +15453,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>346</v>
+      </c>
+      <c r="B238" t="s">
         <v>345</v>
-      </c>
-      <c r="B238" t="s">
-        <v>344</v>
       </c>
       <c r="C238" t="s">
         <v>35</v>
@@ -15490,10 +15506,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B239" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
@@ -15543,10 +15559,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B240" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
@@ -15596,7 +15612,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B241" t="s">
         <v>25</v>
@@ -15649,10 +15665,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B242" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C242" t="s">
         <v>35</v>
@@ -15667,7 +15683,7 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H242" t="s">
         <v>36</v>
@@ -15676,7 +15692,7 @@
         <v>31</v>
       </c>
       <c r="J242" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K242" t="s">
         <v>21</v>
@@ -15702,7 +15718,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B243" t="s">
         <v>118</v>
@@ -15755,10 +15771,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B244" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C244" t="s">
         <v>26</v>
@@ -15808,10 +15824,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B245" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C245" t="s">
         <v>98</v>
@@ -15861,10 +15877,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>356</v>
+      </c>
+      <c r="B246" t="s">
         <v>355</v>
-      </c>
-      <c r="B246" t="s">
-        <v>354</v>
       </c>
       <c r="C246" t="s">
         <v>98</v>
@@ -15914,7 +15930,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B247" t="s">
         <v>78</v>
@@ -15967,10 +15983,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B248" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -15984,7 +16000,9 @@
       <c r="F248" t="n">
         <v>3</v>
       </c>
-      <c r="G248"/>
+      <c r="G248" t="n">
+        <v>0.288888888888889</v>
+      </c>
       <c r="H248" t="s">
         <v>36</v>
       </c>
@@ -16018,10 +16036,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>360</v>
+      </c>
+      <c r="B249" t="s">
         <v>359</v>
-      </c>
-      <c r="B249" t="s">
-        <v>358</v>
       </c>
       <c r="C249" t="s">
         <v>26</v>
@@ -16035,7 +16053,9 @@
       <c r="F249" t="n">
         <v>3</v>
       </c>
-      <c r="G249"/>
+      <c r="G249" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H249" t="s">
         <v>36</v>
       </c>
@@ -16069,10 +16089,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B250" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C250" t="s">
         <v>26</v>
@@ -16086,7 +16106,9 @@
       <c r="F250" t="n">
         <v>3</v>
       </c>
-      <c r="G250"/>
+      <c r="G250" t="n">
+        <v>0.377777777777778</v>
+      </c>
       <c r="H250" t="s">
         <v>36</v>
       </c>
@@ -16120,10 +16142,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B251" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C251" t="s">
         <v>26</v>
@@ -16137,7 +16159,9 @@
       <c r="F251" t="n">
         <v>3</v>
       </c>
-      <c r="G251"/>
+      <c r="G251" t="n">
+        <v>0.466666666666667</v>
+      </c>
       <c r="H251" t="s">
         <v>36</v>
       </c>
@@ -16171,10 +16195,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B252" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C252" t="s">
         <v>26</v>
@@ -16188,7 +16212,9 @@
       <c r="F252" t="n">
         <v>3</v>
       </c>
-      <c r="G252"/>
+      <c r="G252" t="n">
+        <v>0.555555555555556</v>
+      </c>
       <c r="H252" t="s">
         <v>36</v>
       </c>
@@ -16222,10 +16248,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B253" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C253" t="s">
         <v>26</v>
@@ -16239,7 +16265,9 @@
       <c r="F253" t="n">
         <v>3</v>
       </c>
-      <c r="G253"/>
+      <c r="G253" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H253" t="s">
         <v>36</v>
       </c>
@@ -16273,10 +16301,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B254" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C254" t="s">
         <v>26</v>
@@ -16290,7 +16318,9 @@
       <c r="F254" t="n">
         <v>3</v>
       </c>
-      <c r="G254"/>
+      <c r="G254" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H254" t="s">
         <v>36</v>
       </c>
@@ -16324,10 +16354,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B255" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C255" t="s">
         <v>26</v>
@@ -16341,7 +16371,9 @@
       <c r="F255" t="n">
         <v>3</v>
       </c>
-      <c r="G255"/>
+      <c r="G255" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H255" t="s">
         <v>36</v>
       </c>
@@ -16375,10 +16407,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B256" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C256" t="s">
         <v>26</v>
@@ -16424,10 +16456,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>369</v>
+      </c>
+      <c r="B257" t="s">
         <v>368</v>
-      </c>
-      <c r="B257" t="s">
-        <v>367</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -16473,10 +16505,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B258" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -16522,10 +16554,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B259" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -16571,10 +16603,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B260" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -16620,10 +16652,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B261" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -16669,10 +16701,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B262" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -16718,10 +16750,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B263" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -16767,10 +16799,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B264" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -16816,10 +16848,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B265" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -16865,10 +16897,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B266" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -16914,10 +16946,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B267" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -16963,10 +16995,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B268" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -17012,10 +17044,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B269" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -17061,10 +17093,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B270" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -17110,10 +17142,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B271" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -17159,10 +17191,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B272" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C272" t="s">
         <v>98</v>
@@ -17212,10 +17244,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B273" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -17265,10 +17297,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
+        <v>388</v>
+      </c>
+      <c r="B274" t="s">
         <v>387</v>
-      </c>
-      <c r="B274" t="s">
-        <v>386</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -17318,10 +17350,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -17371,10 +17403,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B276" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -17420,10 +17452,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B277" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C277" t="s">
         <v>19</v>
@@ -17461,10 +17493,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278" t="s">
         <v>393</v>
-      </c>
-      <c r="B278" t="s">
-        <v>392</v>
       </c>
       <c r="C278" t="s">
         <v>19</v>
@@ -17502,10 +17534,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B279" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C279" t="s">
         <v>19</v>
@@ -17543,10 +17575,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C280" t="s">
         <v>19</v>
@@ -17584,10 +17616,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B281" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C281" t="s">
         <v>19</v>
@@ -17625,10 +17657,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B282" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C282" t="s">
         <v>19</v>
@@ -17666,10 +17698,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B283" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C283" t="s">
         <v>19</v>
@@ -17707,10 +17739,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B284" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C284" t="s">
         <v>19</v>
@@ -17748,10 +17780,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B285" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
         <v>19</v>
@@ -17789,7 +17821,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B286" t="s">
         <v>107</v>
@@ -17842,10 +17874,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B287" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C287" t="s">
         <v>98</v>
@@ -17895,7 +17927,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B288" t="s">
         <v>251</v>
@@ -17912,8 +17944,8 @@
       <c r="F288" t="n">
         <v>1</v>
       </c>
-      <c r="G288" t="e">
-        <v>#NUM!</v>
+      <c r="G288" t="n">
+        <v>0.955555555555556</v>
       </c>
       <c r="H288" t="s">
         <v>252</v>
@@ -17925,7 +17957,7 @@
         <v>20</v>
       </c>
       <c r="K288" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L288" t="n">
         <v>0</v>
@@ -17948,10 +17980,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B289" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C289" t="s">
         <v>35</v>
@@ -18001,10 +18033,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B290" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C290" t="s">
         <v>35</v>
@@ -18054,10 +18086,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B291" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C291" t="s">
         <v>35</v>
@@ -18107,10 +18139,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B292" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C292" t="s">
         <v>35</v>
@@ -18160,10 +18192,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B293" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C293" t="s">
         <v>35</v>
@@ -18213,10 +18245,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C294" t="s">
         <v>35</v>
@@ -18266,10 +18298,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B295" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C295" t="s">
         <v>26</v>
@@ -18283,7 +18315,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H295" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I295" t="s">
         <v>31</v>
@@ -18315,7 +18347,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B296" t="s">
         <v>118</v>
@@ -18368,10 +18400,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B297" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C297" t="s">
         <v>26</v>
@@ -18417,10 +18449,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B298" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C298" t="s">
         <v>26</v>
@@ -18466,10 +18498,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B299" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C299" t="s">
         <v>26</v>
@@ -18515,10 +18547,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B300" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C300" t="s">
         <v>26</v>
@@ -18564,7 +18596,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B301" t="s">
         <v>78</v>
@@ -18581,7 +18613,9 @@
       <c r="F301" t="n">
         <v>3</v>
       </c>
-      <c r="G301"/>
+      <c r="G301" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="H301" t="s">
         <v>36</v>
       </c>
@@ -18589,7 +18623,7 @@
         <v>31</v>
       </c>
       <c r="J301" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K301" t="s">
         <v>20</v>
@@ -18615,7 +18649,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B302" t="s">
         <v>78</v>
@@ -18668,7 +18702,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B303" t="s">
         <v>78</v>
@@ -18721,7 +18755,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B304" t="s">
         <v>78</v>
@@ -18774,7 +18808,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B305" t="s">
         <v>78</v>
@@ -18827,7 +18861,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B306" t="s">
         <v>78</v>
@@ -18880,7 +18914,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B307" t="s">
         <v>78</v>
@@ -18933,7 +18967,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B308" t="s">
         <v>78</v>
@@ -18986,7 +19020,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B309" t="s">
         <v>78</v>
@@ -19039,7 +19073,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B310" t="s">
         <v>78</v>
@@ -19092,7 +19126,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B311" t="s">
         <v>78</v>
@@ -19145,10 +19179,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B312" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" t="s">
         <v>35</v>
@@ -19198,10 +19232,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B313" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C313" t="s">
         <v>35</v>
@@ -19215,7 +19249,9 @@
       <c r="F313" t="n">
         <v>3</v>
       </c>
-      <c r="G313"/>
+      <c r="G313" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H313" t="s">
         <v>36</v>
       </c>
@@ -19249,10 +19285,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>433</v>
+      </c>
+      <c r="B314" t="s">
         <v>432</v>
-      </c>
-      <c r="B314" t="s">
-        <v>431</v>
       </c>
       <c r="C314" t="s">
         <v>35</v>
@@ -19302,10 +19338,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C315" t="s">
         <v>35</v>
@@ -19355,10 +19391,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B316" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C316" t="s">
         <v>35</v>
@@ -19408,10 +19444,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B317" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C317" t="s">
         <v>35</v>
@@ -19461,10 +19497,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C318" t="s">
         <v>35</v>
@@ -19479,7 +19515,7 @@
         <v>3</v>
       </c>
       <c r="G318" t="n">
-        <v>0.6</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H318" t="s">
         <v>36</v>
@@ -19514,10 +19550,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B319" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
@@ -19563,7 +19599,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B320" t="s">
         <v>191</v>
@@ -19616,7 +19652,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B321" t="s">
         <v>120</v>
@@ -19669,10 +19705,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B322" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -19688,7 +19724,7 @@
       </c>
       <c r="G322"/>
       <c r="H322" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I322" t="s">
         <v>31</v>
@@ -19720,10 +19756,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B323" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C323" t="s">
         <v>26</v>
@@ -19738,10 +19774,10 @@
         <v>1</v>
       </c>
       <c r="G323" t="n">
-        <v>0.6</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H323" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I323" t="s">
         <v>31</v>
@@ -19773,10 +19809,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B324" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C324" t="s">
         <v>26</v>
@@ -19794,7 +19830,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="H324" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I324" t="s">
         <v>31</v>
@@ -19826,10 +19862,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B325" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -19847,7 +19883,7 @@
         <v>0.6</v>
       </c>
       <c r="H325" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I325" t="s">
         <v>31</v>
@@ -19879,10 +19915,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B326" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C326" t="s">
         <v>26</v>
@@ -19900,7 +19936,7 @@
         <v>0.555555555555556</v>
       </c>
       <c r="H326" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I326" t="s">
         <v>31</v>
@@ -19932,10 +19968,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B327" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C327" t="s">
         <v>26</v>
@@ -19950,10 +19986,10 @@
         <v>1</v>
       </c>
       <c r="G327" t="n">
-        <v>0.555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="H327" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I327" t="s">
         <v>31</v>
@@ -19985,10 +20021,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B328" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C328" t="s">
         <v>26</v>
@@ -20034,10 +20070,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B329" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C329" t="s">
         <v>26</v>
@@ -20083,10 +20119,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B330" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C330" t="s">
         <v>26</v>
@@ -20132,10 +20168,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B331" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C331" t="s">
         <v>26</v>
@@ -20153,7 +20189,7 @@
         <v>#NUM!</v>
       </c>
       <c r="H331" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I331" t="s">
         <v>31</v>
@@ -20185,10 +20221,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B332" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C332" t="s">
         <v>35</v>
@@ -20238,10 +20274,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
+        <v>457</v>
+      </c>
+      <c r="B333" t="s">
         <v>456</v>
-      </c>
-      <c r="B333" t="s">
-        <v>455</v>
       </c>
       <c r="C333" t="s">
         <v>35</v>
@@ -20291,10 +20327,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B334" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C334" t="s">
         <v>35</v>
@@ -20344,10 +20380,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B335" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C335" t="s">
         <v>35</v>
@@ -20397,10 +20433,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B336" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C336" t="s">
         <v>35</v>
@@ -20450,10 +20486,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B337" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C337" t="s">
         <v>35</v>
@@ -20503,7 +20539,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B338" t="s">
         <v>228</v>
@@ -20552,7 +20588,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B339" t="s">
         <v>225</v>
@@ -20601,7 +20637,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B340" t="s">
         <v>225</v>
@@ -20650,10 +20686,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B341" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C341" t="s">
         <v>19</v>
@@ -20691,10 +20727,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
+        <v>467</v>
+      </c>
+      <c r="B342" t="s">
         <v>466</v>
-      </c>
-      <c r="B342" t="s">
-        <v>465</v>
       </c>
       <c r="C342" t="s">
         <v>19</v>
@@ -20732,10 +20768,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B343" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C343" t="s">
         <v>19</v>
@@ -20773,10 +20809,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B344" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C344" t="s">
         <v>98</v>
@@ -20826,10 +20862,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B345" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C345" t="s">
         <v>98</v>
@@ -20879,10 +20915,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B346" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C346" t="s">
         <v>98</v>
@@ -20897,7 +20933,7 @@
         <v>3</v>
       </c>
       <c r="G346" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H346" t="s">
         <v>36</v>
@@ -20932,10 +20968,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B347" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C347" t="s">
         <v>98</v>
@@ -20985,10 +21021,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B348" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C348" t="s">
         <v>98</v>
@@ -21002,7 +21038,9 @@
       <c r="F348" t="n">
         <v>3</v>
       </c>
-      <c r="G348"/>
+      <c r="G348" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H348" t="s">
         <v>36</v>
       </c>
@@ -21036,10 +21074,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B349" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C349" t="s">
         <v>98</v>
@@ -21053,7 +21091,9 @@
       <c r="F349" t="n">
         <v>3</v>
       </c>
-      <c r="G349"/>
+      <c r="G349" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H349" t="s">
         <v>36</v>
       </c>
@@ -21087,10 +21127,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B350" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C350" t="s">
         <v>98</v>
@@ -21104,7 +21144,9 @@
       <c r="F350" t="n">
         <v>3</v>
       </c>
-      <c r="G350"/>
+      <c r="G350" t="n">
+        <v>0.644444444444444</v>
+      </c>
       <c r="H350" t="s">
         <v>36</v>
       </c>
@@ -21138,10 +21180,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B351" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C351" t="s">
         <v>98</v>
@@ -21155,7 +21197,9 @@
       <c r="F351" t="n">
         <v>3</v>
       </c>
-      <c r="G351"/>
+      <c r="G351" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H351" t="s">
         <v>36</v>
       </c>
@@ -21189,10 +21233,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B352" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C352" t="s">
         <v>98</v>
@@ -21206,7 +21250,9 @@
       <c r="F352" t="n">
         <v>3</v>
       </c>
-      <c r="G352"/>
+      <c r="G352" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H352" t="s">
         <v>36</v>
       </c>
@@ -21240,10 +21286,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B353" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C353" t="s">
         <v>98</v>
@@ -21257,7 +21303,9 @@
       <c r="F353" t="n">
         <v>3</v>
       </c>
-      <c r="G353"/>
+      <c r="G353" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H353" t="s">
         <v>36</v>
       </c>
@@ -21291,7 +21339,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B354" t="s">
         <v>210</v>
@@ -21344,7 +21392,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B355" t="s">
         <v>210</v>
@@ -21397,7 +21445,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B356" t="s">
         <v>210</v>
@@ -21450,7 +21498,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B357" t="s">
         <v>210</v>
@@ -21503,7 +21551,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B358" t="s">
         <v>210</v>
@@ -21556,7 +21604,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B359" t="s">
         <v>191</v>
@@ -21609,10 +21657,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B360" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C360" t="s">
         <v>35</v>
@@ -21662,10 +21710,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
+        <v>487</v>
+      </c>
+      <c r="B361" t="s">
         <v>486</v>
-      </c>
-      <c r="B361" t="s">
-        <v>485</v>
       </c>
       <c r="C361" t="s">
         <v>35</v>
@@ -21715,10 +21763,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B362" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C362" t="s">
         <v>35</v>
@@ -21768,10 +21816,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B363" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C363" t="s">
         <v>35</v>
@@ -21821,10 +21869,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B364" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C364" t="s">
         <v>35</v>
@@ -21874,10 +21922,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B365" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C365" t="s">
         <v>35</v>
@@ -21927,10 +21975,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B366" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C366" t="s">
         <v>35</v>
@@ -21980,10 +22028,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B367" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C367" t="s">
         <v>35</v>
@@ -22033,10 +22081,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B368" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C368" t="s">
         <v>35</v>
@@ -22084,10 +22132,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
+        <v>496</v>
+      </c>
+      <c r="B369" t="s">
         <v>495</v>
-      </c>
-      <c r="B369" t="s">
-        <v>494</v>
       </c>
       <c r="C369" t="s">
         <v>35</v>
@@ -22137,10 +22185,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B370" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C370" t="s">
         <v>35</v>
@@ -22190,10 +22238,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B371" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C371" t="s">
         <v>35</v>
@@ -22243,10 +22291,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B372" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C372" t="s">
         <v>35</v>
@@ -22296,10 +22344,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B373" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C373" t="s">
         <v>35</v>
@@ -22349,10 +22397,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B374" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C374" t="s">
         <v>35</v>
@@ -22402,10 +22450,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B375" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C375" t="s">
         <v>35</v>
@@ -22455,10 +22503,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B376" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C376" t="s">
         <v>35</v>
@@ -22508,10 +22556,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B377" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C377" t="s">
         <v>35</v>
@@ -22526,7 +22574,7 @@
         <v>1</v>
       </c>
       <c r="G377" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H377" t="s">
         <v>36</v>
@@ -22535,7 +22583,7 @@
         <v>31</v>
       </c>
       <c r="J377" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K377" t="s">
         <v>21</v>
@@ -22561,10 +22609,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B378" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C378" t="s">
         <v>35</v>
@@ -22614,10 +22662,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B379" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C379" t="s">
         <v>35</v>
@@ -22667,10 +22715,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B380" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C380" t="s">
         <v>35</v>
@@ -22720,10 +22768,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B381" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C381" t="s">
         <v>35</v>
@@ -22773,10 +22821,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B382" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C382" t="s">
         <v>35</v>
@@ -22826,10 +22874,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B383" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C383" t="s">
         <v>35</v>
@@ -22879,10 +22927,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B384" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C384" t="s">
         <v>35</v>
@@ -22932,10 +22980,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B385" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C385" t="s">
         <v>35</v>
@@ -22985,10 +23033,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
+        <v>514</v>
+      </c>
+      <c r="B386" t="s">
         <v>513</v>
-      </c>
-      <c r="B386" t="s">
-        <v>512</v>
       </c>
       <c r="C386" t="s">
         <v>35</v>
@@ -23038,10 +23086,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B387" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C387" t="s">
         <v>35</v>
@@ -23091,10 +23139,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B388" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C388" t="s">
         <v>35</v>
@@ -23144,10 +23192,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B389" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C389" t="s">
         <v>35</v>
@@ -23197,10 +23245,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B390" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C390" t="s">
         <v>35</v>
@@ -23250,10 +23298,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B391" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C391" t="s">
         <v>35</v>
@@ -23303,10 +23351,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
+        <v>521</v>
+      </c>
+      <c r="B392" t="s">
         <v>520</v>
-      </c>
-      <c r="B392" t="s">
-        <v>519</v>
       </c>
       <c r="C392" t="s">
         <v>35</v>
@@ -23356,10 +23404,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B393" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C393" t="s">
         <v>35</v>
@@ -23374,7 +23422,7 @@
         <v>1</v>
       </c>
       <c r="G393" t="n">
-        <v>0.511111111111111</v>
+        <v>0.488888888888889</v>
       </c>
       <c r="H393" t="s">
         <v>36</v>
@@ -23409,10 +23457,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B394" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C394" t="s">
         <v>35</v>
@@ -23427,7 +23475,7 @@
         <v>1</v>
       </c>
       <c r="G394" t="n">
-        <v>0.644444444444444</v>
+        <v>0.622222222222222</v>
       </c>
       <c r="H394" t="s">
         <v>36</v>
@@ -23462,10 +23510,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B395" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C395" t="s">
         <v>35</v>
@@ -23480,7 +23528,7 @@
         <v>1</v>
       </c>
       <c r="G395" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H395" t="s">
         <v>36</v>
@@ -23515,10 +23563,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B396" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C396" t="s">
         <v>35</v>
@@ -23533,7 +23581,7 @@
         <v>1</v>
       </c>
       <c r="G396" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H396" t="s">
         <v>36</v>
@@ -23568,10 +23616,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B397" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C397" t="s">
         <v>35</v>
@@ -23621,10 +23669,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
+        <v>528</v>
+      </c>
+      <c r="B398" t="s">
         <v>527</v>
-      </c>
-      <c r="B398" t="s">
-        <v>526</v>
       </c>
       <c r="C398" t="s">
         <v>35</v>
@@ -23674,10 +23722,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B399" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C399" t="s">
         <v>35</v>
@@ -23727,10 +23775,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B400" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C400" t="s">
         <v>35</v>
@@ -23780,10 +23828,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B401" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C401" t="s">
         <v>35</v>
@@ -23833,10 +23881,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
+        <v>533</v>
+      </c>
+      <c r="B402" t="s">
         <v>532</v>
-      </c>
-      <c r="B402" t="s">
-        <v>531</v>
       </c>
       <c r="C402" t="s">
         <v>35</v>
@@ -23886,10 +23934,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B403" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C403" t="s">
         <v>35</v>
@@ -23939,10 +23987,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B404" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C404" t="s">
         <v>35</v>
@@ -23992,10 +24040,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B405" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C405" t="s">
         <v>35</v>
@@ -24045,10 +24093,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B406" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C406" t="s">
         <v>35</v>
@@ -24098,10 +24146,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B407" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C407" t="s">
         <v>35</v>
@@ -24151,10 +24199,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B408" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C408" t="s">
         <v>35</v>
@@ -24204,10 +24252,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B409" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C409" t="s">
         <v>35</v>
@@ -24257,10 +24305,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B410" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C410" t="s">
         <v>35</v>
@@ -24310,10 +24358,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
+        <v>543</v>
+      </c>
+      <c r="B411" t="s">
         <v>542</v>
-      </c>
-      <c r="B411" t="s">
-        <v>541</v>
       </c>
       <c r="C411" t="s">
         <v>35</v>
@@ -24363,10 +24411,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B412" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C412" t="s">
         <v>35</v>
@@ -24416,10 +24464,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B413" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C413" t="s">
         <v>35</v>
@@ -24469,10 +24517,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B414" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C414" t="s">
         <v>26</v>
@@ -24522,10 +24570,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B415" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C415" t="s">
         <v>26</v>
@@ -24575,7 +24623,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B416" t="s">
         <v>118</v>
@@ -24592,8 +24640,8 @@
       <c r="F416" t="n">
         <v>2</v>
       </c>
-      <c r="G416" t="e">
-        <v>#NUM!</v>
+      <c r="G416" t="n">
+        <v>0.777777777777778</v>
       </c>
       <c r="H416" t="s">
         <v>36</v>
@@ -24628,7 +24676,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B417" t="s">
         <v>118</v>
@@ -24645,8 +24693,8 @@
       <c r="F417" t="n">
         <v>2</v>
       </c>
-      <c r="G417" t="e">
-        <v>#NUM!</v>
+      <c r="G417" t="n">
+        <v>0.844444444444444</v>
       </c>
       <c r="H417" t="s">
         <v>36</v>
@@ -24658,7 +24706,7 @@
         <v>20</v>
       </c>
       <c r="K417" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L417" t="n">
         <v>0</v>
@@ -24681,7 +24729,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B418" t="s">
         <v>159</v>
@@ -24698,8 +24746,8 @@
       <c r="F418" t="n">
         <v>2</v>
       </c>
-      <c r="G418" t="e">
-        <v>#NUM!</v>
+      <c r="G418" t="n">
+        <v>0.822222222222222</v>
       </c>
       <c r="H418" t="s">
         <v>36</v>
@@ -24711,7 +24759,7 @@
         <v>20</v>
       </c>
       <c r="K418" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L418" t="n">
         <v>100</v>
@@ -24734,7 +24782,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B419" t="s">
         <v>159</v>
@@ -24787,7 +24835,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B420" t="s">
         <v>95</v>
@@ -24804,7 +24852,9 @@
       <c r="F420" t="n">
         <v>3</v>
       </c>
-      <c r="G420"/>
+      <c r="G420" t="n">
+        <v>0.288888888888889</v>
+      </c>
       <c r="H420" t="s">
         <v>36</v>
       </c>
@@ -24838,7 +24888,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B421" t="s">
         <v>95</v>
@@ -24855,7 +24905,9 @@
       <c r="F421" t="n">
         <v>3</v>
       </c>
-      <c r="G421"/>
+      <c r="G421" t="n">
+        <v>0.244444444444444</v>
+      </c>
       <c r="H421" t="s">
         <v>36</v>
       </c>
@@ -24889,7 +24941,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B422" t="s">
         <v>95</v>
@@ -24906,7 +24958,9 @@
       <c r="F422" t="n">
         <v>3</v>
       </c>
-      <c r="G422"/>
+      <c r="G422" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H422" t="s">
         <v>36</v>
       </c>
@@ -24940,7 +24994,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B423" t="s">
         <v>95</v>
@@ -24957,7 +25011,9 @@
       <c r="F423" t="n">
         <v>3</v>
       </c>
-      <c r="G423"/>
+      <c r="G423" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H423" t="s">
         <v>36</v>
       </c>
@@ -24991,7 +25047,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B424" t="s">
         <v>95</v>
@@ -25008,7 +25064,9 @@
       <c r="F424" t="n">
         <v>3</v>
       </c>
-      <c r="G424"/>
+      <c r="G424" t="n">
+        <v>0.244444444444444</v>
+      </c>
       <c r="H424" t="s">
         <v>36</v>
       </c>
@@ -25042,7 +25100,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B425" t="s">
         <v>95</v>
@@ -25059,7 +25117,9 @@
       <c r="F425" t="n">
         <v>3</v>
       </c>
-      <c r="G425"/>
+      <c r="G425" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="H425" t="s">
         <v>36</v>
       </c>
@@ -25093,7 +25153,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B426" t="s">
         <v>95</v>
@@ -25110,7 +25170,9 @@
       <c r="F426" t="n">
         <v>3</v>
       </c>
-      <c r="G426"/>
+      <c r="G426" t="n">
+        <v>0.4</v>
+      </c>
       <c r="H426" t="s">
         <v>36</v>
       </c>
@@ -25144,10 +25206,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B427" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C427" t="s">
         <v>26</v>
@@ -25157,7 +25219,9 @@
       </c>
       <c r="E427"/>
       <c r="F427"/>
-      <c r="G427"/>
+      <c r="G427" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H427" t="s">
         <v>36</v>
       </c>
@@ -25191,10 +25255,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
+        <v>561</v>
+      </c>
+      <c r="B428" t="s">
         <v>560</v>
-      </c>
-      <c r="B428" t="s">
-        <v>559</v>
       </c>
       <c r="C428" t="s">
         <v>26</v>
@@ -25240,10 +25304,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B429" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C429" t="s">
         <v>26</v>
@@ -25289,10 +25353,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B430" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C430" t="s">
         <v>35</v>
@@ -25342,10 +25406,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B431" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C431" t="s">
         <v>98</v>
@@ -25395,10 +25459,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
+        <v>566</v>
+      </c>
+      <c r="B432" t="s">
         <v>565</v>
-      </c>
-      <c r="B432" t="s">
-        <v>564</v>
       </c>
       <c r="C432" t="s">
         <v>98</v>
@@ -25448,10 +25512,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B433" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C433" t="s">
         <v>26</v>
@@ -25466,7 +25530,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="n">
-        <v>0.555555555555556</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H433" t="s">
         <v>36</v>
@@ -25501,10 +25565,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
+        <v>569</v>
+      </c>
+      <c r="B434" t="s">
         <v>568</v>
-      </c>
-      <c r="B434" t="s">
-        <v>567</v>
       </c>
       <c r="C434" t="s">
         <v>26</v>
@@ -25518,7 +25582,9 @@
       <c r="F434" t="n">
         <v>2</v>
       </c>
-      <c r="G434"/>
+      <c r="G434" t="n">
+        <v>0.688888888888889</v>
+      </c>
       <c r="H434" t="s">
         <v>36</v>
       </c>
@@ -25526,7 +25592,7 @@
         <v>31</v>
       </c>
       <c r="J434" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K434" t="s">
         <v>20</v>
@@ -25552,7 +25618,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B435" t="s">
         <v>107</v>
@@ -25570,13 +25636,13 @@
         <v>1</v>
       </c>
       <c r="G435" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H435" t="s">
         <v>53</v>
       </c>
       <c r="I435" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J435" t="s">
         <v>21</v>
@@ -25605,7 +25671,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B436" t="s">
         <v>107</v>
@@ -25623,13 +25689,13 @@
         <v>1</v>
       </c>
       <c r="G436" t="n">
-        <v>0.888888888888889</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H436" t="s">
         <v>53</v>
       </c>
       <c r="I436" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J436" t="s">
         <v>21</v>
@@ -25658,7 +25724,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B437" t="s">
         <v>107</v>
@@ -25676,13 +25742,13 @@
         <v>1</v>
       </c>
       <c r="G437" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H437" t="s">
         <v>53</v>
       </c>
       <c r="I437" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J437" t="s">
         <v>21</v>
@@ -25711,7 +25777,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B438" t="s">
         <v>107</v>
@@ -25735,7 +25801,7 @@
         <v>53</v>
       </c>
       <c r="I438" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J438" t="s">
         <v>21</v>
@@ -25764,7 +25830,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B439" t="s">
         <v>107</v>
@@ -25788,7 +25854,7 @@
         <v>53</v>
       </c>
       <c r="I439" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J439" t="s">
         <v>21</v>
@@ -25817,7 +25883,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B440" t="s">
         <v>107</v>
@@ -25841,7 +25907,7 @@
         <v>53</v>
       </c>
       <c r="I440" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J440" t="s">
         <v>21</v>
@@ -25870,7 +25936,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B441" t="s">
         <v>107</v>
@@ -25894,7 +25960,7 @@
         <v>53</v>
       </c>
       <c r="I441" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J441" t="s">
         <v>21</v>
@@ -25923,7 +25989,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B442" t="s">
         <v>107</v>
@@ -25941,13 +26007,13 @@
         <v>1</v>
       </c>
       <c r="G442" t="n">
-        <v>0.488888888888889</v>
+        <v>0.422222222222222</v>
       </c>
       <c r="H442" t="s">
         <v>53</v>
       </c>
       <c r="I442" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J442" t="s">
         <v>21</v>
@@ -25976,7 +26042,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B443" t="s">
         <v>107</v>
@@ -26000,7 +26066,7 @@
         <v>53</v>
       </c>
       <c r="I443" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J443" t="s">
         <v>21</v>
@@ -26029,7 +26095,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B444" t="s">
         <v>107</v>
@@ -26053,7 +26119,7 @@
         <v>53</v>
       </c>
       <c r="I444" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J444" t="s">
         <v>21</v>
@@ -26082,7 +26148,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B445" t="s">
         <v>107</v>
@@ -26100,13 +26166,13 @@
         <v>1</v>
       </c>
       <c r="G445" t="n">
-        <v>0.533333333333333</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H445" t="s">
         <v>53</v>
       </c>
       <c r="I445" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J445" t="s">
         <v>21</v>
@@ -26135,7 +26201,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B446" t="s">
         <v>107</v>
@@ -26159,7 +26225,7 @@
         <v>53</v>
       </c>
       <c r="I446" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J446" t="s">
         <v>21</v>
@@ -26188,7 +26254,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B447" t="s">
         <v>107</v>
@@ -26212,7 +26278,7 @@
         <v>53</v>
       </c>
       <c r="I447" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J447" t="s">
         <v>21</v>
@@ -26241,7 +26307,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B448" t="s">
         <v>107</v>
@@ -26258,12 +26324,14 @@
       <c r="F448" t="n">
         <v>1</v>
       </c>
-      <c r="G448"/>
+      <c r="G448" t="n">
+        <v>0.422222222222222</v>
+      </c>
       <c r="H448" t="s">
         <v>53</v>
       </c>
       <c r="I448" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J448" t="s">
         <v>21</v>
@@ -26316,7 +26384,7 @@
         <v>53</v>
       </c>
       <c r="I449" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J449" t="s">
         <v>21</v>
@@ -26348,7 +26416,7 @@
         <v>592</v>
       </c>
       <c r="B450" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C450" t="s">
         <v>26</v>
@@ -26363,7 +26431,7 @@
         <v>3</v>
       </c>
       <c r="G450" t="n">
-        <v>0.6</v>
+        <v>0.577777777777778</v>
       </c>
       <c r="H450" t="s">
         <v>36</v>
@@ -26401,7 +26469,7 @@
         <v>593</v>
       </c>
       <c r="B451" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C451" t="s">
         <v>26</v>
@@ -26454,7 +26522,7 @@
         <v>594</v>
       </c>
       <c r="B452" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C452" t="s">
         <v>26</v>
@@ -26507,7 +26575,7 @@
         <v>595</v>
       </c>
       <c r="B453" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C453" t="s">
         <v>26</v>
@@ -26560,7 +26628,7 @@
         <v>596</v>
       </c>
       <c r="B454" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C454" t="s">
         <v>26</v>
@@ -26613,7 +26681,7 @@
         <v>597</v>
       </c>
       <c r="B455" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C455" t="s">
         <v>26</v>
@@ -26886,7 +26954,7 @@
         <v>3</v>
       </c>
       <c r="G461" t="n">
-        <v>0.888888888888889</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H461" t="s">
         <v>36</v>
@@ -26924,7 +26992,7 @@
         <v>606</v>
       </c>
       <c r="B462" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C462" t="s">
         <v>26</v>
@@ -29629,7 +29697,9 @@
       <c r="F529" t="n">
         <v>2</v>
       </c>
-      <c r="G529"/>
+      <c r="G529" t="n">
+        <v>0.711111111111111</v>
+      </c>
       <c r="H529" t="s">
         <v>36</v>
       </c>
@@ -29637,10 +29707,10 @@
         <v>31</v>
       </c>
       <c r="J529" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K529" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L529" t="n">
         <v>34.6727712734646</v>
@@ -29999,7 +30069,7 @@
         <v>2</v>
       </c>
       <c r="G536" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H536" t="s">
         <v>36</v>
@@ -30105,7 +30175,7 @@
         <v>2</v>
       </c>
       <c r="G538" t="n">
-        <v>0.377777777777778</v>
+        <v>0.288888888888889</v>
       </c>
       <c r="H538" t="s">
         <v>36</v>
@@ -30143,7 +30213,7 @@
         <v>695</v>
       </c>
       <c r="B539" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C539" t="s">
         <v>26</v>
@@ -30196,7 +30266,7 @@
         <v>696</v>
       </c>
       <c r="B540" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C540" t="s">
         <v>26</v>
@@ -30249,7 +30319,7 @@
         <v>697</v>
       </c>
       <c r="B541" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C541" t="s">
         <v>26</v>
@@ -30302,7 +30372,7 @@
         <v>698</v>
       </c>
       <c r="B542" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C542" t="s">
         <v>26</v>
@@ -30355,7 +30425,7 @@
         <v>699</v>
       </c>
       <c r="B543" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C543" t="s">
         <v>26</v>
@@ -30408,7 +30478,7 @@
         <v>700</v>
       </c>
       <c r="B544" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C544" t="s">
         <v>26</v>
@@ -30461,7 +30531,7 @@
         <v>701</v>
       </c>
       <c r="B545" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C545" t="s">
         <v>26</v>
@@ -30514,7 +30584,7 @@
         <v>702</v>
       </c>
       <c r="B546" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C546" t="s">
         <v>26</v>
@@ -30567,7 +30637,7 @@
         <v>703</v>
       </c>
       <c r="B547" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C547" t="s">
         <v>26</v>
@@ -30634,8 +30704,8 @@
       <c r="F548" t="n">
         <v>2</v>
       </c>
-      <c r="G548" t="e">
-        <v>#NUM!</v>
+      <c r="G548" t="n">
+        <v>0.666666666666667</v>
       </c>
       <c r="H548" t="s">
         <v>36</v>
@@ -30644,7 +30714,7 @@
         <v>31</v>
       </c>
       <c r="J548" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K548" t="s">
         <v>20</v>
@@ -30687,8 +30757,8 @@
       <c r="F549" t="n">
         <v>2</v>
       </c>
-      <c r="G549" t="e">
-        <v>#NUM!</v>
+      <c r="G549" t="n">
+        <v>0.888888888888889</v>
       </c>
       <c r="H549" t="s">
         <v>36</v>
@@ -30700,7 +30770,7 @@
         <v>20</v>
       </c>
       <c r="K549" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L549" t="n">
         <v>0</v>
@@ -30885,7 +30955,7 @@
         <v>711</v>
       </c>
       <c r="B553" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C553" t="s">
         <v>98</v>
@@ -30938,7 +31008,7 @@
         <v>712</v>
       </c>
       <c r="B554" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C554" t="s">
         <v>98</v>
@@ -30991,7 +31061,7 @@
         <v>713</v>
       </c>
       <c r="B555" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C555" t="s">
         <v>98</v>
@@ -31044,7 +31114,7 @@
         <v>714</v>
       </c>
       <c r="B556" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C556" t="s">
         <v>98</v>
@@ -31097,7 +31167,7 @@
         <v>715</v>
       </c>
       <c r="B557" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C557" t="s">
         <v>98</v>
@@ -31111,8 +31181,8 @@
       <c r="F557" t="n">
         <v>1</v>
       </c>
-      <c r="G557" t="e">
-        <v>#NUM!</v>
+      <c r="G557" t="n">
+        <v>0.533333333333333</v>
       </c>
       <c r="H557" t="s">
         <v>27</v>
@@ -31121,7 +31191,7 @@
         <v>31</v>
       </c>
       <c r="J557" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K557" t="s">
         <v>20</v>
@@ -31164,8 +31234,8 @@
       <c r="F558" t="n">
         <v>1</v>
       </c>
-      <c r="G558" t="e">
-        <v>#NUM!</v>
+      <c r="G558" t="n">
+        <v>0.422222222222222</v>
       </c>
       <c r="H558" t="s">
         <v>27</v>
@@ -31174,7 +31244,7 @@
         <v>31</v>
       </c>
       <c r="J558" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K558" t="s">
         <v>20</v>
@@ -31203,7 +31273,7 @@
         <v>717</v>
       </c>
       <c r="B559" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C559" t="s">
         <v>26</v>
@@ -31305,7 +31375,7 @@
         <v>719</v>
       </c>
       <c r="B561" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C561" t="s">
         <v>35</v>
@@ -31358,7 +31428,7 @@
         <v>720</v>
       </c>
       <c r="B562" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C562" t="s">
         <v>35</v>
@@ -32100,8 +32170,8 @@
       <c r="F576" t="n">
         <v>1</v>
       </c>
-      <c r="G576" t="e">
-        <v>#NUM!</v>
+      <c r="G576" t="n">
+        <v>0.666666666666667</v>
       </c>
       <c r="H576" t="s">
         <v>36</v>
@@ -32110,7 +32180,7 @@
         <v>31</v>
       </c>
       <c r="J576" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K576" t="s">
         <v>20</v>
@@ -32245,7 +32315,7 @@
         <v>742</v>
       </c>
       <c r="B579" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C579" t="s">
         <v>26</v>
@@ -32831,7 +32901,7 @@
         <v>757</v>
       </c>
       <c r="B593" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C593" t="s">
         <v>26</v>
@@ -32880,7 +32950,7 @@
         <v>758</v>
       </c>
       <c r="B594" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C594" t="s">
         <v>26</v>
@@ -33865,7 +33935,7 @@
         <v>3</v>
       </c>
       <c r="G614" t="n">
-        <v>0.866666666666667</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="H614" t="s">
         <v>36</v>
@@ -34038,7 +34108,7 @@
         <v>787</v>
       </c>
       <c r="B618" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C618" t="s">
         <v>98</v>
@@ -34059,7 +34129,7 @@
         <v>27</v>
       </c>
       <c r="I618" t="s">
-        <v>788</v>
+        <v>281</v>
       </c>
       <c r="J618" t="s">
         <v>21</v>
@@ -34088,10 +34158,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B619" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C619" t="s">
         <v>98</v>
@@ -34105,8 +34175,8 @@
       <c r="F619" t="n">
         <v>1</v>
       </c>
-      <c r="G619" t="e">
-        <v>#NUM!</v>
+      <c r="G619" t="n">
+        <v>0.688888888888889</v>
       </c>
       <c r="H619" t="s">
         <v>27</v>
@@ -34115,7 +34185,7 @@
         <v>31</v>
       </c>
       <c r="J619" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K619" t="s">
         <v>20</v>
@@ -34141,10 +34211,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B620" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C620" t="s">
         <v>98</v>
@@ -34158,8 +34228,8 @@
       <c r="F620" t="n">
         <v>1</v>
       </c>
-      <c r="G620" t="e">
-        <v>#NUM!</v>
+      <c r="G620" t="n">
+        <v>0.644444444444444</v>
       </c>
       <c r="H620" t="s">
         <v>27</v>
@@ -34168,7 +34238,7 @@
         <v>31</v>
       </c>
       <c r="J620" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K620" t="s">
         <v>20</v>
@@ -34194,7 +34264,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B621" t="s">
         <v>198</v>
@@ -34247,10 +34317,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
+        <v>791</v>
+      </c>
+      <c r="B622" t="s">
         <v>792</v>
-      </c>
-      <c r="B622" t="s">
-        <v>793</v>
       </c>
       <c r="C622" t="s">
         <v>35</v>
@@ -34296,10 +34366,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B623" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C623" t="s">
         <v>35</v>
@@ -34345,7 +34415,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B624" t="s">
         <v>668</v>
@@ -34386,7 +34456,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B625" t="s">
         <v>726</v>
@@ -34439,7 +34509,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B626" t="s">
         <v>726</v>
@@ -34492,10 +34562,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B627" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C627" t="s">
         <v>98</v>
@@ -34545,10 +34615,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B628" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C628" t="s">
         <v>98</v>
@@ -34598,10 +34668,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B629" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C629" t="s">
         <v>98</v>
@@ -34651,10 +34721,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B630" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C630" t="s">
         <v>98</v>
@@ -34704,7 +34774,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B631" t="s">
         <v>251</v>
@@ -34721,8 +34791,8 @@
       <c r="F631" t="n">
         <v>1</v>
       </c>
-      <c r="G631" t="e">
-        <v>#NUM!</v>
+      <c r="G631" t="n">
+        <v>0.777777777777778</v>
       </c>
       <c r="H631" t="s">
         <v>252</v>
@@ -34731,10 +34801,10 @@
         <v>31</v>
       </c>
       <c r="J631" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K631" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L631" t="n">
         <v>0</v>
@@ -34757,10 +34827,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
+        <v>802</v>
+      </c>
+      <c r="B632" t="s">
         <v>803</v>
-      </c>
-      <c r="B632" t="s">
-        <v>804</v>
       </c>
       <c r="C632" t="s">
         <v>19</v>
@@ -34798,10 +34868,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B633" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C633" t="s">
         <v>19</v>
@@ -34839,7 +34909,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B634" t="s">
         <v>672</v>
@@ -34880,10 +34950,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B635" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C635" t="s">
         <v>26</v>
@@ -34933,10 +35003,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B636" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C636" t="s">
         <v>26</v>
@@ -34950,8 +35020,8 @@
       <c r="F636" t="n">
         <v>3</v>
       </c>
-      <c r="G636" t="e">
-        <v>#NUM!</v>
+      <c r="G636" t="n">
+        <v>0.422222222222222</v>
       </c>
       <c r="H636" t="s">
         <v>36</v>
@@ -34986,10 +35056,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B637" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C637" t="s">
         <v>26</v>
@@ -35039,10 +35109,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B638" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C638" t="s">
         <v>35</v>
@@ -35092,10 +35162,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B639" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C639" t="s">
         <v>35</v>
@@ -35145,10 +35215,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B640" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C640" t="s">
         <v>35</v>
@@ -35198,10 +35268,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B641" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C641" t="s">
         <v>35</v>
@@ -35251,10 +35321,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
+        <v>813</v>
+      </c>
+      <c r="B642" t="s">
         <v>814</v>
-      </c>
-      <c r="B642" t="s">
-        <v>815</v>
       </c>
       <c r="C642" t="s">
         <v>19</v>
@@ -35292,10 +35362,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
+        <v>815</v>
+      </c>
+      <c r="B643" t="s">
         <v>816</v>
-      </c>
-      <c r="B643" t="s">
-        <v>817</v>
       </c>
       <c r="C643" t="s">
         <v>35</v>
@@ -35341,7 +35411,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B644" t="s">
         <v>605</v>
@@ -35359,7 +35429,7 @@
         <v>3</v>
       </c>
       <c r="G644" t="n">
-        <v>0.977777777777778</v>
+        <v>0.955555555555556</v>
       </c>
       <c r="H644" t="s">
         <v>36</v>
@@ -35394,7 +35464,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B645" t="s">
         <v>605</v>
@@ -35412,7 +35482,7 @@
         <v>3</v>
       </c>
       <c r="G645" t="n">
-        <v>0.844444444444444</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="H645" t="s">
         <v>36</v>
@@ -35447,7 +35517,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B646" t="s">
         <v>710</v>
@@ -35471,7 +35541,7 @@
         <v>141</v>
       </c>
       <c r="I646" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J646" t="s">
         <v>21</v>
@@ -35500,7 +35570,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B647" t="s">
         <v>710</v>
@@ -35524,7 +35594,7 @@
         <v>141</v>
       </c>
       <c r="I647" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J647" t="s">
         <v>21</v>
@@ -35553,7 +35623,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B648" t="s">
         <v>710</v>
@@ -35577,7 +35647,7 @@
         <v>141</v>
       </c>
       <c r="I648" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J648" t="s">
         <v>21</v>
@@ -35606,7 +35676,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B649" t="s">
         <v>710</v>
@@ -35630,7 +35700,7 @@
         <v>141</v>
       </c>
       <c r="I649" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J649" t="s">
         <v>21</v>
@@ -35659,7 +35729,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B650" t="s">
         <v>710</v>
@@ -35683,7 +35753,7 @@
         <v>141</v>
       </c>
       <c r="I650" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J650" t="s">
         <v>21</v>
@@ -35712,7 +35782,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B651" t="s">
         <v>710</v>
@@ -35736,7 +35806,7 @@
         <v>141</v>
       </c>
       <c r="I651" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J651" t="s">
         <v>21</v>
@@ -35765,7 +35835,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B652" t="s">
         <v>710</v>
@@ -35783,13 +35853,13 @@
         <v>2</v>
       </c>
       <c r="G652" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H652" t="s">
         <v>141</v>
       </c>
       <c r="I652" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J652" t="s">
         <v>21</v>
@@ -35818,7 +35888,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B653" t="s">
         <v>710</v>
@@ -35842,7 +35912,7 @@
         <v>141</v>
       </c>
       <c r="I653" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J653" t="s">
         <v>21</v>
@@ -35871,7 +35941,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B654" t="s">
         <v>710</v>
@@ -35895,7 +35965,7 @@
         <v>141</v>
       </c>
       <c r="I654" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J654" t="s">
         <v>21</v>
@@ -35924,7 +35994,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B655" t="s">
         <v>710</v>
@@ -35948,7 +36018,7 @@
         <v>141</v>
       </c>
       <c r="I655" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J655" t="s">
         <v>21</v>
@@ -35977,7 +36047,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B656" t="s">
         <v>710</v>
@@ -36001,7 +36071,7 @@
         <v>141</v>
       </c>
       <c r="I656" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J656" t="s">
         <v>21</v>
@@ -36030,7 +36100,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B657" t="s">
         <v>120</v>
@@ -36048,7 +36118,7 @@
         <v>1</v>
       </c>
       <c r="G657" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H657" t="s">
         <v>36</v>
@@ -36083,7 +36153,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B658" t="s">
         <v>120</v>
@@ -36101,7 +36171,7 @@
         <v>1</v>
       </c>
       <c r="G658" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H658" t="s">
         <v>36</v>
@@ -36136,7 +36206,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B659" t="s">
         <v>120</v>
@@ -36154,7 +36224,7 @@
         <v>1</v>
       </c>
       <c r="G659" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H659" t="s">
         <v>36</v>
@@ -36189,7 +36259,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B660" t="s">
         <v>120</v>
@@ -36242,7 +36312,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B661" t="s">
         <v>120</v>
@@ -36260,7 +36330,7 @@
         <v>1</v>
       </c>
       <c r="G661" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H661" t="s">
         <v>36</v>
@@ -36295,7 +36365,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B662" t="s">
         <v>120</v>
@@ -36348,7 +36418,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B663" t="s">
         <v>120</v>
@@ -36366,7 +36436,7 @@
         <v>1</v>
       </c>
       <c r="G663" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H663" t="s">
         <v>36</v>
@@ -36401,7 +36471,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B664" t="s">
         <v>120</v>
@@ -36419,7 +36489,7 @@
         <v>1</v>
       </c>
       <c r="G664" t="n">
-        <v>0.666666666666667</v>
+        <v>0.644444444444444</v>
       </c>
       <c r="H664" t="s">
         <v>36</v>
@@ -36454,7 +36524,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B665" t="s">
         <v>724</v>
@@ -36507,7 +36577,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B666" t="s">
         <v>724</v>
@@ -36560,7 +36630,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B667" t="s">
         <v>724</v>
@@ -36613,7 +36683,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B668" t="s">
         <v>605</v>
@@ -36666,10 +36736,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B669" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C669" t="s">
         <v>98</v>
@@ -36719,10 +36789,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
+        <v>848</v>
+      </c>
+      <c r="B670" t="s">
         <v>849</v>
-      </c>
-      <c r="B670" t="s">
-        <v>850</v>
       </c>
       <c r="C670" t="s">
         <v>19</v>
@@ -36760,10 +36830,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B671" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C671" t="s">
         <v>19</v>
@@ -36801,10 +36871,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B672" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C672" t="s">
         <v>19</v>
@@ -36842,10 +36912,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
+        <v>852</v>
+      </c>
+      <c r="B673" t="s">
         <v>853</v>
-      </c>
-      <c r="B673" t="s">
-        <v>854</v>
       </c>
       <c r="C673" t="s">
         <v>35</v>
@@ -36860,7 +36930,7 @@
         <v>3</v>
       </c>
       <c r="G673" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H673" t="s">
         <v>36</v>
@@ -36895,10 +36965,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B674" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C674" t="s">
         <v>35</v>
@@ -36913,7 +36983,7 @@
         <v>3</v>
       </c>
       <c r="G674" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="H674" t="s">
         <v>36</v>
@@ -36948,7 +37018,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B675" t="s">
         <v>52</v>
@@ -36966,13 +37036,13 @@
         <v>2</v>
       </c>
       <c r="G675" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H675" t="s">
         <v>53</v>
       </c>
       <c r="I675" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J675" t="s">
         <v>21</v>
@@ -37001,7 +37071,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B676" t="s">
         <v>52</v>
@@ -37019,13 +37089,13 @@
         <v>2</v>
       </c>
       <c r="G676" t="n">
-        <v>0.711111111111111</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="H676" t="s">
         <v>53</v>
       </c>
       <c r="I676" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J676" t="s">
         <v>21</v>
@@ -37054,7 +37124,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B677" t="s">
         <v>52</v>
@@ -37072,13 +37142,13 @@
         <v>2</v>
       </c>
       <c r="G677" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H677" t="s">
         <v>53</v>
       </c>
       <c r="I677" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J677" t="s">
         <v>21</v>
@@ -37107,7 +37177,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B678" t="s">
         <v>52</v>
@@ -37125,13 +37195,13 @@
         <v>2</v>
       </c>
       <c r="G678" t="n">
-        <v>0.555555555555556</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="H678" t="s">
         <v>53</v>
       </c>
       <c r="I678" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J678" t="s">
         <v>21</v>
@@ -37160,7 +37230,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B679" t="s">
         <v>52</v>
@@ -37178,13 +37248,13 @@
         <v>2</v>
       </c>
       <c r="G679" t="n">
-        <v>0.377777777777778</v>
+        <v>0.355555555555556</v>
       </c>
       <c r="H679" t="s">
         <v>53</v>
       </c>
       <c r="I679" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J679" t="s">
         <v>21</v>
@@ -37213,7 +37283,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B680" t="s">
         <v>52</v>
@@ -37237,7 +37307,7 @@
         <v>53</v>
       </c>
       <c r="I680" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J680" t="s">
         <v>21</v>
@@ -37266,7 +37336,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B681" t="s">
         <v>52</v>
@@ -37290,7 +37360,7 @@
         <v>53</v>
       </c>
       <c r="I681" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J681" t="s">
         <v>21</v>
@@ -37319,7 +37389,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B682" t="s">
         <v>52</v>
@@ -37337,13 +37407,13 @@
         <v>2</v>
       </c>
       <c r="G682" t="n">
-        <v>0.4</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="H682" t="s">
         <v>53</v>
       </c>
       <c r="I682" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J682" t="s">
         <v>21</v>
@@ -37372,7 +37442,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B683" t="s">
         <v>52</v>
@@ -37390,13 +37460,13 @@
         <v>2</v>
       </c>
       <c r="G683" t="n">
-        <v>0.4</v>
+        <v>0.377777777777778</v>
       </c>
       <c r="H683" t="s">
         <v>53</v>
       </c>
       <c r="I683" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J683" t="s">
         <v>21</v>
@@ -37425,7 +37495,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B684" t="s">
         <v>52</v>
@@ -37443,13 +37513,13 @@
         <v>2</v>
       </c>
       <c r="G684" t="n">
-        <v>0.533333333333333</v>
+        <v>0.511111111111111</v>
       </c>
       <c r="H684" t="s">
         <v>53</v>
       </c>
       <c r="I684" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J684" t="s">
         <v>21</v>
@@ -37478,7 +37548,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B685" t="s">
         <v>52</v>
@@ -37496,13 +37566,13 @@
         <v>2</v>
       </c>
       <c r="G685" t="n">
-        <v>0.466666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="H685" t="s">
         <v>53</v>
       </c>
       <c r="I685" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J685" t="s">
         <v>21</v>
@@ -37531,7 +37601,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B686" t="s">
         <v>52</v>
@@ -37549,13 +37619,13 @@
         <v>2</v>
       </c>
       <c r="G686" t="n">
-        <v>0.488888888888889</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="H686" t="s">
         <v>53</v>
       </c>
       <c r="I686" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J686" t="s">
         <v>21</v>
@@ -37584,7 +37654,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B687" t="s">
         <v>52</v>
@@ -37608,7 +37678,7 @@
         <v>53</v>
       </c>
       <c r="I687" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J687" t="s">
         <v>21</v>
@@ -37637,7 +37707,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B688" t="s">
         <v>220</v>
@@ -37661,7 +37731,7 @@
         <v>221</v>
       </c>
       <c r="I688" t="s">
-        <v>873</v>
+        <v>265</v>
       </c>
       <c r="J688" t="s">
         <v>21</v>
@@ -37690,7 +37760,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B689" t="s">
         <v>220</v>
@@ -37714,7 +37784,7 @@
         <v>221</v>
       </c>
       <c r="I689" t="s">
-        <v>873</v>
+        <v>265</v>
       </c>
       <c r="J689" t="s">
         <v>21</v>
@@ -37743,7 +37813,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B690" t="s">
         <v>220</v>
@@ -37767,7 +37837,7 @@
         <v>221</v>
       </c>
       <c r="I690" t="s">
-        <v>873</v>
+        <v>265</v>
       </c>
       <c r="J690" t="s">
         <v>21</v>
@@ -37796,7 +37866,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B691" t="s">
         <v>220</v>
@@ -37820,7 +37890,7 @@
         <v>221</v>
       </c>
       <c r="I691" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J691" t="s">
         <v>21</v>
@@ -37849,7 +37919,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B692" t="s">
         <v>220</v>
@@ -37873,7 +37943,7 @@
         <v>221</v>
       </c>
       <c r="I692" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J692" t="s">
         <v>21</v>
@@ -37902,10 +37972,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B693" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C693" t="s">
         <v>26</v>
@@ -37926,7 +37996,7 @@
         <v>221</v>
       </c>
       <c r="I693" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J693" t="s">
         <v>21</v>
@@ -37955,10 +38025,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B694" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C694" t="s">
         <v>26</v>
@@ -38008,10 +38078,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B695" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C695" t="s">
         <v>26</v>
@@ -38061,10 +38131,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B696" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C696" t="s">
         <v>26</v>
@@ -38114,10 +38184,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B697" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C697" t="s">
         <v>26</v>
@@ -38167,10 +38237,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B698" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C698" t="s">
         <v>26</v>
@@ -38220,10 +38290,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B699" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C699" t="s">
         <v>26</v>
@@ -38273,10 +38343,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B700" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C700" t="s">
         <v>26</v>
@@ -38326,10 +38396,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B701" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C701" t="s">
         <v>26</v>
@@ -38379,10 +38449,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B702" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C702" t="s">
         <v>26</v>
@@ -38432,10 +38502,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B703" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C703" t="s">
         <v>26</v>
@@ -38485,10 +38555,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B704" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C704" t="s">
         <v>26</v>
@@ -38538,10 +38608,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B705" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C705" t="s">
         <v>26</v>
@@ -38591,10 +38661,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B706" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C706" t="s">
         <v>26</v>
@@ -38608,7 +38678,9 @@
       <c r="F706" t="n">
         <v>2</v>
       </c>
-      <c r="G706"/>
+      <c r="G706" t="n">
+        <v>0.422222222222222</v>
+      </c>
       <c r="H706" t="s">
         <v>36</v>
       </c>
@@ -38616,7 +38688,7 @@
         <v>31</v>
       </c>
       <c r="J706" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K706" t="s">
         <v>20</v>
@@ -38642,10 +38714,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B707" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C707" t="s">
         <v>26</v>
@@ -38659,7 +38731,9 @@
       <c r="F707" t="n">
         <v>2</v>
       </c>
-      <c r="G707"/>
+      <c r="G707" t="n">
+        <v>0.422222222222222</v>
+      </c>
       <c r="H707" t="s">
         <v>36</v>
       </c>
@@ -38667,7 +38741,7 @@
         <v>31</v>
       </c>
       <c r="J707" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K707" t="s">
         <v>20</v>
@@ -38693,10 +38767,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B708" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C708" t="s">
         <v>26</v>
@@ -38710,7 +38784,9 @@
       <c r="F708" t="n">
         <v>2</v>
       </c>
-      <c r="G708"/>
+      <c r="G708" t="n">
+        <v>0.311111111111111</v>
+      </c>
       <c r="H708" t="s">
         <v>36</v>
       </c>
@@ -38718,7 +38794,7 @@
         <v>31</v>
       </c>
       <c r="J708" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K708" t="s">
         <v>20</v>
@@ -38744,10 +38820,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B709" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C709" t="s">
         <v>26</v>
@@ -38761,7 +38837,9 @@
       <c r="F709" t="n">
         <v>2</v>
       </c>
-      <c r="G709"/>
+      <c r="G709" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H709" t="s">
         <v>36</v>
       </c>
@@ -38769,7 +38847,7 @@
         <v>31</v>
       </c>
       <c r="J709" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K709" t="s">
         <v>20</v>
@@ -38795,10 +38873,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B710" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C710" t="s">
         <v>26</v>
@@ -38812,7 +38890,9 @@
       <c r="F710" t="n">
         <v>2</v>
       </c>
-      <c r="G710"/>
+      <c r="G710" t="n">
+        <v>0.466666666666667</v>
+      </c>
       <c r="H710" t="s">
         <v>36</v>
       </c>
@@ -38820,7 +38900,7 @@
         <v>31</v>
       </c>
       <c r="J710" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K710" t="s">
         <v>20</v>
@@ -38846,10 +38926,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B711" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C711" t="s">
         <v>26</v>
@@ -38863,7 +38943,9 @@
       <c r="F711" t="n">
         <v>2</v>
       </c>
-      <c r="G711"/>
+      <c r="G711" t="n">
+        <v>0.577777777777778</v>
+      </c>
       <c r="H711" t="s">
         <v>36</v>
       </c>
@@ -38871,7 +38953,7 @@
         <v>31</v>
       </c>
       <c r="J711" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K711" t="s">
         <v>20</v>
@@ -38897,7 +38979,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B712" t="s">
         <v>724</v>
@@ -38950,7 +39032,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B713" t="s">
         <v>762</v>
@@ -38967,7 +39049,9 @@
       <c r="F713" t="n">
         <v>1</v>
       </c>
-      <c r="G713"/>
+      <c r="G713" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H713" t="s">
         <v>763</v>
       </c>
@@ -38975,7 +39059,7 @@
         <v>31</v>
       </c>
       <c r="J713" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K713" t="s">
         <v>20</v>
@@ -39001,7 +39085,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B714" t="s">
         <v>762</v>
@@ -39018,7 +39102,9 @@
       <c r="F714" t="n">
         <v>1</v>
       </c>
-      <c r="G714"/>
+      <c r="G714" t="n">
+        <v>0.444444444444444</v>
+      </c>
       <c r="H714" t="s">
         <v>763</v>
       </c>
@@ -39026,7 +39112,7 @@
         <v>31</v>
       </c>
       <c r="J714" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K714" t="s">
         <v>20</v>
@@ -39052,7 +39138,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B715" t="s">
         <v>762</v>
@@ -39069,7 +39155,9 @@
       <c r="F715" t="n">
         <v>1</v>
       </c>
-      <c r="G715"/>
+      <c r="G715" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H715" t="s">
         <v>763</v>
       </c>
@@ -39077,7 +39165,7 @@
         <v>31</v>
       </c>
       <c r="J715" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K715" t="s">
         <v>20</v>
@@ -39103,7 +39191,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B716" t="s">
         <v>762</v>
@@ -39120,7 +39208,9 @@
       <c r="F716" t="n">
         <v>1</v>
       </c>
-      <c r="G716"/>
+      <c r="G716" t="n">
+        <v>0.488888888888889</v>
+      </c>
       <c r="H716" t="s">
         <v>763</v>
       </c>
@@ -39128,7 +39218,7 @@
         <v>31</v>
       </c>
       <c r="J716" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K716" t="s">
         <v>20</v>
@@ -39154,7 +39244,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B717" t="s">
         <v>762</v>
@@ -39171,7 +39261,9 @@
       <c r="F717" t="n">
         <v>1</v>
       </c>
-      <c r="G717"/>
+      <c r="G717" t="n">
+        <v>0.466666666666667</v>
+      </c>
       <c r="H717" t="s">
         <v>763</v>
       </c>
@@ -39179,7 +39271,7 @@
         <v>31</v>
       </c>
       <c r="J717" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K717" t="s">
         <v>20</v>
@@ -39205,7 +39297,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B718" t="s">
         <v>762</v>
@@ -39222,7 +39314,9 @@
       <c r="F718" t="n">
         <v>1</v>
       </c>
-      <c r="G718"/>
+      <c r="G718" t="n">
+        <v>0.733333333333333</v>
+      </c>
       <c r="H718" t="s">
         <v>763</v>
       </c>
@@ -39230,10 +39324,10 @@
         <v>31</v>
       </c>
       <c r="J718" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K718" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L718" t="n">
         <v>95.9150558706487</v>
@@ -39256,7 +39350,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B719" t="s">
         <v>762</v>
@@ -39273,7 +39367,9 @@
       <c r="F719" t="n">
         <v>1</v>
       </c>
-      <c r="G719"/>
+      <c r="G719" t="n">
+        <v>0.777777777777778</v>
+      </c>
       <c r="H719" t="s">
         <v>763</v>
       </c>
@@ -39281,10 +39377,10 @@
         <v>31</v>
       </c>
       <c r="J719" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K719" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L719" t="n">
         <v>100</v>
@@ -39307,7 +39403,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B720" t="s">
         <v>762</v>
@@ -39325,7 +39421,7 @@
         <v>1</v>
       </c>
       <c r="G720" t="n">
-        <v>0.755555555555556</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="H720" t="s">
         <v>763</v>
@@ -39360,7 +39456,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B721" t="s">
         <v>762</v>
@@ -39377,7 +39473,9 @@
       <c r="F721" t="n">
         <v>1</v>
       </c>
-      <c r="G721"/>
+      <c r="G721" t="n">
+        <v>0.733333333333333</v>
+      </c>
       <c r="H721" t="s">
         <v>763</v>
       </c>
@@ -39385,10 +39483,10 @@
         <v>31</v>
       </c>
       <c r="J721" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K721" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L721" t="n">
         <v>100</v>
@@ -39411,10 +39509,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B722" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C722" t="s">
         <v>26</v>
@@ -39464,10 +39562,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B723" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C723" t="s">
         <v>26</v>
@@ -39513,10 +39611,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B724" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C724" t="s">
         <v>19</v>
@@ -39552,10 +39650,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B725" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C725" t="s">
         <v>19</v>
@@ -39591,10 +39689,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B726" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C726" t="s">
         <v>19</v>
@@ -39630,10 +39728,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B727" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C727" t="s">
         <v>19</v>
@@ -39671,10 +39769,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B728" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C728" t="s">
         <v>19</v>
@@ -39712,7 +39810,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B729" t="s">
         <v>724</v>
@@ -39765,10 +39863,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B730" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C730" t="s">
         <v>35</v>
@@ -39818,10 +39916,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B731" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C731" t="s">
         <v>35</v>
@@ -39871,10 +39969,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B732" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C732" t="s">
         <v>35</v>
@@ -39924,10 +40022,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B733" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C733" t="s">
         <v>35</v>
@@ -39942,7 +40040,7 @@
         <v>2</v>
       </c>
       <c r="G733" t="n">
-        <v>0.977777777777778</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="H733" t="s">
         <v>36</v>
@@ -39977,10 +40075,10 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B734" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C734" t="s">
         <v>35</v>
@@ -39995,7 +40093,7 @@
         <v>2</v>
       </c>
       <c r="G734" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H734" t="s">
         <v>36</v>
@@ -40030,10 +40128,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B735" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C735" t="s">
         <v>35</v>
@@ -40048,7 +40146,7 @@
         <v>2</v>
       </c>
       <c r="G735" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="H735" t="s">
         <v>36</v>
@@ -40083,10 +40181,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B736" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C736" t="s">
         <v>35</v>
@@ -40136,7 +40234,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B737" t="s">
         <v>191</v>
@@ -40189,7 +40287,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B738" t="s">
         <v>191</v>

--- a/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Spring_Chinook_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -3290,8 +3290,8 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+      <c r="G4" t="n">
+        <v>0.55</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -3343,8 +3343,8 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
+      <c r="G5" t="n">
+        <v>0.65</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -3353,7 +3353,7 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -3393,7 +3393,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="H6" t="s">
         <v>36</v>
@@ -3734,9 +3734,7 @@
       </c>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G14"/>
       <c r="H14" t="s">
         <v>36</v>
       </c>
@@ -3783,9 +3781,7 @@
       </c>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G15"/>
       <c r="H15" t="s">
         <v>36</v>
       </c>
@@ -3832,9 +3828,7 @@
       </c>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G16"/>
       <c r="H16" t="s">
         <v>36</v>
       </c>
@@ -3881,9 +3875,7 @@
       </c>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G17"/>
       <c r="H17" t="s">
         <v>36</v>
       </c>
@@ -3930,9 +3922,7 @@
       </c>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
         <v>36</v>
       </c>
@@ -3984,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.222222222222222</v>
+        <v>0.225</v>
       </c>
       <c r="H19" t="s">
         <v>53</v>
@@ -4036,9 +4026,7 @@
       <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>53</v>
       </c>
@@ -4302,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -4355,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -4408,7 +4396,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -4461,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -4514,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -4567,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.755555555555556</v>
+        <v>0.725</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -4620,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -4672,9 +4660,7 @@
       <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
         <v>36</v>
       </c>
@@ -4721,9 +4707,7 @@
       </c>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G33"/>
       <c r="H33" t="s">
         <v>36</v>
       </c>
@@ -4770,9 +4754,7 @@
       </c>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G34"/>
       <c r="H34" t="s">
         <v>36</v>
       </c>
@@ -4819,9 +4801,7 @@
       </c>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G35"/>
       <c r="H35" t="s">
         <v>36</v>
       </c>
@@ -4868,9 +4848,7 @@
       </c>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G36"/>
       <c r="H36" t="s">
         <v>36</v>
       </c>
@@ -4917,9 +4895,7 @@
       </c>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G37"/>
       <c r="H37" t="s">
         <v>36</v>
       </c>
@@ -4970,9 +4946,7 @@
       <c r="F38" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G38"/>
       <c r="H38" t="s">
         <v>36</v>
       </c>
@@ -5024,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>0.711111111111111</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="s">
         <v>36</v>
@@ -5036,7 +5010,7 @@
         <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>12.5825765710022</v>
@@ -5077,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H40" t="s">
         <v>36</v>
@@ -5130,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="s">
         <v>36</v>
@@ -5142,7 +5116,7 @@
         <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>95.0608657364311</v>
@@ -5182,9 +5156,7 @@
       <c r="F42" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G42"/>
       <c r="H42" t="s">
         <v>36</v>
       </c>
@@ -5231,9 +5203,7 @@
       </c>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G43"/>
       <c r="H43" t="s">
         <v>36</v>
       </c>
@@ -5280,9 +5250,7 @@
       </c>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
         <v>36</v>
       </c>
@@ -5329,9 +5297,7 @@
       </c>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G45"/>
       <c r="H45" t="s">
         <v>36</v>
       </c>
@@ -5378,9 +5344,7 @@
       </c>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G46"/>
       <c r="H46" t="s">
         <v>36</v>
       </c>
@@ -5431,9 +5395,7 @@
       <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G47"/>
       <c r="H47" t="s">
         <v>36</v>
       </c>
@@ -5526,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H49" t="s">
         <v>36</v>
@@ -5579,7 +5541,7 @@
         <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="s">
         <v>36</v>
@@ -5631,9 +5593,7 @@
       <c r="F51" t="n">
         <v>1</v>
       </c>
-      <c r="G51" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G51"/>
       <c r="H51" t="s">
         <v>27</v>
       </c>
@@ -5684,9 +5644,7 @@
       <c r="F52" t="n">
         <v>1</v>
       </c>
-      <c r="G52" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G52"/>
       <c r="H52" t="s">
         <v>36</v>
       </c>
@@ -5738,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -5790,9 +5748,7 @@
       <c r="F54" t="n">
         <v>1</v>
       </c>
-      <c r="G54" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G54"/>
       <c r="H54" t="s">
         <v>27</v>
       </c>
@@ -5843,9 +5799,7 @@
       <c r="F55" t="n">
         <v>2</v>
       </c>
-      <c r="G55" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G55"/>
       <c r="H55" t="s">
         <v>36</v>
       </c>
@@ -5896,9 +5850,7 @@
       <c r="F56" t="n">
         <v>1</v>
       </c>
-      <c r="G56" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G56"/>
       <c r="H56" t="s">
         <v>53</v>
       </c>
@@ -5949,9 +5901,7 @@
       <c r="F57" t="n">
         <v>3</v>
       </c>
-      <c r="G57" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G57"/>
       <c r="H57" t="s">
         <v>36</v>
       </c>
@@ -6002,9 +5952,7 @@
       <c r="F58" t="n">
         <v>3</v>
       </c>
-      <c r="G58" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G58"/>
       <c r="H58" t="s">
         <v>36</v>
       </c>
@@ -6055,9 +6003,7 @@
       <c r="F59" t="n">
         <v>3</v>
       </c>
-      <c r="G59" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G59"/>
       <c r="H59" t="s">
         <v>36</v>
       </c>
@@ -6108,9 +6054,7 @@
       <c r="F60" t="n">
         <v>3</v>
       </c>
-      <c r="G60" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G60"/>
       <c r="H60" t="s">
         <v>36</v>
       </c>
@@ -6161,9 +6105,7 @@
       <c r="F61" t="n">
         <v>3</v>
       </c>
-      <c r="G61" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G61"/>
       <c r="H61" t="s">
         <v>36</v>
       </c>
@@ -6214,9 +6156,7 @@
       <c r="F62" t="n">
         <v>3</v>
       </c>
-      <c r="G62" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G62"/>
       <c r="H62" t="s">
         <v>36</v>
       </c>
@@ -6267,9 +6207,7 @@
       <c r="F63" t="n">
         <v>3</v>
       </c>
-      <c r="G63" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G63"/>
       <c r="H63" t="s">
         <v>36</v>
       </c>
@@ -6321,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="s">
         <v>36</v>
@@ -6374,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H65" t="s">
         <v>36</v>
@@ -6426,9 +6364,7 @@
       <c r="F66" t="n">
         <v>1</v>
       </c>
-      <c r="G66" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G66"/>
       <c r="H66" t="s">
         <v>36</v>
       </c>
@@ -6475,9 +6411,7 @@
       </c>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G67"/>
       <c r="H67" t="s">
         <v>36</v>
       </c>
@@ -6529,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H68" t="s">
         <v>36</v>
@@ -6582,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H69" t="s">
         <v>36</v>
@@ -6635,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="s">
         <v>36</v>
@@ -6688,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H71" t="s">
         <v>36</v>
@@ -6741,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="s">
         <v>36</v>
@@ -6753,7 +6687,7 @@
         <v>21</v>
       </c>
       <c r="K72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>98.1370600401239</v>
@@ -6794,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H73" t="s">
         <v>36</v>
@@ -6847,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.622222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="H74" t="s">
         <v>36</v>
@@ -6900,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.622222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="H75" t="s">
         <v>36</v>
@@ -6953,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="H76" t="s">
         <v>36</v>
@@ -7005,9 +6939,7 @@
       <c r="F77" t="n">
         <v>2</v>
       </c>
-      <c r="G77" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G77"/>
       <c r="H77" t="s">
         <v>36</v>
       </c>
@@ -7058,9 +6990,7 @@
       <c r="F78" t="n">
         <v>2</v>
       </c>
-      <c r="G78" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G78"/>
       <c r="H78" t="s">
         <v>36</v>
       </c>
@@ -7111,9 +7041,7 @@
       <c r="F79" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G79"/>
       <c r="H79" t="s">
         <v>36</v>
       </c>
@@ -7165,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H80" t="s">
         <v>141</v>
@@ -7218,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H81" t="s">
         <v>141</v>
@@ -7271,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H82" t="s">
         <v>141</v>
@@ -7324,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H83" t="s">
         <v>141</v>
@@ -7377,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H84" t="s">
         <v>141</v>
@@ -7430,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H85" t="s">
         <v>141</v>
@@ -7483,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H86" t="s">
         <v>141</v>
@@ -7536,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H87" t="s">
         <v>141</v>
@@ -7589,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H88" t="s">
         <v>141</v>
@@ -7642,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H89" t="s">
         <v>141</v>
@@ -7695,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H90" t="s">
         <v>141</v>
@@ -7748,7 +7676,7 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="s">
         <v>36</v>
@@ -7801,7 +7729,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>0.755555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="s">
         <v>36</v>
@@ -7810,7 +7738,7 @@
         <v>31</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K92" t="s">
         <v>21</v>
@@ -7854,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H93" t="s">
         <v>36</v>
@@ -7907,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H94" t="s">
         <v>36</v>
@@ -7960,7 +7888,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="s">
         <v>36</v>
@@ -8013,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H96" t="s">
         <v>36</v>
@@ -8066,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H97" t="s">
         <v>36</v>
@@ -8118,9 +8046,7 @@
       <c r="F98" t="n">
         <v>2</v>
       </c>
-      <c r="G98" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G98"/>
       <c r="H98" t="s">
         <v>36</v>
       </c>
@@ -8171,9 +8097,7 @@
       <c r="F99" t="n">
         <v>2</v>
       </c>
-      <c r="G99" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G99"/>
       <c r="H99" t="s">
         <v>36</v>
       </c>
@@ -8264,7 +8188,7 @@
         <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H101" t="s">
         <v>167</v>
@@ -8316,9 +8240,7 @@
       <c r="F102" t="n">
         <v>2</v>
       </c>
-      <c r="G102" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G102"/>
       <c r="H102" t="s">
         <v>167</v>
       </c>
@@ -8370,7 +8292,7 @@
         <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H103" t="s">
         <v>167</v>
@@ -8382,7 +8304,7 @@
         <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -8422,9 +8344,7 @@
       <c r="F104" t="n">
         <v>2</v>
       </c>
-      <c r="G104" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G104"/>
       <c r="H104" t="s">
         <v>167</v>
       </c>
@@ -8475,9 +8395,7 @@
       <c r="F105" t="n">
         <v>2</v>
       </c>
-      <c r="G105" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G105"/>
       <c r="H105" t="s">
         <v>167</v>
       </c>
@@ -8529,7 +8447,7 @@
         <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H106" t="s">
         <v>36</v>
@@ -8582,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.511111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="H107" t="s">
         <v>27</v>
@@ -8635,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
@@ -8688,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H109" t="s">
         <v>27</v>
@@ -8741,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.511111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
@@ -8794,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.422222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
@@ -8847,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H112" t="s">
         <v>27</v>
@@ -8900,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="s">
         <v>27</v>
@@ -8953,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H114" t="s">
         <v>36</v>
@@ -9006,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H115" t="s">
         <v>36</v>
@@ -9058,9 +8976,7 @@
       <c r="F116" t="n">
         <v>1</v>
       </c>
-      <c r="G116" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G116"/>
       <c r="H116" t="s">
         <v>36</v>
       </c>
@@ -9112,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H117" t="s">
         <v>36</v>
@@ -9164,9 +9080,7 @@
       <c r="F118" t="n">
         <v>1</v>
       </c>
-      <c r="G118" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G118"/>
       <c r="H118" t="s">
         <v>36</v>
       </c>
@@ -9217,9 +9131,7 @@
       <c r="F119" t="n">
         <v>1</v>
       </c>
-      <c r="G119" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G119"/>
       <c r="H119" t="s">
         <v>36</v>
       </c>
@@ -9271,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H120" t="s">
         <v>36</v>
@@ -9283,7 +9195,7 @@
         <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>93.3825341858876</v>
@@ -9323,9 +9235,7 @@
       <c r="F121" t="n">
         <v>1</v>
       </c>
-      <c r="G121" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G121"/>
       <c r="H121" t="s">
         <v>36</v>
       </c>
@@ -9376,9 +9286,7 @@
       <c r="F122" t="n">
         <v>1</v>
       </c>
-      <c r="G122" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G122"/>
       <c r="H122" t="s">
         <v>36</v>
       </c>
@@ -9429,9 +9337,7 @@
       <c r="F123" t="n">
         <v>1</v>
       </c>
-      <c r="G123" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G123"/>
       <c r="H123" t="s">
         <v>36</v>
       </c>
@@ -9483,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>0.266666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H124" t="s">
         <v>36</v>
@@ -9589,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H126" t="s">
         <v>36</v>
@@ -9641,9 +9547,7 @@
       <c r="F127" t="n">
         <v>3</v>
       </c>
-      <c r="G127" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G127"/>
       <c r="H127" t="s">
         <v>36</v>
       </c>
@@ -9695,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H128" t="s">
         <v>36</v>
@@ -9747,9 +9651,7 @@
       <c r="F129" t="n">
         <v>3</v>
       </c>
-      <c r="G129" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G129"/>
       <c r="H129" t="s">
         <v>36</v>
       </c>
@@ -9800,9 +9702,7 @@
       <c r="F130" t="n">
         <v>3</v>
       </c>
-      <c r="G130" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G130"/>
       <c r="H130" t="s">
         <v>36</v>
       </c>
@@ -9853,9 +9753,7 @@
       <c r="F131" t="n">
         <v>3</v>
       </c>
-      <c r="G131" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G131"/>
       <c r="H131" t="s">
         <v>36</v>
       </c>
@@ -9906,9 +9804,7 @@
       <c r="F132" t="n">
         <v>3</v>
       </c>
-      <c r="G132" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G132"/>
       <c r="H132" t="s">
         <v>36</v>
       </c>
@@ -9960,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.355555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="s">
         <v>27</v>
@@ -10012,8 +9908,8 @@
       <c r="F134" t="n">
         <v>1</v>
       </c>
-      <c r="G134" t="e">
-        <v>#NUM!</v>
+      <c r="G134" t="n">
+        <v>0.4</v>
       </c>
       <c r="H134" t="s">
         <v>27</v>
@@ -10065,9 +9961,7 @@
       <c r="F135" t="n">
         <v>3</v>
       </c>
-      <c r="G135" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G135"/>
       <c r="H135" t="s">
         <v>36</v>
       </c>
@@ -10118,9 +10012,7 @@
       <c r="F136" t="n">
         <v>1</v>
       </c>
-      <c r="G136" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G136"/>
       <c r="H136" t="s">
         <v>53</v>
       </c>
@@ -10171,9 +10063,7 @@
       <c r="F137" t="n">
         <v>2</v>
       </c>
-      <c r="G137" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G137"/>
       <c r="H137" t="s">
         <v>36</v>
       </c>
@@ -10224,9 +10114,7 @@
       <c r="F138" t="n">
         <v>2</v>
       </c>
-      <c r="G138" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G138"/>
       <c r="H138" t="s">
         <v>36</v>
       </c>
@@ -10277,9 +10165,7 @@
       <c r="F139" t="n">
         <v>2</v>
       </c>
-      <c r="G139" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G139"/>
       <c r="H139" t="s">
         <v>36</v>
       </c>
@@ -10330,9 +10216,7 @@
       <c r="F140" t="n">
         <v>3</v>
       </c>
-      <c r="G140" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G140"/>
       <c r="H140" t="s">
         <v>36</v>
       </c>
@@ -10383,9 +10267,7 @@
       <c r="F141" t="n">
         <v>2</v>
       </c>
-      <c r="G141" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G141"/>
       <c r="H141" t="s">
         <v>53</v>
       </c>
@@ -10437,7 +10319,7 @@
         <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H142" t="s">
         <v>221</v>
@@ -10490,7 +10372,7 @@
         <v>3</v>
       </c>
       <c r="G143" t="n">
-        <v>0.511111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="H143" t="s">
         <v>221</v>
@@ -10543,7 +10425,7 @@
         <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>0.488888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="s">
         <v>221</v>
@@ -10591,9 +10473,7 @@
       </c>
       <c r="E145"/>
       <c r="F145"/>
-      <c r="G145" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G145"/>
       <c r="H145" t="s">
         <v>36</v>
       </c>
@@ -10644,9 +10524,7 @@
       <c r="F146" t="n">
         <v>1</v>
       </c>
-      <c r="G146" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G146"/>
       <c r="H146" t="s">
         <v>36</v>
       </c>
@@ -10693,9 +10571,7 @@
       </c>
       <c r="E147"/>
       <c r="F147"/>
-      <c r="G147" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G147"/>
       <c r="H147" t="s">
         <v>36</v>
       </c>
@@ -10743,7 +10619,7 @@
       <c r="E148"/>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>0.911111111111111</v>
+        <v>0.925</v>
       </c>
       <c r="H148" t="s">
         <v>36</v>
@@ -10844,9 +10720,7 @@
       <c r="F150" t="n">
         <v>3</v>
       </c>
-      <c r="G150" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G150"/>
       <c r="H150" t="s">
         <v>36</v>
       </c>
@@ -10897,9 +10771,7 @@
       <c r="F151" t="n">
         <v>2</v>
       </c>
-      <c r="G151" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G151"/>
       <c r="H151" t="s">
         <v>36</v>
       </c>
@@ -10950,9 +10822,7 @@
       <c r="F152" t="n">
         <v>2</v>
       </c>
-      <c r="G152" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G152"/>
       <c r="H152" t="s">
         <v>36</v>
       </c>
@@ -11003,9 +10873,7 @@
       <c r="F153" t="n">
         <v>2</v>
       </c>
-      <c r="G153" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G153"/>
       <c r="H153" t="s">
         <v>36</v>
       </c>
@@ -11056,9 +10924,7 @@
       <c r="F154" t="n">
         <v>2</v>
       </c>
-      <c r="G154" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G154"/>
       <c r="H154" t="s">
         <v>36</v>
       </c>
@@ -11109,9 +10975,7 @@
       <c r="F155" t="n">
         <v>2</v>
       </c>
-      <c r="G155" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G155"/>
       <c r="H155" t="s">
         <v>36</v>
       </c>
@@ -11162,9 +11026,7 @@
       <c r="F156" t="n">
         <v>2</v>
       </c>
-      <c r="G156" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G156"/>
       <c r="H156" t="s">
         <v>36</v>
       </c>
@@ -11215,9 +11077,7 @@
       <c r="F157" t="n">
         <v>2</v>
       </c>
-      <c r="G157" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G157"/>
       <c r="H157" t="s">
         <v>36</v>
       </c>
@@ -11268,9 +11128,7 @@
       <c r="F158" t="n">
         <v>2</v>
       </c>
-      <c r="G158" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G158"/>
       <c r="H158" t="s">
         <v>36</v>
       </c>
@@ -11321,9 +11179,7 @@
       <c r="F159" t="n">
         <v>2</v>
       </c>
-      <c r="G159" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G159"/>
       <c r="H159" t="s">
         <v>36</v>
       </c>
@@ -11372,9 +11228,7 @@
       <c r="F160" t="n">
         <v>2</v>
       </c>
-      <c r="G160" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G160"/>
       <c r="H160" t="s">
         <v>36</v>
       </c>
@@ -11425,9 +11279,7 @@
       <c r="F161" t="n">
         <v>2</v>
       </c>
-      <c r="G161" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G161"/>
       <c r="H161" t="s">
         <v>36</v>
       </c>
@@ -11478,9 +11330,7 @@
       <c r="F162" t="n">
         <v>2</v>
       </c>
-      <c r="G162" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G162"/>
       <c r="H162" t="s">
         <v>36</v>
       </c>
@@ -11531,9 +11381,7 @@
       <c r="F163" t="n">
         <v>2</v>
       </c>
-      <c r="G163" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G163"/>
       <c r="H163" t="s">
         <v>36</v>
       </c>
@@ -11584,9 +11432,7 @@
       <c r="F164" t="n">
         <v>2</v>
       </c>
-      <c r="G164" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G164"/>
       <c r="H164" t="s">
         <v>36</v>
       </c>
@@ -11638,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H165" t="s">
         <v>252</v>
@@ -11691,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0.755555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="H166" t="s">
         <v>252</v>
@@ -11744,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.755555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="H167" t="s">
         <v>252</v>
@@ -11797,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H168" t="s">
         <v>252</v>
@@ -11850,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H169" t="s">
         <v>252</v>
@@ -11903,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="H170" t="s">
         <v>252</v>
@@ -11956,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H171" t="s">
         <v>252</v>
@@ -12009,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.933333333333333</v>
+        <v>0.95</v>
       </c>
       <c r="H172" t="s">
         <v>252</v>
@@ -12062,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H173" t="s">
         <v>252</v>
@@ -12115,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H174" t="s">
         <v>252</v>
@@ -12168,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H175" t="s">
         <v>252</v>
@@ -12180,7 +12026,7 @@
         <v>21</v>
       </c>
       <c r="K175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L175" t="n">
         <v>66.5615916752238</v>
@@ -12221,7 +12067,7 @@
         <v>3</v>
       </c>
       <c r="G176" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="s">
         <v>221</v>
@@ -12274,7 +12120,7 @@
         <v>3</v>
       </c>
       <c r="G177" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H177" t="s">
         <v>221</v>
@@ -12327,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="G178" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H178" t="s">
         <v>221</v>
@@ -12380,7 +12226,7 @@
         <v>3</v>
       </c>
       <c r="G179" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H179" t="s">
         <v>221</v>
@@ -12433,7 +12279,7 @@
         <v>3</v>
       </c>
       <c r="G180" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H180" t="s">
         <v>221</v>
@@ -12486,7 +12332,7 @@
         <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H181" t="s">
         <v>221</v>
@@ -12539,7 +12385,7 @@
         <v>3</v>
       </c>
       <c r="G182" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="s">
         <v>221</v>
@@ -12592,7 +12438,7 @@
         <v>3</v>
       </c>
       <c r="G183" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="s">
         <v>221</v>
@@ -12645,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0.377777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="H184" t="s">
         <v>27</v>
@@ -12698,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="H185" t="s">
         <v>27</v>
@@ -12751,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>0.444444444444444</v>
+        <v>0.475</v>
       </c>
       <c r="H186" t="s">
         <v>27</v>
@@ -12804,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="s">
         <v>27</v>
@@ -12857,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="H188" t="s">
         <v>27</v>
@@ -12910,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H189" t="s">
         <v>27</v>
@@ -12963,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="s">
         <v>27</v>
@@ -13016,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>0.711111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="H191" t="s">
         <v>27</v>
@@ -13069,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0.622222222222222</v>
+        <v>0.65</v>
       </c>
       <c r="H192" t="s">
         <v>27</v>
@@ -13122,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>0.711111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="H193" t="s">
         <v>27</v>
@@ -13175,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H194" t="s">
         <v>27</v>
@@ -13228,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H195" t="s">
         <v>27</v>
@@ -13281,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H196" t="s">
         <v>27</v>
@@ -13333,9 +13179,7 @@
       <c r="F197" t="n">
         <v>3</v>
       </c>
-      <c r="G197" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G197"/>
       <c r="H197" t="s">
         <v>36</v>
       </c>
@@ -13386,8 +13230,8 @@
       <c r="F198" t="n">
         <v>3</v>
       </c>
-      <c r="G198" t="e">
-        <v>#NUM!</v>
+      <c r="G198" t="n">
+        <v>0.525</v>
       </c>
       <c r="H198" t="s">
         <v>36</v>
@@ -13396,7 +13240,7 @@
         <v>31</v>
       </c>
       <c r="J198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K198" t="s">
         <v>20</v>
@@ -13435,9 +13279,7 @@
       </c>
       <c r="E199"/>
       <c r="F199"/>
-      <c r="G199" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G199"/>
       <c r="H199" t="s">
         <v>36</v>
       </c>
@@ -13484,9 +13326,7 @@
       </c>
       <c r="E200"/>
       <c r="F200"/>
-      <c r="G200" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G200"/>
       <c r="H200" t="s">
         <v>36</v>
       </c>
@@ -13537,9 +13377,7 @@
       <c r="F201" t="n">
         <v>2</v>
       </c>
-      <c r="G201" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G201"/>
       <c r="H201" t="s">
         <v>36</v>
       </c>
@@ -13590,9 +13428,7 @@
       <c r="F202" t="n">
         <v>1</v>
       </c>
-      <c r="G202" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G202"/>
       <c r="H202" t="s">
         <v>36</v>
       </c>
@@ -13639,9 +13475,7 @@
       </c>
       <c r="E203"/>
       <c r="F203"/>
-      <c r="G203" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G203"/>
       <c r="H203" t="s">
         <v>36</v>
       </c>
@@ -13692,9 +13526,7 @@
       <c r="F204" t="n">
         <v>2</v>
       </c>
-      <c r="G204" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G204"/>
       <c r="H204" t="s">
         <v>53</v>
       </c>
@@ -13745,9 +13577,7 @@
       <c r="F205" t="n">
         <v>2</v>
       </c>
-      <c r="G205" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G205"/>
       <c r="H205" t="s">
         <v>53</v>
       </c>
@@ -13798,9 +13628,7 @@
       <c r="F206" t="n">
         <v>2</v>
       </c>
-      <c r="G206" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G206"/>
       <c r="H206" t="s">
         <v>36</v>
       </c>
@@ -13851,9 +13679,7 @@
       <c r="F207" t="n">
         <v>2</v>
       </c>
-      <c r="G207" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G207"/>
       <c r="H207" t="s">
         <v>36</v>
       </c>
@@ -13904,9 +13730,7 @@
       <c r="F208" t="n">
         <v>2</v>
       </c>
-      <c r="G208" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G208"/>
       <c r="H208" t="s">
         <v>36</v>
       </c>
@@ -13957,9 +13781,7 @@
       <c r="F209" t="n">
         <v>2</v>
       </c>
-      <c r="G209" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G209"/>
       <c r="H209" t="s">
         <v>36</v>
       </c>
@@ -14010,9 +13832,7 @@
       <c r="F210" t="n">
         <v>2</v>
       </c>
-      <c r="G210" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G210"/>
       <c r="H210" t="s">
         <v>36</v>
       </c>
@@ -14063,9 +13883,7 @@
       <c r="F211" t="n">
         <v>2</v>
       </c>
-      <c r="G211" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G211"/>
       <c r="H211" t="s">
         <v>36</v>
       </c>
@@ -14116,9 +13934,7 @@
       <c r="F212" t="n">
         <v>2</v>
       </c>
-      <c r="G212" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G212"/>
       <c r="H212" t="s">
         <v>36</v>
       </c>
@@ -14165,9 +13981,7 @@
       </c>
       <c r="E213"/>
       <c r="F213"/>
-      <c r="G213" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G213"/>
       <c r="H213" t="s">
         <v>36</v>
       </c>
@@ -14214,9 +14028,7 @@
       </c>
       <c r="E214"/>
       <c r="F214"/>
-      <c r="G214" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G214"/>
       <c r="H214" t="s">
         <v>36</v>
       </c>
@@ -14263,9 +14075,7 @@
       </c>
       <c r="E215"/>
       <c r="F215"/>
-      <c r="G215" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G215"/>
       <c r="H215" t="s">
         <v>36</v>
       </c>
@@ -14312,9 +14122,7 @@
       </c>
       <c r="E216"/>
       <c r="F216"/>
-      <c r="G216" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G216"/>
       <c r="H216" t="s">
         <v>36</v>
       </c>
@@ -14361,9 +14169,7 @@
       </c>
       <c r="E217"/>
       <c r="F217"/>
-      <c r="G217" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G217"/>
       <c r="H217" t="s">
         <v>36</v>
       </c>
@@ -14410,9 +14216,7 @@
       </c>
       <c r="E218"/>
       <c r="F218"/>
-      <c r="G218" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G218"/>
       <c r="H218" t="s">
         <v>36</v>
       </c>
@@ -14463,9 +14267,7 @@
       <c r="F219" t="n">
         <v>3</v>
       </c>
-      <c r="G219" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G219"/>
       <c r="H219" t="s">
         <v>36</v>
       </c>
@@ -14516,8 +14318,8 @@
       <c r="F220" t="n">
         <v>1</v>
       </c>
-      <c r="G220" t="e">
-        <v>#NUM!</v>
+      <c r="G220" t="n">
+        <v>0.7</v>
       </c>
       <c r="H220" t="s">
         <v>27</v>
@@ -14526,7 +14328,7 @@
         <v>31</v>
       </c>
       <c r="J220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K220" t="s">
         <v>20</v>
@@ -14569,9 +14371,7 @@
       <c r="F221" t="n">
         <v>1</v>
       </c>
-      <c r="G221" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G221"/>
       <c r="H221" t="s">
         <v>53</v>
       </c>
@@ -14622,9 +14422,7 @@
       <c r="F222" t="n">
         <v>3</v>
       </c>
-      <c r="G222" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G222"/>
       <c r="H222" t="s">
         <v>36</v>
       </c>
@@ -14675,9 +14473,7 @@
       <c r="F223" t="n">
         <v>3</v>
       </c>
-      <c r="G223" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G223"/>
       <c r="H223" t="s">
         <v>36</v>
       </c>
@@ -14728,9 +14524,7 @@
       <c r="F224" t="n">
         <v>3</v>
       </c>
-      <c r="G224" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G224"/>
       <c r="H224" t="s">
         <v>36</v>
       </c>
@@ -14781,9 +14575,7 @@
       <c r="F225" t="n">
         <v>3</v>
       </c>
-      <c r="G225" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G225"/>
       <c r="H225" t="s">
         <v>36</v>
       </c>
@@ -14834,9 +14626,7 @@
       <c r="F226" t="n">
         <v>3</v>
       </c>
-      <c r="G226" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G226"/>
       <c r="H226" t="s">
         <v>36</v>
       </c>
@@ -14887,9 +14677,7 @@
       <c r="F227" t="n">
         <v>3</v>
       </c>
-      <c r="G227" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G227"/>
       <c r="H227" t="s">
         <v>36</v>
       </c>
@@ -14940,9 +14728,7 @@
       <c r="F228" t="n">
         <v>3</v>
       </c>
-      <c r="G228" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G228"/>
       <c r="H228" t="s">
         <v>36</v>
       </c>
@@ -14993,9 +14779,7 @@
       <c r="F229" t="n">
         <v>3</v>
       </c>
-      <c r="G229" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G229"/>
       <c r="H229" t="s">
         <v>36</v>
       </c>
@@ -15046,9 +14830,7 @@
       <c r="F230" t="n">
         <v>3</v>
       </c>
-      <c r="G230" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G230"/>
       <c r="H230" t="s">
         <v>36</v>
       </c>
@@ -15099,9 +14881,7 @@
       <c r="F231" t="n">
         <v>2</v>
       </c>
-      <c r="G231" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G231"/>
       <c r="H231" t="s">
         <v>36</v>
       </c>
@@ -15152,9 +14932,7 @@
       <c r="F232" t="n">
         <v>2</v>
       </c>
-      <c r="G232" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G232"/>
       <c r="H232" t="s">
         <v>36</v>
       </c>
@@ -15205,9 +14983,7 @@
       <c r="F233" t="n">
         <v>2</v>
       </c>
-      <c r="G233" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G233"/>
       <c r="H233" t="s">
         <v>36</v>
       </c>
@@ -15258,9 +15034,7 @@
       <c r="F234" t="n">
         <v>2</v>
       </c>
-      <c r="G234" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G234"/>
       <c r="H234" t="s">
         <v>36</v>
       </c>
@@ -15311,9 +15085,7 @@
       <c r="F235" t="n">
         <v>2</v>
       </c>
-      <c r="G235" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G235"/>
       <c r="H235" t="s">
         <v>36</v>
       </c>
@@ -15364,9 +15136,7 @@
       <c r="F236" t="n">
         <v>2</v>
       </c>
-      <c r="G236" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G236"/>
       <c r="H236" t="s">
         <v>36</v>
       </c>
@@ -15417,9 +15187,7 @@
       <c r="F237" t="n">
         <v>3</v>
       </c>
-      <c r="G237" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G237"/>
       <c r="H237" t="s">
         <v>36</v>
       </c>
@@ -15470,9 +15238,7 @@
       <c r="F238" t="n">
         <v>3</v>
       </c>
-      <c r="G238" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G238"/>
       <c r="H238" t="s">
         <v>36</v>
       </c>
@@ -15523,9 +15289,7 @@
       <c r="F239" t="n">
         <v>3</v>
       </c>
-      <c r="G239" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G239"/>
       <c r="H239" t="s">
         <v>36</v>
       </c>
@@ -15576,9 +15340,7 @@
       <c r="F240" t="n">
         <v>3</v>
       </c>
-      <c r="G240" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G240"/>
       <c r="H240" t="s">
         <v>36</v>
       </c>
@@ -15629,8 +15391,8 @@
       <c r="F241" t="n">
         <v>1</v>
       </c>
-      <c r="G241" t="e">
-        <v>#NUM!</v>
+      <c r="G241" t="n">
+        <v>0.475</v>
       </c>
       <c r="H241" t="s">
         <v>27</v>
@@ -15683,7 +15445,7 @@
         <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H242" t="s">
         <v>36</v>
@@ -15735,9 +15497,7 @@
       <c r="F243" t="n">
         <v>2</v>
       </c>
-      <c r="G243" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G243"/>
       <c r="H243" t="s">
         <v>36</v>
       </c>
@@ -15788,9 +15548,7 @@
       <c r="F244" t="n">
         <v>3</v>
       </c>
-      <c r="G244" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G244"/>
       <c r="H244" t="s">
         <v>36</v>
       </c>
@@ -15841,9 +15599,7 @@
       <c r="F245" t="n">
         <v>3</v>
       </c>
-      <c r="G245" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G245"/>
       <c r="H245" t="s">
         <v>36</v>
       </c>
@@ -15894,9 +15650,7 @@
       <c r="F246" t="n">
         <v>3</v>
       </c>
-      <c r="G246" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G246"/>
       <c r="H246" t="s">
         <v>36</v>
       </c>
@@ -15947,9 +15701,7 @@
       <c r="F247" t="n">
         <v>3</v>
       </c>
-      <c r="G247" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G247"/>
       <c r="H247" t="s">
         <v>36</v>
       </c>
@@ -16001,7 +15753,7 @@
         <v>3</v>
       </c>
       <c r="G248" t="n">
-        <v>0.288888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="H248" t="s">
         <v>36</v>
@@ -16054,7 +15806,7 @@
         <v>3</v>
       </c>
       <c r="G249" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H249" t="s">
         <v>36</v>
@@ -16107,7 +15859,7 @@
         <v>3</v>
       </c>
       <c r="G250" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H250" t="s">
         <v>36</v>
@@ -16160,7 +15912,7 @@
         <v>3</v>
       </c>
       <c r="G251" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H251" t="s">
         <v>36</v>
@@ -16213,7 +15965,7 @@
         <v>3</v>
       </c>
       <c r="G252" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H252" t="s">
         <v>36</v>
@@ -16266,7 +16018,7 @@
         <v>3</v>
       </c>
       <c r="G253" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H253" t="s">
         <v>36</v>
@@ -16319,7 +16071,7 @@
         <v>3</v>
       </c>
       <c r="G254" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H254" t="s">
         <v>36</v>
@@ -16372,7 +16124,7 @@
         <v>3</v>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="H255" t="s">
         <v>36</v>
@@ -16420,9 +16172,7 @@
       </c>
       <c r="E256"/>
       <c r="F256"/>
-      <c r="G256" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G256"/>
       <c r="H256" t="s">
         <v>36</v>
       </c>
@@ -16469,9 +16219,7 @@
       </c>
       <c r="E257"/>
       <c r="F257"/>
-      <c r="G257" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G257"/>
       <c r="H257" t="s">
         <v>36</v>
       </c>
@@ -16518,9 +16266,7 @@
       </c>
       <c r="E258"/>
       <c r="F258"/>
-      <c r="G258" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G258"/>
       <c r="H258" t="s">
         <v>36</v>
       </c>
@@ -16567,9 +16313,7 @@
       </c>
       <c r="E259"/>
       <c r="F259"/>
-      <c r="G259" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G259"/>
       <c r="H259" t="s">
         <v>36</v>
       </c>
@@ -16616,9 +16360,7 @@
       </c>
       <c r="E260"/>
       <c r="F260"/>
-      <c r="G260" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G260"/>
       <c r="H260" t="s">
         <v>36</v>
       </c>
@@ -16665,9 +16407,7 @@
       </c>
       <c r="E261"/>
       <c r="F261"/>
-      <c r="G261" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G261"/>
       <c r="H261" t="s">
         <v>36</v>
       </c>
@@ -16714,9 +16454,7 @@
       </c>
       <c r="E262"/>
       <c r="F262"/>
-      <c r="G262" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G262"/>
       <c r="H262" t="s">
         <v>36</v>
       </c>
@@ -16763,9 +16501,7 @@
       </c>
       <c r="E263"/>
       <c r="F263"/>
-      <c r="G263" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G263"/>
       <c r="H263" t="s">
         <v>36</v>
       </c>
@@ -16812,9 +16548,7 @@
       </c>
       <c r="E264"/>
       <c r="F264"/>
-      <c r="G264" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G264"/>
       <c r="H264" t="s">
         <v>36</v>
       </c>
@@ -16861,9 +16595,7 @@
       </c>
       <c r="E265"/>
       <c r="F265"/>
-      <c r="G265" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G265"/>
       <c r="H265" t="s">
         <v>36</v>
       </c>
@@ -16910,9 +16642,7 @@
       </c>
       <c r="E266"/>
       <c r="F266"/>
-      <c r="G266" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G266"/>
       <c r="H266" t="s">
         <v>36</v>
       </c>
@@ -16959,8 +16689,8 @@
       </c>
       <c r="E267"/>
       <c r="F267"/>
-      <c r="G267" t="e">
-        <v>#NUM!</v>
+      <c r="G267" t="n">
+        <v>0.7</v>
       </c>
       <c r="H267" t="s">
         <v>36</v>
@@ -16969,7 +16699,7 @@
         <v>31</v>
       </c>
       <c r="J267" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K267" t="s">
         <v>20</v>
@@ -17008,9 +16738,7 @@
       </c>
       <c r="E268"/>
       <c r="F268"/>
-      <c r="G268" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G268"/>
       <c r="H268" t="s">
         <v>36</v>
       </c>
@@ -17057,8 +16785,8 @@
       </c>
       <c r="E269"/>
       <c r="F269"/>
-      <c r="G269" t="e">
-        <v>#NUM!</v>
+      <c r="G269" t="n">
+        <v>0.6</v>
       </c>
       <c r="H269" t="s">
         <v>36</v>
@@ -17067,7 +16795,7 @@
         <v>31</v>
       </c>
       <c r="J269" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K269" t="s">
         <v>20</v>
@@ -17106,9 +16834,7 @@
       </c>
       <c r="E270"/>
       <c r="F270"/>
-      <c r="G270" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G270"/>
       <c r="H270" t="s">
         <v>36</v>
       </c>
@@ -17155,9 +16881,7 @@
       </c>
       <c r="E271"/>
       <c r="F271"/>
-      <c r="G271" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G271"/>
       <c r="H271" t="s">
         <v>36</v>
       </c>
@@ -17208,8 +16932,8 @@
       <c r="F272" t="n">
         <v>3</v>
       </c>
-      <c r="G272" t="e">
-        <v>#NUM!</v>
+      <c r="G272" t="n">
+        <v>0.625</v>
       </c>
       <c r="H272" t="s">
         <v>36</v>
@@ -17218,7 +16942,7 @@
         <v>31</v>
       </c>
       <c r="J272" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K272" t="s">
         <v>20</v>
@@ -17261,9 +16985,7 @@
       <c r="F273" t="n">
         <v>3</v>
       </c>
-      <c r="G273" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G273"/>
       <c r="H273" t="s">
         <v>36</v>
       </c>
@@ -17314,9 +17036,7 @@
       <c r="F274" t="n">
         <v>3</v>
       </c>
-      <c r="G274" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G274"/>
       <c r="H274" t="s">
         <v>36</v>
       </c>
@@ -17367,9 +17087,7 @@
       <c r="F275" t="n">
         <v>3</v>
       </c>
-      <c r="G275" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G275"/>
       <c r="H275" t="s">
         <v>36</v>
       </c>
@@ -17416,9 +17134,7 @@
       </c>
       <c r="E276"/>
       <c r="F276"/>
-      <c r="G276" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G276"/>
       <c r="H276" t="s">
         <v>36</v>
       </c>
@@ -17838,9 +17554,7 @@
       <c r="F286" t="n">
         <v>1</v>
       </c>
-      <c r="G286" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G286"/>
       <c r="H286" t="s">
         <v>53</v>
       </c>
@@ -17891,9 +17605,7 @@
       <c r="F287" t="n">
         <v>3</v>
       </c>
-      <c r="G287" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G287"/>
       <c r="H287" t="s">
         <v>36</v>
       </c>
@@ -17944,8 +17656,8 @@
       <c r="F288" t="n">
         <v>1</v>
       </c>
-      <c r="G288" t="n">
-        <v>0.955555555555556</v>
+      <c r="G288" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H288" t="s">
         <v>252</v>
@@ -17957,7 +17669,7 @@
         <v>20</v>
       </c>
       <c r="K288" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>0</v>
@@ -17998,7 +17710,7 @@
         <v>2</v>
       </c>
       <c r="G289" t="n">
-        <v>0.577777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="s">
         <v>36</v>
@@ -18051,7 +17763,7 @@
         <v>2</v>
       </c>
       <c r="G290" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="H290" t="s">
         <v>36</v>
@@ -18103,9 +17815,7 @@
       <c r="F291" t="n">
         <v>2</v>
       </c>
-      <c r="G291" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G291"/>
       <c r="H291" t="s">
         <v>36</v>
       </c>
@@ -18156,9 +17866,7 @@
       <c r="F292" t="n">
         <v>2</v>
       </c>
-      <c r="G292" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G292"/>
       <c r="H292" t="s">
         <v>36</v>
       </c>
@@ -18209,9 +17917,7 @@
       <c r="F293" t="n">
         <v>2</v>
       </c>
-      <c r="G293" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G293"/>
       <c r="H293" t="s">
         <v>36</v>
       </c>
@@ -18262,9 +17968,7 @@
       <c r="F294" t="n">
         <v>2</v>
       </c>
-      <c r="G294" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G294"/>
       <c r="H294" t="s">
         <v>36</v>
       </c>
@@ -18311,9 +18015,7 @@
       </c>
       <c r="E295"/>
       <c r="F295"/>
-      <c r="G295" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G295"/>
       <c r="H295" t="s">
         <v>413</v>
       </c>
@@ -18364,9 +18066,7 @@
       <c r="F296" t="n">
         <v>2</v>
       </c>
-      <c r="G296" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G296"/>
       <c r="H296" t="s">
         <v>36</v>
       </c>
@@ -18413,9 +18113,7 @@
       </c>
       <c r="E297"/>
       <c r="F297"/>
-      <c r="G297" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G297"/>
       <c r="H297" t="s">
         <v>36</v>
       </c>
@@ -18462,9 +18160,7 @@
       </c>
       <c r="E298"/>
       <c r="F298"/>
-      <c r="G298" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G298"/>
       <c r="H298" t="s">
         <v>36</v>
       </c>
@@ -18511,9 +18207,7 @@
       </c>
       <c r="E299"/>
       <c r="F299"/>
-      <c r="G299" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G299"/>
       <c r="H299" t="s">
         <v>36</v>
       </c>
@@ -18560,9 +18254,7 @@
       </c>
       <c r="E300"/>
       <c r="F300"/>
-      <c r="G300" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G300"/>
       <c r="H300" t="s">
         <v>36</v>
       </c>
@@ -18613,9 +18305,7 @@
       <c r="F301" t="n">
         <v>3</v>
       </c>
-      <c r="G301" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="G301"/>
       <c r="H301" t="s">
         <v>36</v>
       </c>
@@ -18623,7 +18313,7 @@
         <v>31</v>
       </c>
       <c r="J301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K301" t="s">
         <v>20</v>
@@ -18666,9 +18356,7 @@
       <c r="F302" t="n">
         <v>3</v>
       </c>
-      <c r="G302" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G302"/>
       <c r="H302" t="s">
         <v>36</v>
       </c>
@@ -18719,9 +18407,7 @@
       <c r="F303" t="n">
         <v>3</v>
       </c>
-      <c r="G303" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G303"/>
       <c r="H303" t="s">
         <v>36</v>
       </c>
@@ -18772,9 +18458,7 @@
       <c r="F304" t="n">
         <v>3</v>
       </c>
-      <c r="G304" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G304"/>
       <c r="H304" t="s">
         <v>36</v>
       </c>
@@ -18825,9 +18509,7 @@
       <c r="F305" t="n">
         <v>3</v>
       </c>
-      <c r="G305" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G305"/>
       <c r="H305" t="s">
         <v>36</v>
       </c>
@@ -18878,9 +18560,7 @@
       <c r="F306" t="n">
         <v>3</v>
       </c>
-      <c r="G306" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G306"/>
       <c r="H306" t="s">
         <v>36</v>
       </c>
@@ -18931,9 +18611,7 @@
       <c r="F307" t="n">
         <v>3</v>
       </c>
-      <c r="G307" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G307"/>
       <c r="H307" t="s">
         <v>36</v>
       </c>
@@ -18984,9 +18662,7 @@
       <c r="F308" t="n">
         <v>3</v>
       </c>
-      <c r="G308" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G308"/>
       <c r="H308" t="s">
         <v>36</v>
       </c>
@@ -19037,9 +18713,7 @@
       <c r="F309" t="n">
         <v>3</v>
       </c>
-      <c r="G309" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G309"/>
       <c r="H309" t="s">
         <v>36</v>
       </c>
@@ -19090,9 +18764,7 @@
       <c r="F310" t="n">
         <v>3</v>
       </c>
-      <c r="G310" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G310"/>
       <c r="H310" t="s">
         <v>36</v>
       </c>
@@ -19143,9 +18815,7 @@
       <c r="F311" t="n">
         <v>3</v>
       </c>
-      <c r="G311" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G311"/>
       <c r="H311" t="s">
         <v>36</v>
       </c>
@@ -19196,9 +18866,7 @@
       <c r="F312" t="n">
         <v>1</v>
       </c>
-      <c r="G312" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G312"/>
       <c r="H312" t="s">
         <v>36</v>
       </c>
@@ -19250,7 +18918,7 @@
         <v>3</v>
       </c>
       <c r="G313" t="n">
-        <v>0.644444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="H313" t="s">
         <v>36</v>
@@ -19303,7 +18971,7 @@
         <v>3</v>
       </c>
       <c r="G314" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H314" t="s">
         <v>36</v>
@@ -19356,7 +19024,7 @@
         <v>3</v>
       </c>
       <c r="G315" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H315" t="s">
         <v>36</v>
@@ -19409,7 +19077,7 @@
         <v>3</v>
       </c>
       <c r="G316" t="n">
-        <v>0.622222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H316" t="s">
         <v>36</v>
@@ -19462,7 +19130,7 @@
         <v>3</v>
       </c>
       <c r="G317" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H317" t="s">
         <v>36</v>
@@ -19515,7 +19183,7 @@
         <v>3</v>
       </c>
       <c r="G318" t="n">
-        <v>0.577777777777778</v>
+        <v>0.575</v>
       </c>
       <c r="H318" t="s">
         <v>36</v>
@@ -19563,9 +19231,7 @@
       </c>
       <c r="E319"/>
       <c r="F319"/>
-      <c r="G319" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G319"/>
       <c r="H319" t="s">
         <v>36</v>
       </c>
@@ -19616,9 +19282,7 @@
       <c r="F320" t="n">
         <v>1</v>
       </c>
-      <c r="G320" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G320"/>
       <c r="H320" t="s">
         <v>36</v>
       </c>
@@ -19669,9 +19333,7 @@
       <c r="F321" t="n">
         <v>1</v>
       </c>
-      <c r="G321" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G321"/>
       <c r="H321" t="s">
         <v>36</v>
       </c>
@@ -19774,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="G323" t="n">
-        <v>0.577777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="H323" t="s">
         <v>444</v>
@@ -19827,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="G324" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H324" t="s">
         <v>444</v>
@@ -19880,7 +19542,7 @@
         <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H325" t="s">
         <v>444</v>
@@ -19933,7 +19595,7 @@
         <v>1</v>
       </c>
       <c r="G326" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H326" t="s">
         <v>444</v>
@@ -19986,7 +19648,7 @@
         <v>1</v>
       </c>
       <c r="G327" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="H327" t="s">
         <v>444</v>
@@ -20034,9 +19696,7 @@
       </c>
       <c r="E328"/>
       <c r="F328"/>
-      <c r="G328" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G328"/>
       <c r="H328" t="s">
         <v>36</v>
       </c>
@@ -20083,8 +19743,8 @@
       </c>
       <c r="E329"/>
       <c r="F329"/>
-      <c r="G329" t="e">
-        <v>#NUM!</v>
+      <c r="G329" t="n">
+        <v>0.45</v>
       </c>
       <c r="H329" t="s">
         <v>36</v>
@@ -20093,7 +19753,7 @@
         <v>31</v>
       </c>
       <c r="J329" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K329" t="s">
         <v>20</v>
@@ -20132,9 +19792,7 @@
       </c>
       <c r="E330"/>
       <c r="F330"/>
-      <c r="G330" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G330"/>
       <c r="H330" t="s">
         <v>36</v>
       </c>
@@ -20185,9 +19843,7 @@
       <c r="F331" t="n">
         <v>1</v>
       </c>
-      <c r="G331" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G331"/>
       <c r="H331" t="s">
         <v>444</v>
       </c>
@@ -20238,9 +19894,7 @@
       <c r="F332" t="n">
         <v>2</v>
       </c>
-      <c r="G332" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G332"/>
       <c r="H332" t="s">
         <v>36</v>
       </c>
@@ -20291,9 +19945,7 @@
       <c r="F333" t="n">
         <v>2</v>
       </c>
-      <c r="G333" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G333"/>
       <c r="H333" t="s">
         <v>36</v>
       </c>
@@ -20344,9 +19996,7 @@
       <c r="F334" t="n">
         <v>2</v>
       </c>
-      <c r="G334" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G334"/>
       <c r="H334" t="s">
         <v>36</v>
       </c>
@@ -20397,9 +20047,7 @@
       <c r="F335" t="n">
         <v>2</v>
       </c>
-      <c r="G335" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G335"/>
       <c r="H335" t="s">
         <v>36</v>
       </c>
@@ -20450,9 +20098,7 @@
       <c r="F336" t="n">
         <v>2</v>
       </c>
-      <c r="G336" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G336"/>
       <c r="H336" t="s">
         <v>36</v>
       </c>
@@ -20503,9 +20149,7 @@
       <c r="F337" t="n">
         <v>2</v>
       </c>
-      <c r="G337" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G337"/>
       <c r="H337" t="s">
         <v>36</v>
       </c>
@@ -20552,9 +20196,7 @@
       </c>
       <c r="E338"/>
       <c r="F338"/>
-      <c r="G338" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G338"/>
       <c r="H338" t="s">
         <v>36</v>
       </c>
@@ -20601,9 +20243,7 @@
       </c>
       <c r="E339"/>
       <c r="F339"/>
-      <c r="G339" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G339"/>
       <c r="H339" t="s">
         <v>36</v>
       </c>
@@ -20650,9 +20290,7 @@
       </c>
       <c r="E340"/>
       <c r="F340"/>
-      <c r="G340" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G340"/>
       <c r="H340" t="s">
         <v>36</v>
       </c>
@@ -20827,7 +20465,7 @@
         <v>3</v>
       </c>
       <c r="G344" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="H344" t="s">
         <v>36</v>
@@ -20880,7 +20518,7 @@
         <v>3</v>
       </c>
       <c r="G345" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H345" t="s">
         <v>36</v>
@@ -20933,7 +20571,7 @@
         <v>3</v>
       </c>
       <c r="G346" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H346" t="s">
         <v>36</v>
@@ -20986,7 +20624,7 @@
         <v>3</v>
       </c>
       <c r="G347" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H347" t="s">
         <v>36</v>
@@ -21039,7 +20677,7 @@
         <v>3</v>
       </c>
       <c r="G348" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H348" t="s">
         <v>36</v>
@@ -21092,7 +20730,7 @@
         <v>3</v>
       </c>
       <c r="G349" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H349" t="s">
         <v>36</v>
@@ -21145,7 +20783,7 @@
         <v>3</v>
       </c>
       <c r="G350" t="n">
-        <v>0.644444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="H350" t="s">
         <v>36</v>
@@ -21198,7 +20836,7 @@
         <v>3</v>
       </c>
       <c r="G351" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H351" t="s">
         <v>36</v>
@@ -21251,7 +20889,7 @@
         <v>3</v>
       </c>
       <c r="G352" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H352" t="s">
         <v>36</v>
@@ -21304,7 +20942,7 @@
         <v>3</v>
       </c>
       <c r="G353" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H353" t="s">
         <v>36</v>
@@ -21356,8 +20994,8 @@
       <c r="F354" t="n">
         <v>3</v>
       </c>
-      <c r="G354" t="e">
-        <v>#NUM!</v>
+      <c r="G354" t="n">
+        <v>0.675</v>
       </c>
       <c r="H354" t="s">
         <v>36</v>
@@ -21366,7 +21004,7 @@
         <v>31</v>
       </c>
       <c r="J354" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K354" t="s">
         <v>20</v>
@@ -21409,8 +21047,8 @@
       <c r="F355" t="n">
         <v>3</v>
       </c>
-      <c r="G355" t="e">
-        <v>#NUM!</v>
+      <c r="G355" t="n">
+        <v>0.725</v>
       </c>
       <c r="H355" t="s">
         <v>36</v>
@@ -21419,10 +21057,10 @@
         <v>31</v>
       </c>
       <c r="J355" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K355" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L355" t="n">
         <v>0</v>
@@ -21462,8 +21100,8 @@
       <c r="F356" t="n">
         <v>3</v>
       </c>
-      <c r="G356" t="e">
-        <v>#NUM!</v>
+      <c r="G356" t="n">
+        <v>0.725</v>
       </c>
       <c r="H356" t="s">
         <v>36</v>
@@ -21472,10 +21110,10 @@
         <v>31</v>
       </c>
       <c r="J356" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K356" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L356" t="n">
         <v>0</v>
@@ -21515,8 +21153,8 @@
       <c r="F357" t="n">
         <v>3</v>
       </c>
-      <c r="G357" t="e">
-        <v>#NUM!</v>
+      <c r="G357" t="n">
+        <v>0.7</v>
       </c>
       <c r="H357" t="s">
         <v>36</v>
@@ -21525,7 +21163,7 @@
         <v>31</v>
       </c>
       <c r="J357" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K357" t="s">
         <v>20</v>
@@ -21568,9 +21206,7 @@
       <c r="F358" t="n">
         <v>3</v>
       </c>
-      <c r="G358" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G358"/>
       <c r="H358" t="s">
         <v>36</v>
       </c>
@@ -21621,9 +21257,7 @@
       <c r="F359" t="n">
         <v>1</v>
       </c>
-      <c r="G359" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G359"/>
       <c r="H359" t="s">
         <v>36</v>
       </c>
@@ -21675,7 +21309,7 @@
         <v>3</v>
       </c>
       <c r="G360" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H360" t="s">
         <v>221</v>
@@ -21728,7 +21362,7 @@
         <v>3</v>
       </c>
       <c r="G361" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H361" t="s">
         <v>221</v>
@@ -21781,7 +21415,7 @@
         <v>3</v>
       </c>
       <c r="G362" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H362" t="s">
         <v>221</v>
@@ -21834,7 +21468,7 @@
         <v>3</v>
       </c>
       <c r="G363" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H363" t="s">
         <v>221</v>
@@ -21887,7 +21521,7 @@
         <v>3</v>
       </c>
       <c r="G364" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H364" t="s">
         <v>221</v>
@@ -21940,7 +21574,7 @@
         <v>3</v>
       </c>
       <c r="G365" t="n">
-        <v>0.311111111111111</v>
+        <v>0.325</v>
       </c>
       <c r="H365" t="s">
         <v>221</v>
@@ -21993,7 +21627,7 @@
         <v>3</v>
       </c>
       <c r="G366" t="n">
-        <v>0.311111111111111</v>
+        <v>0.325</v>
       </c>
       <c r="H366" t="s">
         <v>221</v>
@@ -22046,7 +21680,7 @@
         <v>3</v>
       </c>
       <c r="G367" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H367" t="s">
         <v>221</v>
@@ -22150,7 +21784,7 @@
         <v>3</v>
       </c>
       <c r="G369" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H369" t="s">
         <v>36</v>
@@ -22203,7 +21837,7 @@
         <v>3</v>
       </c>
       <c r="G370" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H370" t="s">
         <v>36</v>
@@ -22256,7 +21890,7 @@
         <v>3</v>
       </c>
       <c r="G371" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H371" t="s">
         <v>36</v>
@@ -22309,7 +21943,7 @@
         <v>3</v>
       </c>
       <c r="G372" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H372" t="s">
         <v>36</v>
@@ -22362,7 +21996,7 @@
         <v>3</v>
       </c>
       <c r="G373" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H373" t="s">
         <v>36</v>
@@ -22415,7 +22049,7 @@
         <v>1</v>
       </c>
       <c r="G374" t="n">
-        <v>0.644444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="H374" t="s">
         <v>36</v>
@@ -22468,7 +22102,7 @@
         <v>1</v>
       </c>
       <c r="G375" t="n">
-        <v>0.666666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="H375" t="s">
         <v>36</v>
@@ -22521,7 +22155,7 @@
         <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H376" t="s">
         <v>36</v>
@@ -22574,7 +22208,7 @@
         <v>1</v>
       </c>
       <c r="G377" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H377" t="s">
         <v>36</v>
@@ -22627,7 +22261,7 @@
         <v>1</v>
       </c>
       <c r="G378" t="n">
-        <v>0.577777777777778</v>
+        <v>0.55</v>
       </c>
       <c r="H378" t="s">
         <v>36</v>
@@ -22680,7 +22314,7 @@
         <v>1</v>
       </c>
       <c r="G379" t="n">
-        <v>0.422222222222222</v>
+        <v>0.425</v>
       </c>
       <c r="H379" t="s">
         <v>36</v>
@@ -22733,7 +22367,7 @@
         <v>1</v>
       </c>
       <c r="G380" t="n">
-        <v>0.511111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="H380" t="s">
         <v>36</v>
@@ -22786,7 +22420,7 @@
         <v>1</v>
       </c>
       <c r="G381" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H381" t="s">
         <v>36</v>
@@ -22839,7 +22473,7 @@
         <v>1</v>
       </c>
       <c r="G382" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H382" t="s">
         <v>36</v>
@@ -22892,7 +22526,7 @@
         <v>1</v>
       </c>
       <c r="G383" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H383" t="s">
         <v>36</v>
@@ -22945,7 +22579,7 @@
         <v>1</v>
       </c>
       <c r="G384" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H384" t="s">
         <v>36</v>
@@ -22998,7 +22632,7 @@
         <v>3</v>
       </c>
       <c r="G385" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H385" t="s">
         <v>36</v>
@@ -23051,7 +22685,7 @@
         <v>3</v>
       </c>
       <c r="G386" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H386" t="s">
         <v>36</v>
@@ -23104,7 +22738,7 @@
         <v>3</v>
       </c>
       <c r="G387" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H387" t="s">
         <v>36</v>
@@ -23157,7 +22791,7 @@
         <v>3</v>
       </c>
       <c r="G388" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H388" t="s">
         <v>36</v>
@@ -23210,7 +22844,7 @@
         <v>3</v>
       </c>
       <c r="G389" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H389" t="s">
         <v>36</v>
@@ -23263,7 +22897,7 @@
         <v>3</v>
       </c>
       <c r="G390" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H390" t="s">
         <v>36</v>
@@ -23316,7 +22950,7 @@
         <v>1</v>
       </c>
       <c r="G391" t="n">
-        <v>0.711111111111111</v>
+        <v>0.725</v>
       </c>
       <c r="H391" t="s">
         <v>36</v>
@@ -23369,7 +23003,7 @@
         <v>1</v>
       </c>
       <c r="G392" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="H392" t="s">
         <v>36</v>
@@ -23422,7 +23056,7 @@
         <v>1</v>
       </c>
       <c r="G393" t="n">
-        <v>0.488888888888889</v>
+        <v>0.525</v>
       </c>
       <c r="H393" t="s">
         <v>36</v>
@@ -23475,7 +23109,7 @@
         <v>1</v>
       </c>
       <c r="G394" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H394" t="s">
         <v>36</v>
@@ -23528,7 +23162,7 @@
         <v>1</v>
       </c>
       <c r="G395" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="H395" t="s">
         <v>36</v>
@@ -23537,7 +23171,7 @@
         <v>31</v>
       </c>
       <c r="J395" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K395" t="s">
         <v>21</v>
@@ -23581,7 +23215,7 @@
         <v>1</v>
       </c>
       <c r="G396" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H396" t="s">
         <v>36</v>
@@ -23634,7 +23268,7 @@
         <v>3</v>
       </c>
       <c r="G397" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H397" t="s">
         <v>36</v>
@@ -23687,7 +23321,7 @@
         <v>3</v>
       </c>
       <c r="G398" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H398" t="s">
         <v>36</v>
@@ -23740,7 +23374,7 @@
         <v>3</v>
       </c>
       <c r="G399" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H399" t="s">
         <v>36</v>
@@ -23793,7 +23427,7 @@
         <v>3</v>
       </c>
       <c r="G400" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H400" t="s">
         <v>36</v>
@@ -23846,7 +23480,7 @@
         <v>1</v>
       </c>
       <c r="G401" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H401" t="s">
         <v>141</v>
@@ -24111,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="G406" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H406" t="s">
         <v>141</v>
@@ -24164,7 +23798,7 @@
         <v>1</v>
       </c>
       <c r="G407" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H407" t="s">
         <v>141</v>
@@ -24217,7 +23851,7 @@
         <v>1</v>
       </c>
       <c r="G408" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H408" t="s">
         <v>141</v>
@@ -24270,7 +23904,7 @@
         <v>1</v>
       </c>
       <c r="G409" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H409" t="s">
         <v>141</v>
@@ -24322,9 +23956,7 @@
       <c r="F410" t="n">
         <v>3</v>
       </c>
-      <c r="G410" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G410"/>
       <c r="H410" t="s">
         <v>36</v>
       </c>
@@ -24375,9 +24007,7 @@
       <c r="F411" t="n">
         <v>3</v>
       </c>
-      <c r="G411" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G411"/>
       <c r="H411" t="s">
         <v>36</v>
       </c>
@@ -24428,9 +24058,7 @@
       <c r="F412" t="n">
         <v>3</v>
       </c>
-      <c r="G412" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G412"/>
       <c r="H412" t="s">
         <v>36</v>
       </c>
@@ -24481,9 +24109,7 @@
       <c r="F413" t="n">
         <v>3</v>
       </c>
-      <c r="G413" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G413"/>
       <c r="H413" t="s">
         <v>36</v>
       </c>
@@ -24534,8 +24160,8 @@
       <c r="F414" t="n">
         <v>3</v>
       </c>
-      <c r="G414" t="e">
-        <v>#NUM!</v>
+      <c r="G414" t="n">
+        <v>0.525</v>
       </c>
       <c r="H414" t="s">
         <v>36</v>
@@ -24544,7 +24170,7 @@
         <v>31</v>
       </c>
       <c r="J414" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K414" t="s">
         <v>20</v>
@@ -24587,9 +24213,7 @@
       <c r="F415" t="n">
         <v>3</v>
       </c>
-      <c r="G415" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G415"/>
       <c r="H415" t="s">
         <v>36</v>
       </c>
@@ -24641,7 +24265,7 @@
         <v>2</v>
       </c>
       <c r="G416" t="n">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="H416" t="s">
         <v>36</v>
@@ -24694,7 +24318,7 @@
         <v>2</v>
       </c>
       <c r="G417" t="n">
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="H417" t="s">
         <v>36</v>
@@ -24747,7 +24371,7 @@
         <v>2</v>
       </c>
       <c r="G418" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H418" t="s">
         <v>36</v>
@@ -24799,9 +24423,7 @@
       <c r="F419" t="n">
         <v>2</v>
       </c>
-      <c r="G419" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G419"/>
       <c r="H419" t="s">
         <v>36</v>
       </c>
@@ -24853,7 +24475,7 @@
         <v>3</v>
       </c>
       <c r="G420" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H420" t="s">
         <v>36</v>
@@ -24906,7 +24528,7 @@
         <v>3</v>
       </c>
       <c r="G421" t="n">
-        <v>0.244444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H421" t="s">
         <v>36</v>
@@ -24959,7 +24581,7 @@
         <v>3</v>
       </c>
       <c r="G422" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H422" t="s">
         <v>36</v>
@@ -25012,7 +24634,7 @@
         <v>3</v>
       </c>
       <c r="G423" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H423" t="s">
         <v>36</v>
@@ -25065,7 +24687,7 @@
         <v>3</v>
       </c>
       <c r="G424" t="n">
-        <v>0.244444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H424" t="s">
         <v>36</v>
@@ -25118,7 +24740,7 @@
         <v>3</v>
       </c>
       <c r="G425" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H425" t="s">
         <v>36</v>
@@ -25171,7 +24793,7 @@
         <v>3</v>
       </c>
       <c r="G426" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H426" t="s">
         <v>36</v>
@@ -25220,7 +24842,7 @@
       <c r="E427"/>
       <c r="F427"/>
       <c r="G427" t="n">
-        <v>0.488888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="H427" t="s">
         <v>36</v>
@@ -25268,9 +24890,7 @@
       </c>
       <c r="E428"/>
       <c r="F428"/>
-      <c r="G428" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G428"/>
       <c r="H428" t="s">
         <v>36</v>
       </c>
@@ -25317,9 +24937,7 @@
       </c>
       <c r="E429"/>
       <c r="F429"/>
-      <c r="G429" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G429"/>
       <c r="H429" t="s">
         <v>36</v>
       </c>
@@ -25370,9 +24988,7 @@
       <c r="F430" t="n">
         <v>2</v>
       </c>
-      <c r="G430" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G430"/>
       <c r="H430" t="s">
         <v>36</v>
       </c>
@@ -25423,9 +25039,7 @@
       <c r="F431" t="n">
         <v>3</v>
       </c>
-      <c r="G431" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G431"/>
       <c r="H431" t="s">
         <v>36</v>
       </c>
@@ -25476,9 +25090,7 @@
       <c r="F432" t="n">
         <v>3</v>
       </c>
-      <c r="G432" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G432"/>
       <c r="H432" t="s">
         <v>36</v>
       </c>
@@ -25530,7 +25142,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H433" t="s">
         <v>36</v>
@@ -25583,7 +25195,7 @@
         <v>2</v>
       </c>
       <c r="G434" t="n">
-        <v>0.688888888888889</v>
+        <v>0.65</v>
       </c>
       <c r="H434" t="s">
         <v>36</v>
@@ -25636,7 +25248,7 @@
         <v>1</v>
       </c>
       <c r="G435" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="H435" t="s">
         <v>53</v>
@@ -25689,7 +25301,7 @@
         <v>1</v>
       </c>
       <c r="G436" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H436" t="s">
         <v>53</v>
@@ -25742,7 +25354,7 @@
         <v>1</v>
       </c>
       <c r="G437" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="H437" t="s">
         <v>53</v>
@@ -25848,7 +25460,7 @@
         <v>1</v>
       </c>
       <c r="G439" t="n">
-        <v>0.533333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="H439" t="s">
         <v>53</v>
@@ -25901,7 +25513,7 @@
         <v>1</v>
       </c>
       <c r="G440" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H440" t="s">
         <v>53</v>
@@ -25954,7 +25566,7 @@
         <v>1</v>
       </c>
       <c r="G441" t="n">
-        <v>0.555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="H441" t="s">
         <v>53</v>
@@ -26007,7 +25619,7 @@
         <v>1</v>
       </c>
       <c r="G442" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H442" t="s">
         <v>53</v>
@@ -26060,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="G443" t="n">
-        <v>0.422222222222222</v>
+        <v>0.425</v>
       </c>
       <c r="H443" t="s">
         <v>53</v>
@@ -26113,7 +25725,7 @@
         <v>1</v>
       </c>
       <c r="G444" t="n">
-        <v>0.422222222222222</v>
+        <v>0.425</v>
       </c>
       <c r="H444" t="s">
         <v>53</v>
@@ -26166,7 +25778,7 @@
         <v>1</v>
       </c>
       <c r="G445" t="n">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H445" t="s">
         <v>53</v>
@@ -26219,7 +25831,7 @@
         <v>1</v>
       </c>
       <c r="G446" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H446" t="s">
         <v>53</v>
@@ -26272,7 +25884,7 @@
         <v>1</v>
       </c>
       <c r="G447" t="n">
-        <v>0.466666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="H447" t="s">
         <v>53</v>
@@ -26325,7 +25937,7 @@
         <v>1</v>
       </c>
       <c r="G448" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H448" t="s">
         <v>53</v>
@@ -26431,7 +26043,7 @@
         <v>3</v>
       </c>
       <c r="G450" t="n">
-        <v>0.577777777777778</v>
+        <v>0.575</v>
       </c>
       <c r="H450" t="s">
         <v>36</v>
@@ -26483,9 +26095,7 @@
       <c r="F451" t="n">
         <v>3</v>
       </c>
-      <c r="G451" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G451"/>
       <c r="H451" t="s">
         <v>36</v>
       </c>
@@ -26536,9 +26146,7 @@
       <c r="F452" t="n">
         <v>3</v>
       </c>
-      <c r="G452" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G452"/>
       <c r="H452" t="s">
         <v>36</v>
       </c>
@@ -26589,9 +26197,7 @@
       <c r="F453" t="n">
         <v>3</v>
       </c>
-      <c r="G453" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G453"/>
       <c r="H453" t="s">
         <v>36</v>
       </c>
@@ -26642,9 +26248,7 @@
       <c r="F454" t="n">
         <v>3</v>
       </c>
-      <c r="G454" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G454"/>
       <c r="H454" t="s">
         <v>36</v>
       </c>
@@ -26695,9 +26299,7 @@
       <c r="F455" t="n">
         <v>3</v>
       </c>
-      <c r="G455" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G455"/>
       <c r="H455" t="s">
         <v>36</v>
       </c>
@@ -26954,7 +26556,7 @@
         <v>3</v>
       </c>
       <c r="G461" t="n">
-        <v>0.866666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="H461" t="s">
         <v>36</v>
@@ -27006,8 +26608,8 @@
       <c r="F462" t="n">
         <v>3</v>
       </c>
-      <c r="G462" t="e">
-        <v>#NUM!</v>
+      <c r="G462" t="n">
+        <v>0.65</v>
       </c>
       <c r="H462" t="s">
         <v>36</v>
@@ -27016,7 +26618,7 @@
         <v>31</v>
       </c>
       <c r="J462" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K462" t="s">
         <v>20</v>
@@ -29698,7 +29300,7 @@
         <v>2</v>
       </c>
       <c r="G529" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H529" t="s">
         <v>36</v>
@@ -29710,7 +29312,7 @@
         <v>21</v>
       </c>
       <c r="K529" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L529" t="n">
         <v>34.6727712734646</v>
@@ -29750,9 +29352,7 @@
       <c r="F530" t="n">
         <v>1</v>
       </c>
-      <c r="G530" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G530"/>
       <c r="H530" t="s">
         <v>141</v>
       </c>
@@ -29804,7 +29404,7 @@
         <v>2</v>
       </c>
       <c r="G531" t="n">
-        <v>0.244444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="H531" t="s">
         <v>36</v>
@@ -29857,7 +29457,7 @@
         <v>2</v>
       </c>
       <c r="G532" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H532" t="s">
         <v>36</v>
@@ -29910,7 +29510,7 @@
         <v>2</v>
       </c>
       <c r="G533" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H533" t="s">
         <v>36</v>
@@ -29963,7 +29563,7 @@
         <v>2</v>
       </c>
       <c r="G534" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H534" t="s">
         <v>36</v>
@@ -30016,7 +29616,7 @@
         <v>2</v>
       </c>
       <c r="G535" t="n">
-        <v>0.355555555555556</v>
+        <v>0.325</v>
       </c>
       <c r="H535" t="s">
         <v>36</v>
@@ -30069,7 +29669,7 @@
         <v>2</v>
       </c>
       <c r="G536" t="n">
-        <v>0.533333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H536" t="s">
         <v>36</v>
@@ -30122,7 +29722,7 @@
         <v>2</v>
       </c>
       <c r="G537" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H537" t="s">
         <v>36</v>
@@ -30175,7 +29775,7 @@
         <v>2</v>
       </c>
       <c r="G538" t="n">
-        <v>0.288888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="H538" t="s">
         <v>36</v>
@@ -30227,9 +29827,7 @@
       <c r="F539" t="n">
         <v>3</v>
       </c>
-      <c r="G539" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G539"/>
       <c r="H539" t="s">
         <v>36</v>
       </c>
@@ -30280,8 +29878,8 @@
       <c r="F540" t="n">
         <v>3</v>
       </c>
-      <c r="G540" t="e">
-        <v>#NUM!</v>
+      <c r="G540" t="n">
+        <v>0.45</v>
       </c>
       <c r="H540" t="s">
         <v>36</v>
@@ -30333,8 +29931,8 @@
       <c r="F541" t="n">
         <v>3</v>
       </c>
-      <c r="G541" t="e">
-        <v>#NUM!</v>
+      <c r="G541" t="n">
+        <v>0.5</v>
       </c>
       <c r="H541" t="s">
         <v>36</v>
@@ -30386,8 +29984,8 @@
       <c r="F542" t="n">
         <v>3</v>
       </c>
-      <c r="G542" t="e">
-        <v>#NUM!</v>
+      <c r="G542" t="n">
+        <v>0.45</v>
       </c>
       <c r="H542" t="s">
         <v>36</v>
@@ -30439,8 +30037,8 @@
       <c r="F543" t="n">
         <v>3</v>
       </c>
-      <c r="G543" t="e">
-        <v>#NUM!</v>
+      <c r="G543" t="n">
+        <v>0.5</v>
       </c>
       <c r="H543" t="s">
         <v>36</v>
@@ -30492,8 +30090,8 @@
       <c r="F544" t="n">
         <v>3</v>
       </c>
-      <c r="G544" t="e">
-        <v>#NUM!</v>
+      <c r="G544" t="n">
+        <v>0.45</v>
       </c>
       <c r="H544" t="s">
         <v>36</v>
@@ -30545,8 +30143,8 @@
       <c r="F545" t="n">
         <v>3</v>
       </c>
-      <c r="G545" t="e">
-        <v>#NUM!</v>
+      <c r="G545" t="n">
+        <v>0.5</v>
       </c>
       <c r="H545" t="s">
         <v>36</v>
@@ -30598,8 +30196,8 @@
       <c r="F546" t="n">
         <v>3</v>
       </c>
-      <c r="G546" t="e">
-        <v>#NUM!</v>
+      <c r="G546" t="n">
+        <v>0.475</v>
       </c>
       <c r="H546" t="s">
         <v>36</v>
@@ -30651,8 +30249,8 @@
       <c r="F547" t="n">
         <v>3</v>
       </c>
-      <c r="G547" t="e">
-        <v>#NUM!</v>
+      <c r="G547" t="n">
+        <v>0.55</v>
       </c>
       <c r="H547" t="s">
         <v>36</v>
@@ -30705,7 +30303,7 @@
         <v>2</v>
       </c>
       <c r="G548" t="n">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H548" t="s">
         <v>36</v>
@@ -30758,7 +30356,7 @@
         <v>2</v>
       </c>
       <c r="G549" t="n">
-        <v>0.888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="H549" t="s">
         <v>36</v>
@@ -30810,9 +30408,7 @@
       <c r="F550" t="n">
         <v>2</v>
       </c>
-      <c r="G550" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G550"/>
       <c r="H550" t="s">
         <v>36</v>
       </c>
@@ -30863,9 +30459,7 @@
       <c r="F551" t="n">
         <v>3</v>
       </c>
-      <c r="G551" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G551"/>
       <c r="H551" t="s">
         <v>36</v>
       </c>
@@ -30916,9 +30510,7 @@
       <c r="F552" t="n">
         <v>2</v>
       </c>
-      <c r="G552" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G552"/>
       <c r="H552" t="s">
         <v>141</v>
       </c>
@@ -30969,9 +30561,7 @@
       <c r="F553" t="n">
         <v>1</v>
       </c>
-      <c r="G553" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G553"/>
       <c r="H553" t="s">
         <v>27</v>
       </c>
@@ -31022,9 +30612,7 @@
       <c r="F554" t="n">
         <v>1</v>
       </c>
-      <c r="G554" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G554"/>
       <c r="H554" t="s">
         <v>27</v>
       </c>
@@ -31181,8 +30769,8 @@
       <c r="F557" t="n">
         <v>1</v>
       </c>
-      <c r="G557" t="n">
-        <v>0.533333333333333</v>
+      <c r="G557" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H557" t="s">
         <v>27</v>
@@ -31191,7 +30779,7 @@
         <v>31</v>
       </c>
       <c r="J557" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K557" t="s">
         <v>20</v>
@@ -31234,8 +30822,8 @@
       <c r="F558" t="n">
         <v>1</v>
       </c>
-      <c r="G558" t="n">
-        <v>0.422222222222222</v>
+      <c r="G558" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H558" t="s">
         <v>27</v>
@@ -31244,7 +30832,7 @@
         <v>31</v>
       </c>
       <c r="J558" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K558" t="s">
         <v>20</v>
@@ -31283,9 +30871,7 @@
       </c>
       <c r="E559"/>
       <c r="F559"/>
-      <c r="G559" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G559"/>
       <c r="H559" t="s">
         <v>36</v>
       </c>
@@ -31336,9 +30922,7 @@
       <c r="F560" t="n">
         <v>1</v>
       </c>
-      <c r="G560" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G560"/>
       <c r="H560" t="s">
         <v>36</v>
       </c>
@@ -31389,9 +30973,7 @@
       <c r="F561" t="n">
         <v>3</v>
       </c>
-      <c r="G561" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G561"/>
       <c r="H561" t="s">
         <v>36</v>
       </c>
@@ -31442,9 +31024,7 @@
       <c r="F562" t="n">
         <v>3</v>
       </c>
-      <c r="G562" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G562"/>
       <c r="H562" t="s">
         <v>36</v>
       </c>
@@ -31543,7 +31123,7 @@
         <v>2</v>
       </c>
       <c r="G564" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H564" t="s">
         <v>36</v>
@@ -31595,8 +31175,8 @@
       <c r="F565" t="n">
         <v>3</v>
       </c>
-      <c r="G565" t="e">
-        <v>#NUM!</v>
+      <c r="G565" t="n">
+        <v>0.525</v>
       </c>
       <c r="H565" t="s">
         <v>36</v>
@@ -31648,8 +31228,8 @@
       <c r="F566" t="n">
         <v>3</v>
       </c>
-      <c r="G566" t="e">
-        <v>#NUM!</v>
+      <c r="G566" t="n">
+        <v>0.575</v>
       </c>
       <c r="H566" t="s">
         <v>36</v>
@@ -31701,8 +31281,8 @@
       <c r="F567" t="n">
         <v>3</v>
       </c>
-      <c r="G567" t="e">
-        <v>#NUM!</v>
+      <c r="G567" t="n">
+        <v>0.575</v>
       </c>
       <c r="H567" t="s">
         <v>36</v>
@@ -31754,8 +31334,8 @@
       <c r="F568" t="n">
         <v>3</v>
       </c>
-      <c r="G568" t="e">
-        <v>#NUM!</v>
+      <c r="G568" t="n">
+        <v>0.525</v>
       </c>
       <c r="H568" t="s">
         <v>36</v>
@@ -31764,7 +31344,7 @@
         <v>31</v>
       </c>
       <c r="J568" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K568" t="s">
         <v>20</v>
@@ -31807,9 +31387,7 @@
       <c r="F569" t="n">
         <v>3</v>
       </c>
-      <c r="G569" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G569"/>
       <c r="H569" t="s">
         <v>36</v>
       </c>
@@ -31860,9 +31438,7 @@
       <c r="F570" t="n">
         <v>3</v>
       </c>
-      <c r="G570" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G570"/>
       <c r="H570" t="s">
         <v>36</v>
       </c>
@@ -31913,9 +31489,7 @@
       <c r="F571" t="n">
         <v>1</v>
       </c>
-      <c r="G571" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G571"/>
       <c r="H571" t="s">
         <v>53</v>
       </c>
@@ -31966,9 +31540,7 @@
       <c r="F572" t="n">
         <v>1</v>
       </c>
-      <c r="G572" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G572"/>
       <c r="H572" t="s">
         <v>53</v>
       </c>
@@ -32019,9 +31591,7 @@
       <c r="F573" t="n">
         <v>1</v>
       </c>
-      <c r="G573" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G573"/>
       <c r="H573" t="s">
         <v>53</v>
       </c>
@@ -32068,9 +31638,7 @@
       </c>
       <c r="E574"/>
       <c r="F574"/>
-      <c r="G574" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G574"/>
       <c r="H574" t="s">
         <v>36</v>
       </c>
@@ -32117,9 +31685,7 @@
       </c>
       <c r="E575"/>
       <c r="F575"/>
-      <c r="G575" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G575"/>
       <c r="H575" t="s">
         <v>36</v>
       </c>
@@ -32171,7 +31737,7 @@
         <v>1</v>
       </c>
       <c r="G576" t="n">
-        <v>0.666666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H576" t="s">
         <v>36</v>
@@ -32223,9 +31789,7 @@
       <c r="F577" t="n">
         <v>2</v>
       </c>
-      <c r="G577" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G577"/>
       <c r="H577" t="s">
         <v>36</v>
       </c>
@@ -32276,9 +31840,7 @@
       <c r="F578" t="n">
         <v>2</v>
       </c>
-      <c r="G578" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G578"/>
       <c r="H578" t="s">
         <v>36</v>
       </c>
@@ -32329,8 +31891,8 @@
       <c r="F579" t="n">
         <v>3</v>
       </c>
-      <c r="G579" t="e">
-        <v>#NUM!</v>
+      <c r="G579" t="n">
+        <v>0.7</v>
       </c>
       <c r="H579" t="s">
         <v>36</v>
@@ -32339,7 +31901,7 @@
         <v>31</v>
       </c>
       <c r="J579" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K579" t="s">
         <v>20</v>
@@ -32911,9 +32473,7 @@
       </c>
       <c r="E593"/>
       <c r="F593"/>
-      <c r="G593" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G593"/>
       <c r="H593" t="s">
         <v>36</v>
       </c>
@@ -32960,9 +32520,7 @@
       </c>
       <c r="E594"/>
       <c r="F594"/>
-      <c r="G594" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G594"/>
       <c r="H594" t="s">
         <v>36</v>
       </c>
@@ -33013,9 +32571,7 @@
       <c r="F595" t="n">
         <v>1</v>
       </c>
-      <c r="G595" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G595"/>
       <c r="H595" t="s">
         <v>36</v>
       </c>
@@ -33066,9 +32622,7 @@
       <c r="F596" t="n">
         <v>2</v>
       </c>
-      <c r="G596" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G596"/>
       <c r="H596" t="s">
         <v>36</v>
       </c>
@@ -33119,9 +32673,7 @@
       <c r="F597" t="n">
         <v>1</v>
       </c>
-      <c r="G597" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G597"/>
       <c r="H597" t="s">
         <v>763</v>
       </c>
@@ -33457,9 +33009,7 @@
       <c r="F605" t="n">
         <v>2</v>
       </c>
-      <c r="G605" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G605"/>
       <c r="H605" t="s">
         <v>167</v>
       </c>
@@ -33510,9 +33060,7 @@
       <c r="F606" t="n">
         <v>2</v>
       </c>
-      <c r="G606" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G606"/>
       <c r="H606" t="s">
         <v>167</v>
       </c>
@@ -33563,9 +33111,7 @@
       <c r="F607" t="n">
         <v>2</v>
       </c>
-      <c r="G607" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G607"/>
       <c r="H607" t="s">
         <v>167</v>
       </c>
@@ -33616,9 +33162,7 @@
       <c r="F608" t="n">
         <v>2</v>
       </c>
-      <c r="G608" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G608"/>
       <c r="H608" t="s">
         <v>167</v>
       </c>
@@ -33669,9 +33213,7 @@
       <c r="F609" t="n">
         <v>3</v>
       </c>
-      <c r="G609" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G609"/>
       <c r="H609" t="s">
         <v>36</v>
       </c>
@@ -33722,9 +33264,7 @@
       <c r="F610" t="n">
         <v>3</v>
       </c>
-      <c r="G610" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G610"/>
       <c r="H610" t="s">
         <v>36</v>
       </c>
@@ -33775,9 +33315,7 @@
       <c r="F611" t="n">
         <v>3</v>
       </c>
-      <c r="G611" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G611"/>
       <c r="H611" t="s">
         <v>36</v>
       </c>
@@ -33828,9 +33366,7 @@
       <c r="F612" t="n">
         <v>3</v>
       </c>
-      <c r="G612" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G612"/>
       <c r="H612" t="s">
         <v>36</v>
       </c>
@@ -33881,9 +33417,7 @@
       <c r="F613" t="n">
         <v>3</v>
       </c>
-      <c r="G613" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G613"/>
       <c r="H613" t="s">
         <v>36</v>
       </c>
@@ -33935,7 +33469,7 @@
         <v>3</v>
       </c>
       <c r="G614" t="n">
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
       <c r="H614" t="s">
         <v>36</v>
@@ -33987,9 +33521,7 @@
       <c r="F615" t="n">
         <v>3</v>
       </c>
-      <c r="G615" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G615"/>
       <c r="H615" t="s">
         <v>36</v>
       </c>
@@ -34122,8 +33654,8 @@
       <c r="F618" t="n">
         <v>1</v>
       </c>
-      <c r="G618" t="e">
-        <v>#NUM!</v>
+      <c r="G618" t="n">
+        <v>0.55</v>
       </c>
       <c r="H618" t="s">
         <v>27</v>
@@ -34176,7 +33708,7 @@
         <v>1</v>
       </c>
       <c r="G619" t="n">
-        <v>0.688888888888889</v>
+        <v>0.7</v>
       </c>
       <c r="H619" t="s">
         <v>27</v>
@@ -34228,8 +33760,8 @@
       <c r="F620" t="n">
         <v>1</v>
       </c>
-      <c r="G620" t="n">
-        <v>0.644444444444444</v>
+      <c r="G620" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H620" t="s">
         <v>27</v>
@@ -34238,7 +33770,7 @@
         <v>31</v>
       </c>
       <c r="J620" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K620" t="s">
         <v>20</v>
@@ -34281,9 +33813,7 @@
       <c r="F621" t="n">
         <v>3</v>
       </c>
-      <c r="G621" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G621"/>
       <c r="H621" t="s">
         <v>36</v>
       </c>
@@ -34330,9 +33860,7 @@
       </c>
       <c r="E622"/>
       <c r="F622"/>
-      <c r="G622" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G622"/>
       <c r="H622" t="s">
         <v>36</v>
       </c>
@@ -34379,9 +33907,7 @@
       </c>
       <c r="E623"/>
       <c r="F623"/>
-      <c r="G623" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G623"/>
       <c r="H623" t="s">
         <v>36</v>
       </c>
@@ -34473,9 +33999,7 @@
       <c r="F625" t="n">
         <v>3</v>
       </c>
-      <c r="G625" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G625"/>
       <c r="H625" t="s">
         <v>36</v>
       </c>
@@ -34526,9 +34050,7 @@
       <c r="F626" t="n">
         <v>3</v>
       </c>
-      <c r="G626" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G626"/>
       <c r="H626" t="s">
         <v>36</v>
       </c>
@@ -34579,8 +34101,8 @@
       <c r="F627" t="n">
         <v>3</v>
       </c>
-      <c r="G627" t="e">
-        <v>#NUM!</v>
+      <c r="G627" t="n">
+        <v>0.575</v>
       </c>
       <c r="H627" t="s">
         <v>36</v>
@@ -34589,7 +34111,7 @@
         <v>31</v>
       </c>
       <c r="J627" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K627" t="s">
         <v>20</v>
@@ -34632,8 +34154,8 @@
       <c r="F628" t="n">
         <v>3</v>
       </c>
-      <c r="G628" t="e">
-        <v>#NUM!</v>
+      <c r="G628" t="n">
+        <v>0.5</v>
       </c>
       <c r="H628" t="s">
         <v>36</v>
@@ -34642,7 +34164,7 @@
         <v>31</v>
       </c>
       <c r="J628" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K628" t="s">
         <v>20</v>
@@ -34685,8 +34207,8 @@
       <c r="F629" t="n">
         <v>3</v>
       </c>
-      <c r="G629" t="e">
-        <v>#NUM!</v>
+      <c r="G629" t="n">
+        <v>0.6</v>
       </c>
       <c r="H629" t="s">
         <v>36</v>
@@ -34695,7 +34217,7 @@
         <v>31</v>
       </c>
       <c r="J629" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K629" t="s">
         <v>20</v>
@@ -34738,8 +34260,8 @@
       <c r="F630" t="n">
         <v>3</v>
       </c>
-      <c r="G630" t="e">
-        <v>#NUM!</v>
+      <c r="G630" t="n">
+        <v>0.6</v>
       </c>
       <c r="H630" t="s">
         <v>36</v>
@@ -34748,7 +34270,7 @@
         <v>31</v>
       </c>
       <c r="J630" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K630" t="s">
         <v>20</v>
@@ -34791,8 +34313,8 @@
       <c r="F631" t="n">
         <v>1</v>
       </c>
-      <c r="G631" t="n">
-        <v>0.777777777777778</v>
+      <c r="G631" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H631" t="s">
         <v>252</v>
@@ -34801,10 +34323,10 @@
         <v>31</v>
       </c>
       <c r="J631" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K631" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L631" t="n">
         <v>0</v>
@@ -34967,8 +34489,8 @@
       <c r="F635" t="n">
         <v>3</v>
       </c>
-      <c r="G635" t="e">
-        <v>#NUM!</v>
+      <c r="G635" t="n">
+        <v>0.55</v>
       </c>
       <c r="H635" t="s">
         <v>36</v>
@@ -35021,7 +34543,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="n">
-        <v>0.422222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H636" t="s">
         <v>36</v>
@@ -35073,8 +34595,8 @@
       <c r="F637" t="n">
         <v>3</v>
       </c>
-      <c r="G637" t="e">
-        <v>#NUM!</v>
+      <c r="G637" t="n">
+        <v>0.45</v>
       </c>
       <c r="H637" t="s">
         <v>36</v>
@@ -35083,7 +34605,7 @@
         <v>31</v>
       </c>
       <c r="J637" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K637" t="s">
         <v>20</v>
@@ -35126,9 +34648,7 @@
       <c r="F638" t="n">
         <v>3</v>
       </c>
-      <c r="G638" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G638"/>
       <c r="H638" t="s">
         <v>36</v>
       </c>
@@ -35179,9 +34699,7 @@
       <c r="F639" t="n">
         <v>3</v>
       </c>
-      <c r="G639" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G639"/>
       <c r="H639" t="s">
         <v>36</v>
       </c>
@@ -35232,9 +34750,7 @@
       <c r="F640" t="n">
         <v>3</v>
       </c>
-      <c r="G640" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G640"/>
       <c r="H640" t="s">
         <v>36</v>
       </c>
@@ -35285,9 +34801,7 @@
       <c r="F641" t="n">
         <v>3</v>
       </c>
-      <c r="G641" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G641"/>
       <c r="H641" t="s">
         <v>36</v>
       </c>
@@ -35376,7 +34890,7 @@
       <c r="E643"/>
       <c r="F643"/>
       <c r="G643" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H643" t="s">
         <v>36</v>
@@ -35429,7 +34943,7 @@
         <v>3</v>
       </c>
       <c r="G644" t="n">
-        <v>0.955555555555556</v>
+        <v>0.95</v>
       </c>
       <c r="H644" t="s">
         <v>36</v>
@@ -35482,7 +34996,7 @@
         <v>3</v>
       </c>
       <c r="G645" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H645" t="s">
         <v>36</v>
@@ -35535,7 +35049,7 @@
         <v>2</v>
       </c>
       <c r="G646" t="n">
-        <v>0.355555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="H646" t="s">
         <v>141</v>
@@ -35588,7 +35102,7 @@
         <v>2</v>
       </c>
       <c r="G647" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H647" t="s">
         <v>141</v>
@@ -35641,7 +35155,7 @@
         <v>2</v>
       </c>
       <c r="G648" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H648" t="s">
         <v>141</v>
@@ -35694,7 +35208,7 @@
         <v>2</v>
       </c>
       <c r="G649" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H649" t="s">
         <v>141</v>
@@ -35747,7 +35261,7 @@
         <v>2</v>
       </c>
       <c r="G650" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H650" t="s">
         <v>141</v>
@@ -35800,7 +35314,7 @@
         <v>2</v>
       </c>
       <c r="G651" t="n">
-        <v>0.333333333333333</v>
+        <v>0.35</v>
       </c>
       <c r="H651" t="s">
         <v>141</v>
@@ -35853,7 +35367,7 @@
         <v>2</v>
       </c>
       <c r="G652" t="n">
-        <v>0.533333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="H652" t="s">
         <v>141</v>
@@ -35906,7 +35420,7 @@
         <v>2</v>
       </c>
       <c r="G653" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H653" t="s">
         <v>141</v>
@@ -35959,7 +35473,7 @@
         <v>2</v>
       </c>
       <c r="G654" t="n">
-        <v>0.444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H654" t="s">
         <v>141</v>
@@ -36012,7 +35526,7 @@
         <v>2</v>
       </c>
       <c r="G655" t="n">
-        <v>0.533333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="H655" t="s">
         <v>141</v>
@@ -36065,7 +35579,7 @@
         <v>2</v>
       </c>
       <c r="G656" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H656" t="s">
         <v>141</v>
@@ -36118,7 +35632,7 @@
         <v>1</v>
       </c>
       <c r="G657" t="n">
-        <v>0.755555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="H657" t="s">
         <v>36</v>
@@ -36171,7 +35685,7 @@
         <v>1</v>
       </c>
       <c r="G658" t="n">
-        <v>0.755555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="H658" t="s">
         <v>36</v>
@@ -36224,7 +35738,7 @@
         <v>1</v>
       </c>
       <c r="G659" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="H659" t="s">
         <v>36</v>
@@ -36277,7 +35791,7 @@
         <v>1</v>
       </c>
       <c r="G660" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H660" t="s">
         <v>36</v>
@@ -36330,7 +35844,7 @@
         <v>1</v>
       </c>
       <c r="G661" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="H661" t="s">
         <v>36</v>
@@ -36383,7 +35897,7 @@
         <v>1</v>
       </c>
       <c r="G662" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H662" t="s">
         <v>36</v>
@@ -36436,7 +35950,7 @@
         <v>1</v>
       </c>
       <c r="G663" t="n">
-        <v>0.644444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="H663" t="s">
         <v>36</v>
@@ -36489,7 +36003,7 @@
         <v>1</v>
       </c>
       <c r="G664" t="n">
-        <v>0.644444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="H664" t="s">
         <v>36</v>
@@ -36542,7 +36056,7 @@
         <v>2</v>
       </c>
       <c r="G665" t="n">
-        <v>0.666666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="H665" t="s">
         <v>36</v>
@@ -36595,7 +36109,7 @@
         <v>2</v>
       </c>
       <c r="G666" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H666" t="s">
         <v>36</v>
@@ -36648,7 +36162,7 @@
         <v>2</v>
       </c>
       <c r="G667" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H667" t="s">
         <v>36</v>
@@ -36701,7 +36215,7 @@
         <v>3</v>
       </c>
       <c r="G668" t="n">
-        <v>0.844444444444444</v>
+        <v>0.825</v>
       </c>
       <c r="H668" t="s">
         <v>36</v>
@@ -36753,9 +36267,7 @@
       <c r="F669" t="n">
         <v>1</v>
       </c>
-      <c r="G669" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G669"/>
       <c r="H669" t="s">
         <v>27</v>
       </c>
@@ -36983,7 +36495,7 @@
         <v>3</v>
       </c>
       <c r="G674" t="n">
-        <v>0.755555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="H674" t="s">
         <v>36</v>
@@ -37036,7 +36548,7 @@
         <v>2</v>
       </c>
       <c r="G675" t="n">
-        <v>0.777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="H675" t="s">
         <v>53</v>
@@ -37089,7 +36601,7 @@
         <v>2</v>
       </c>
       <c r="G676" t="n">
-        <v>0.688888888888889</v>
+        <v>0.675</v>
       </c>
       <c r="H676" t="s">
         <v>53</v>
@@ -37142,7 +36654,7 @@
         <v>2</v>
       </c>
       <c r="G677" t="n">
-        <v>0.533333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="H677" t="s">
         <v>53</v>
@@ -37195,7 +36707,7 @@
         <v>2</v>
       </c>
       <c r="G678" t="n">
-        <v>0.533333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="H678" t="s">
         <v>53</v>
@@ -37248,7 +36760,7 @@
         <v>2</v>
       </c>
       <c r="G679" t="n">
-        <v>0.355555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="H679" t="s">
         <v>53</v>
@@ -37407,7 +36919,7 @@
         <v>2</v>
       </c>
       <c r="G682" t="n">
-        <v>0.377777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="H682" t="s">
         <v>53</v>
@@ -37460,7 +36972,7 @@
         <v>2</v>
       </c>
       <c r="G683" t="n">
-        <v>0.377777777777778</v>
+        <v>0.35</v>
       </c>
       <c r="H683" t="s">
         <v>53</v>
@@ -37513,7 +37025,7 @@
         <v>2</v>
       </c>
       <c r="G684" t="n">
-        <v>0.511111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="H684" t="s">
         <v>53</v>
@@ -37566,7 +37078,7 @@
         <v>2</v>
       </c>
       <c r="G685" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H685" t="s">
         <v>53</v>
@@ -37619,7 +37131,7 @@
         <v>2</v>
       </c>
       <c r="G686" t="n">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H686" t="s">
         <v>53</v>
@@ -37672,7 +37184,7 @@
         <v>2</v>
       </c>
       <c r="G687" t="n">
-        <v>0.622222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H687" t="s">
         <v>53</v>
@@ -37725,7 +37237,7 @@
         <v>3</v>
       </c>
       <c r="G688" t="n">
-        <v>0.511111111111111</v>
+        <v>0.475</v>
       </c>
       <c r="H688" t="s">
         <v>221</v>
@@ -37778,7 +37290,7 @@
         <v>3</v>
       </c>
       <c r="G689" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H689" t="s">
         <v>221</v>
@@ -37831,7 +37343,7 @@
         <v>3</v>
       </c>
       <c r="G690" t="n">
-        <v>0.511111111111111</v>
+        <v>0.475</v>
       </c>
       <c r="H690" t="s">
         <v>221</v>
@@ -37884,7 +37396,7 @@
         <v>3</v>
       </c>
       <c r="G691" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H691" t="s">
         <v>221</v>
@@ -37937,7 +37449,7 @@
         <v>3</v>
       </c>
       <c r="G692" t="n">
-        <v>0.622222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="H692" t="s">
         <v>221</v>
@@ -37990,7 +37502,7 @@
         <v>2</v>
       </c>
       <c r="G693" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H693" t="s">
         <v>221</v>
@@ -38043,7 +37555,7 @@
         <v>3</v>
       </c>
       <c r="G694" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H694" t="s">
         <v>221</v>
@@ -38096,7 +37608,7 @@
         <v>3</v>
       </c>
       <c r="G695" t="n">
-        <v>0.555555555555556</v>
+        <v>0.525</v>
       </c>
       <c r="H695" t="s">
         <v>221</v>
@@ -38149,7 +37661,7 @@
         <v>3</v>
       </c>
       <c r="G696" t="n">
-        <v>0.488888888888889</v>
+        <v>0.525</v>
       </c>
       <c r="H696" t="s">
         <v>221</v>
@@ -38202,7 +37714,7 @@
         <v>3</v>
       </c>
       <c r="G697" t="n">
-        <v>0.533333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="H697" t="s">
         <v>221</v>
@@ -38255,7 +37767,7 @@
         <v>3</v>
       </c>
       <c r="G698" t="n">
-        <v>0.466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="H698" t="s">
         <v>221</v>
@@ -38308,7 +37820,7 @@
         <v>3</v>
       </c>
       <c r="G699" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H699" t="s">
         <v>221</v>
@@ -38361,7 +37873,7 @@
         <v>3</v>
       </c>
       <c r="G700" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H700" t="s">
         <v>221</v>
@@ -38414,7 +37926,7 @@
         <v>3</v>
       </c>
       <c r="G701" t="n">
-        <v>0.422222222222222</v>
+        <v>0.45</v>
       </c>
       <c r="H701" t="s">
         <v>221</v>
@@ -38467,7 +37979,7 @@
         <v>3</v>
       </c>
       <c r="G702" t="n">
-        <v>0.444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="H702" t="s">
         <v>221</v>
@@ -38573,7 +38085,7 @@
         <v>2</v>
       </c>
       <c r="G704" t="n">
-        <v>0.511111111111111</v>
+        <v>0.475</v>
       </c>
       <c r="H704" t="s">
         <v>36</v>
@@ -38626,7 +38138,7 @@
         <v>2</v>
       </c>
       <c r="G705" t="n">
-        <v>0.533333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="H705" t="s">
         <v>36</v>
@@ -38679,7 +38191,7 @@
         <v>2</v>
       </c>
       <c r="G706" t="n">
-        <v>0.422222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="H706" t="s">
         <v>36</v>
@@ -38732,7 +38244,7 @@
         <v>2</v>
       </c>
       <c r="G707" t="n">
-        <v>0.422222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="H707" t="s">
         <v>36</v>
@@ -38785,7 +38297,7 @@
         <v>2</v>
       </c>
       <c r="G708" t="n">
-        <v>0.311111111111111</v>
+        <v>0.275</v>
       </c>
       <c r="H708" t="s">
         <v>36</v>
@@ -38838,7 +38350,7 @@
         <v>2</v>
       </c>
       <c r="G709" t="n">
-        <v>0.488888888888889</v>
+        <v>0.425</v>
       </c>
       <c r="H709" t="s">
         <v>36</v>
@@ -38891,7 +38403,7 @@
         <v>2</v>
       </c>
       <c r="G710" t="n">
-        <v>0.466666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="H710" t="s">
         <v>36</v>
@@ -38944,7 +38456,7 @@
         <v>2</v>
       </c>
       <c r="G711" t="n">
-        <v>0.577777777777778</v>
+        <v>0.525</v>
       </c>
       <c r="H711" t="s">
         <v>36</v>
@@ -38996,9 +38508,7 @@
       <c r="F712" t="n">
         <v>2</v>
       </c>
-      <c r="G712" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G712"/>
       <c r="H712" t="s">
         <v>36</v>
       </c>
@@ -39050,7 +38560,7 @@
         <v>1</v>
       </c>
       <c r="G713" t="n">
-        <v>0.488888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H713" t="s">
         <v>763</v>
@@ -39103,7 +38613,7 @@
         <v>1</v>
       </c>
       <c r="G714" t="n">
-        <v>0.444444444444444</v>
+        <v>0.475</v>
       </c>
       <c r="H714" t="s">
         <v>763</v>
@@ -39156,7 +38666,7 @@
         <v>1</v>
       </c>
       <c r="G715" t="n">
-        <v>0.488888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="H715" t="s">
         <v>763</v>
@@ -39209,7 +38719,7 @@
         <v>1</v>
       </c>
       <c r="G716" t="n">
-        <v>0.488888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="H716" t="s">
         <v>763</v>
@@ -39262,7 +38772,7 @@
         <v>1</v>
       </c>
       <c r="G717" t="n">
-        <v>0.466666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="H717" t="s">
         <v>763</v>
@@ -39315,7 +38825,7 @@
         <v>1</v>
       </c>
       <c r="G718" t="n">
-        <v>0.733333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="H718" t="s">
         <v>763</v>
@@ -39368,7 +38878,7 @@
         <v>1</v>
       </c>
       <c r="G719" t="n">
-        <v>0.777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="H719" t="s">
         <v>763</v>
@@ -39421,7 +38931,7 @@
         <v>1</v>
       </c>
       <c r="G720" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H720" t="s">
         <v>763</v>
@@ -39433,7 +38943,7 @@
         <v>21</v>
       </c>
       <c r="K720" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L720" t="n">
         <v>100</v>
@@ -39474,7 +38984,7 @@
         <v>1</v>
       </c>
       <c r="G721" t="n">
-        <v>0.733333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H721" t="s">
         <v>763</v>
@@ -39526,9 +39036,7 @@
       <c r="F722" t="n">
         <v>2</v>
       </c>
-      <c r="G722" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G722"/>
       <c r="H722" t="s">
         <v>36</v>
       </c>
@@ -39575,8 +39083,8 @@
       </c>
       <c r="E723"/>
       <c r="F723"/>
-      <c r="G723" t="e">
-        <v>#NUM!</v>
+      <c r="G723" t="n">
+        <v>0.55</v>
       </c>
       <c r="H723" t="s">
         <v>36</v>
@@ -39585,7 +39093,7 @@
         <v>31</v>
       </c>
       <c r="J723" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K723" t="s">
         <v>20</v>
@@ -39827,9 +39335,7 @@
       <c r="F729" t="n">
         <v>2</v>
       </c>
-      <c r="G729" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G729"/>
       <c r="H729" t="s">
         <v>36</v>
       </c>
@@ -39881,7 +39387,7 @@
         <v>2</v>
       </c>
       <c r="G730" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="H730" t="s">
         <v>36</v>
@@ -39934,7 +39440,7 @@
         <v>2</v>
       </c>
       <c r="G731" t="n">
-        <v>0.711111111111111</v>
+        <v>0.675</v>
       </c>
       <c r="H731" t="s">
         <v>36</v>
@@ -39946,7 +39452,7 @@
         <v>21</v>
       </c>
       <c r="K731" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L731" t="n">
         <v>3.08708129583914</v>
@@ -39987,7 +39493,7 @@
         <v>2</v>
       </c>
       <c r="G732" t="n">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="H732" t="s">
         <v>36</v>
@@ -39996,7 +39502,7 @@
         <v>31</v>
       </c>
       <c r="J732" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K732" t="s">
         <v>21</v>
@@ -40040,7 +39546,7 @@
         <v>2</v>
       </c>
       <c r="G733" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="H733" t="s">
         <v>36</v>
@@ -40093,7 +39599,7 @@
         <v>2</v>
       </c>
       <c r="G734" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H734" t="s">
         <v>36</v>
@@ -40146,7 +39652,7 @@
         <v>2</v>
       </c>
       <c r="G735" t="n">
-        <v>0.866666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="H735" t="s">
         <v>36</v>
@@ -40198,9 +39704,7 @@
       <c r="F736" t="n">
         <v>2</v>
       </c>
-      <c r="G736" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G736"/>
       <c r="H736" t="s">
         <v>36</v>
       </c>
@@ -40251,9 +39755,7 @@
       <c r="F737" t="n">
         <v>1</v>
       </c>
-      <c r="G737" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G737"/>
       <c r="H737" t="s">
         <v>36</v>
       </c>
@@ -40304,9 +39806,7 @@
       <c r="F738" t="n">
         <v>1</v>
       </c>
-      <c r="G738" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G738"/>
       <c r="H738" t="s">
         <v>36</v>
       </c>
